--- a/output.xlsx
+++ b/output.xlsx
@@ -3,36 +3,106 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-14925" yWindow="-16395" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Upload_Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Upload" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Upload_Template" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Deliverable_Fields_Status" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ExcelAddinMetadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Upload_Template'!$A$1:$L$273</definedName>
+  </definedNames>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +110,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -123,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,39 +289,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -269,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -328,6 +484,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -336,13 +499,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -407,31 +563,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,39 +579,5510 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:C4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.44140625" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="15.88671875" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="60.6640625" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.44140625" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="60.6640625" customWidth="1" style="14" min="5" max="5"/>
+    <col width="29.44140625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="50.109375" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
+    <col width="52.5546875" bestFit="1" customWidth="1" style="14" min="8" max="8"/>
+    <col width="21" bestFit="1" customWidth="1" style="14" min="9" max="9"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="18" min="10" max="10"/>
+    <col width="57.44140625" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
+    <col width="58.33203125" bestFit="1" customWidth="1" style="21" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="26">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>Project Key</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>Issue Type</t>
+        </is>
+      </c>
+      <c r="C1" s="22" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="D1" s="23" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="E1" s="22" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>Reporter</t>
+        </is>
+      </c>
+      <c r="G1" s="22" t="inlineStr">
+        <is>
+          <t>PIP - Customer</t>
+        </is>
+      </c>
+      <c r="H1" s="22" t="inlineStr">
+        <is>
+          <t>PIP - Supplier</t>
+        </is>
+      </c>
+      <c r="I1" s="22" t="inlineStr">
+        <is>
+          <t>Fix Version/s</t>
+        </is>
+      </c>
+      <c r="J1" s="24" t="inlineStr">
+        <is>
+          <t>Epic Link</t>
+        </is>
+      </c>
+      <c r="K1" s="22" t="inlineStr">
+        <is>
+          <t>Epic Name</t>
+        </is>
+      </c>
+      <c r="L1" s="25" t="inlineStr">
+        <is>
+          <t>Epic Name Reference for Epic Linking</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="15" t="n"/>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
+      <c r="D2" s="15" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="18" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
+      <c r="L2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="15" t="n"/>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>TM4.021.01 - TM4.021.01</t>
+        </is>
+      </c>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Program Management is accountable for regular update of project justification by answering the RWW questions:
+* REAL? Is there a real need at the market? Is the problem we try to solve or the envisioend benefit real? Are customers are willing to pay for our solution? 
+* WIN? can we deliver the added value we are aiming for with the new technology? is it feasible within the given time? Will customers accept our solution?
+*WORTH IT? Is it worth spending the real costs and the opportunity costs for this Technology?</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="n"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="9" t="n"/>
+      <c r="L3" s="19" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="15" t="n"/>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>* Do we need development partners? 
+If so who? and when to involve (right from the beginning or only for qualification?)</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="n"/>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>Product Marketing</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J4" s="17" t="n"/>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
+      <c r="L4" s="19" t="inlineStr">
+        <is>
+          <t>MRS (80%) - M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="15" t="n"/>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>TM4.031.01 - TM4.031.01</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>*Alignment PRS with results of the current phase, e.g. test results, FMEA Measures, built issues, etc.
+* Update risk assessment and mitigation based on Jira items
+* Update risk assessment and mitigation of remaining topics based on the dashboard</t>
+        </is>
+      </c>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="19" t="inlineStr">
+        <is>
+          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="15" t="n"/>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>TM4.031.02 - TM4.031.02</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>* lessons Learned session with project team and relevant stakeholders done
+* results documented and communicated</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="n"/>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="9" t="inlineStr">
+        <is>
+          <t>Project planning M2 - M1</t>
+        </is>
+      </c>
+      <c r="L6" s="19" t="inlineStr">
+        <is>
+          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="15" t="n"/>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>TM4.031.03 - TM4.031.03</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>*A Handover list completed 
+* List of open issues assigend to responsible (supplier in the phase of productization)
+* all project closing relevant tasks fulfilled
+* sign-off by  customer</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="n"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr / PEP PM</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>Project planning - M2</t>
+        </is>
+      </c>
+      <c r="L7" s="19" t="inlineStr">
+        <is>
+          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="n"/>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>The technology needs to be handed over properly to a either a PCM or PEP for productization. 
+All items needs to be defined in the TDP Handover List, as
+- links to a technical file describing the developement of the technology and related learnings,
+- all design documents (BOM, drawings)
+- Supporting documents or TAs for assembly and integration
+- Shop floor test instructions
+- Part quality and supplier information
+- SW documentation
+...</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="n"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I8" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
+      <c r="L8" s="19" t="inlineStr">
+        <is>
+          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="15" t="n"/>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>TM4.033.01 - TM4.033.01</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>*check final qualification status on PRS Level</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="n"/>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
+      <c r="L9" s="19" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="15" t="n"/>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>TM4.033.02 - TM4.033.02</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Evaluation of test results and comparison with MRS and PRS 
+*root cause analysis for unsuccessfull  test results
+*create back log list for further improvement 
+*open issues from the back log list must be assigned and solutions developed</t>
+        </is>
+      </c>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>PA (Project Application) - M2</t>
+        </is>
+      </c>
+      <c r="L10" s="20" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="n"/>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>* Define a relevant test case for technical PRS items in Jira
+* Ensure the required test environment in coordination with the parties
+  concerned, such as the laboratory
+* Ensure an all encompassing test concept for qualification phase
+   to ensure fullfillement of each requirement of the PRS</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
+      <c r="L11" s="20" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="15" t="n"/>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>TM4.041.01 - TM4.041.01</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>* conduct Review of all qualification results
+* identify gaps to targeted TRL
+* define measures 
+* re-iterate development if needed</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M2</t>
+        </is>
+      </c>
+      <c r="L12" s="20" t="inlineStr">
+        <is>
+          <t>Which risks are pending regarding update of assessment and mitigation? (Project and PRS risks) - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="15" t="n"/>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>TM4.041.02 - TM4.041.02</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="n"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>* tested at customer and feedback received
+e.g. wishes for product improvememt</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="n"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>Which risks are pending regarding update of assessment and mitigation? (Project and PRS risks) - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>* Make sure that the tests / investigations answering the key questions are  handled with priority
+* each key question shall be answered and well documented in a Technical Investigation Report</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
+      <c r="L14" s="20" t="inlineStr">
+        <is>
+          <t>Project plan (timeline and budget) updated until TM4? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="15" t="n"/>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>TM4.042.01 - TM4.042.01</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>* Final design reported created/updated (shows final design)
+* released</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>Lessons learned done and communicated? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="15" t="n"/>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>TM4.042.02 - TM4.042.02</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>* update of Technical Development File report by qualification results and latest learnings (shows design incl. all relevant learnings - to preserve the knowledge)</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="n"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>Lessons learned done and communicated? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>TM4.042.03 - TM4.042.03</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>* review items of handover list individually with receiwing project/customer
+* list is complete</t>
+        </is>
+      </c>
+      <c r="F17" s="18" t="n"/>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="20" t="inlineStr">
+        <is>
+          <t>Lessons learned done and communicated? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="15" t="n"/>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>Software for qualification - M4</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>* Check if the Concept fulfills all PRS requirements
+* Document results and degree of fullfillment
+-&gt; as input for Concept Review Meeting</t>
+        </is>
+      </c>
+      <c r="F18" s="18" t="n"/>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>Software for qualification - M4</t>
+        </is>
+      </c>
+      <c r="L18" s="20" t="inlineStr">
+        <is>
+          <t>Which risks are pending regarding assessment and mitigation? (Project and PRS risks) - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>TM4.044.01 - TM4.044.01</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>*Update check of software releases available for productization</t>
+        </is>
+      </c>
+      <c r="F19" s="18" t="n"/>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Software 
+Development</t>
+        </is>
+      </c>
+      <c r="I19" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
+        </is>
+      </c>
+      <c r="L19" s="20" t="inlineStr">
+        <is>
+          <t>Which stakeholders have not yet released the handover list? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Document the key learnings in a comprehensive Technical Investigation Report</t>
+        </is>
+      </c>
+      <c r="F20" s="18" t="n"/>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
+      <c r="L20" s="20" t="inlineStr">
+        <is>
+          <t>Which risks are pending regarding assessment and mitigation? (Project and PRS risks) - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>TM4.051.01 - TM4.051.01</t>
+        </is>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>* Make sure that LoD is up to date</t>
+        </is>
+      </c>
+      <c r="F21" s="18" t="n"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I21" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="15" t="n"/>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>TM4.051.02 - TM4.051.02</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>* Make sure that FTO for the whole technology exists</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="n"/>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="9" t="n"/>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="15" t="n"/>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>* Check if the design fulfills all PRS requirements
+* Document results and degree of fullfillment
+-&gt; as input for Design Review Meeting</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="n"/>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
+      <c r="L23" s="19" t="inlineStr">
+        <is>
+          <t>Which information are missing to give a commitment to deliver the new technology with TRL5 on time? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="15" t="n"/>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>TM4.061.01 - TM4.061.01</t>
+        </is>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>*Update Design FMEA
+*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)
+*Create a mitigation pactions which needs to be considered in further developemnt /productization</t>
+        </is>
+      </c>
+      <c r="F24" s="18" t="n"/>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="9" t="n"/>
+      <c r="L24" s="19" t="inlineStr">
+        <is>
+          <t>Which PRS elements have not been qualified? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>TM4.061.02 - TM4.061.02</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>*verification of the FSR from technology and quality together
+*decision for release or release with condition or rejection</t>
+        </is>
+      </c>
+      <c r="F25" s="18" t="n"/>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>IP Overview - M2</t>
+        </is>
+      </c>
+      <c r="L25" s="19" t="inlineStr">
+        <is>
+          <t>Which PRS elements have not been qualified? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>TM4.061.03 - TM4.061.03</t>
+        </is>
+      </c>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Updates of
+* potential analysis  
+* measures defined, incl. status to ISO 9001
+to be followed up in productization</t>
+        </is>
+      </c>
+      <c r="F26" s="18" t="n"/>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I26" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>Software for development - M3</t>
+        </is>
+      </c>
+      <c r="L26" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS elements have not been qualified? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="15" t="n"/>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>* Check software releases available for the project
+* Define SW features and release version (What&amp;When?)
+* If new software is needed for the project, update aligned timeline with the SW Project Management including releases for backlog topics</t>
+        </is>
+      </c>
+      <c r="F27" s="18" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+        </is>
+      </c>
+      <c r="L27" s="20" t="inlineStr">
+        <is>
+          <t>Which items of the handshake to PEP / PCM are not yet defined in the handover list? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="15" t="n"/>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>TM4.071.01 - TM4.071.01</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>* Long Lead items for Productization identified
+* All documents are prepared for order
+* or in follow up project</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="n"/>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M3</t>
+        </is>
+      </c>
+      <c r="L28" s="20" t="inlineStr">
+        <is>
+          <t>Which test cases have not been passed yet? - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Project Controlling - M4</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>All technical differences compared to the state fo the art (own technology as well as foreign technology) has been identified and listed</t>
+        </is>
+      </c>
+      <c r="F29" s="18" t="n"/>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>Project Controlling - M4</t>
+        </is>
+      </c>
+      <c r="L29" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>TM4.101.01 - TM4.101.01</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>* validation of spent project costs</t>
+        </is>
+      </c>
+      <c r="F30" s="18" t="n"/>
+      <c r="G30" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H30" s="9" t="inlineStr">
+        <is>
+          <t>Controlling</t>
+        </is>
+      </c>
+      <c r="I30" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Development - M2</t>
+        </is>
+      </c>
+      <c r="L30" s="20" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Long Lead Item (LLI) list w/ suppliers created</t>
+        </is>
+      </c>
+      <c r="F31" s="18" t="n"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
+      <c r="L31" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="15" t="n"/>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.01 - TM3.061.01</t>
+        </is>
+      </c>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>* Conduct Concept FMEA for the Technology
+( for TRL4 only high level is needed)
+* Define mitigation measures
+* implementation of critical measues 
+* Create a timeline and mitigation plan for those that are not yet implemented</t>
+        </is>
+      </c>
+      <c r="F32" s="18" t="n"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet updated? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="15" t="n"/>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.02 - TM3.061.02</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>*Update Design FMEA
+*Implement Design FMEA
+*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)
+*Create a timeline and mitigation plan for those that are not yet implemented</t>
+        </is>
+      </c>
+      <c r="F33" s="18" t="n"/>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet updated? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="15" t="n"/>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.03 - TM3.061.03</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="n"/>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>* Define / update a list of critical components
+* 100% verification of dimensions for all critical components 
+* funtional tests done for functional units
+* If Final design loop: FSR required</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="n"/>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I34" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="3" t="n"/>
+      <c r="L34" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet updated? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="15" t="n"/>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>TM3.061.04 - TM3.061.04</t>
+        </is>
+      </c>
+      <c r="D35" s="15" t="n"/>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>* potential analysis completed 
+* measures defined, incl. status to ISO 9001</t>
+        </is>
+      </c>
+      <c r="F35" s="18" t="n"/>
+      <c r="G35" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I35" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet updated? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="15" t="n"/>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="18" t="n"/>
+      <c r="G36" s="3" t="n"/>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
+      <c r="L36" s="20" t="n"/>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="15" t="n"/>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>TM3.071.01 - TM3.071.01</t>
+        </is>
+      </c>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>* List of suppliers defined
+* Aligned w/ purchasing</t>
+        </is>
+      </c>
+      <c r="F37" s="18" t="n"/>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet linked to a test case? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>TM3.071.02 - TM3.071.02</t>
+        </is>
+      </c>
+      <c r="D38" s="15" t="n"/>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>* all parts needed for testing of the current development loop are available</t>
+        </is>
+      </c>
+      <c r="F38" s="18" t="n"/>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet linked to a test case? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="15" t="n"/>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>TM3.071.03 - TM3.071.03</t>
+        </is>
+      </c>
+      <c r="D39" s="15" t="n"/>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Purchasing 
+* Purchasing to provide their relevant requirements</t>
+        </is>
+      </c>
+      <c r="F39" s="18" t="n"/>
+      <c r="G39" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I39" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="20" t="inlineStr">
+        <is>
+          <t>Which PRS items are not yet linked to a test case? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="15" t="n"/>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Operations - M3</t>
+        </is>
+      </c>
+      <c r="D40" s="15" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="18" t="n"/>
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
+      <c r="I40" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>Operations - M3</t>
+        </is>
+      </c>
+      <c r="L40" s="20" t="n"/>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>TM3.081.01 - TM3.081.01</t>
+        </is>
+      </c>
+      <c r="D41" s="15" t="n"/>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Operations 
+* Operations to provide their relevant requirements</t>
+        </is>
+      </c>
+      <c r="F41" s="18" t="n"/>
+      <c r="G41" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="I41" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="20" t="inlineStr">
+        <is>
+          <t>Which test cases have not been passed yet? - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Service - M3</t>
+        </is>
+      </c>
+      <c r="D42" s="15" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="18" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>Service - M3</t>
+        </is>
+      </c>
+      <c r="L42" s="20" t="n"/>
+    </row>
+    <row r="43" ht="30" customHeight="1">
+      <c r="A43" s="15" t="n"/>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>TM3.091.01 - TM3.091.01</t>
+        </is>
+      </c>
+      <c r="D43" s="15" t="n"/>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Service 
+* Service to provide their relevant requirements</t>
+        </is>
+      </c>
+      <c r="F43" s="18" t="n"/>
+      <c r="G43" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H43" s="9" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="I43" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="20" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="15" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="15" t="n"/>
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="18" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="10" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="3" t="n"/>
+      <c r="L44" s="20" t="n"/>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="15" t="n"/>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="15" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="18" t="n"/>
+      <c r="G45" s="9" t="n"/>
+      <c r="H45" s="9" t="n"/>
+      <c r="I45" s="13" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="20" t="n"/>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="15" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="18" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="10" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="3" t="n"/>
+      <c r="L46" s="20" t="n"/>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="15" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="18" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="9" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="20" t="n"/>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="15" t="n"/>
+      <c r="B48" s="10" t="n"/>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="15" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="18" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="10" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="3" t="n"/>
+      <c r="L48" s="20" t="n"/>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="15" t="n"/>
+      <c r="B49" s="10" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="15" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="18" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="10" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="20" t="n"/>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="15" t="n"/>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="15" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="18" t="n"/>
+      <c r="G50" s="9" t="n"/>
+      <c r="H50" s="9" t="n"/>
+      <c r="I50" s="9" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="20" t="n"/>
+    </row>
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="15" t="n"/>
+      <c r="B51" s="10" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="15" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="18" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="20" t="n"/>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="15" t="n"/>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="15" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="18" t="n"/>
+      <c r="G52" s="9" t="n"/>
+      <c r="H52" s="9" t="n"/>
+      <c r="I52" s="9" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="20" t="n"/>
+    </row>
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="15" t="n"/>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="15" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="18" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="10" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="20" t="n"/>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="15" t="n"/>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="15" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="18" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="10" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="20" t="n"/>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="15" t="n"/>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="15" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="18" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="10" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="20" t="n"/>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="15" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="3" t="n"/>
+      <c r="D56" s="15" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="18" t="n"/>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+      <c r="I56" s="10" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="20" t="n"/>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="15" t="n"/>
+      <c r="B57" s="10" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="15" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="18" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="10" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="20" t="n"/>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="10" t="n"/>
+      <c r="C58" s="3" t="n"/>
+      <c r="D58" s="15" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="18" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
+      <c r="I58" s="10" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="3" t="n"/>
+      <c r="L58" s="20" t="n"/>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="15" t="n"/>
+      <c r="B59" s="10" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="15" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="18" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="10" t="n"/>
+      <c r="J59" s="15" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="20" t="n"/>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="15" t="n"/>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="15" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="18" t="n"/>
+      <c r="G60" s="9" t="n"/>
+      <c r="H60" s="9" t="n"/>
+      <c r="I60" s="9" t="n"/>
+      <c r="J60" s="15" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="20" t="n"/>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="15" t="n"/>
+      <c r="B61" s="10" t="n"/>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="15" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="18" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="10" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="20" t="n"/>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="15" t="n"/>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="15" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="18" t="n"/>
+      <c r="G62" s="9" t="n"/>
+      <c r="H62" s="9" t="n"/>
+      <c r="I62" s="9" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="3" t="n"/>
+      <c r="L62" s="20" t="n"/>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="15" t="n"/>
+      <c r="B63" s="10" t="n"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="15" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="18" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="10" t="n"/>
+      <c r="J63" s="15" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="20" t="n"/>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="15" t="n"/>
+      <c r="B64" s="10" t="n"/>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" s="15" t="n"/>
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="18" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="10" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="3" t="n"/>
+      <c r="L64" s="20" t="n"/>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="15" t="n"/>
+      <c r="B65" s="10" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="15" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="18" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="10" t="n"/>
+      <c r="J65" s="15" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="20" t="n"/>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="15" t="n"/>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="15" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="18" t="n"/>
+      <c r="G66" s="9" t="n"/>
+      <c r="H66" s="9" t="n"/>
+      <c r="I66" s="9" t="n"/>
+      <c r="J66" s="15" t="n"/>
+      <c r="K66" s="3" t="n"/>
+      <c r="L66" s="20" t="n"/>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="15" t="n"/>
+      <c r="B67" s="10" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="15" t="n"/>
+      <c r="E67" s="11" t="n"/>
+      <c r="F67" s="18" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="10" t="n"/>
+      <c r="J67" s="15" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="20" t="n"/>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="15" t="n"/>
+      <c r="B68" s="9" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="15" t="n"/>
+      <c r="E68" s="9" t="n"/>
+      <c r="F68" s="18" t="n"/>
+      <c r="G68" s="9" t="n"/>
+      <c r="H68" s="9" t="n"/>
+      <c r="I68" s="9" t="n"/>
+      <c r="J68" s="15" t="n"/>
+      <c r="K68" s="3" t="n"/>
+      <c r="L68" s="20" t="n"/>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="15" t="n"/>
+      <c r="B69" s="10" t="n"/>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="15" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="18" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="10" t="n"/>
+      <c r="J69" s="15" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="20" t="n"/>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="15" t="n"/>
+      <c r="B70" s="9" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="15" t="n"/>
+      <c r="E70" s="9" t="n"/>
+      <c r="F70" s="18" t="n"/>
+      <c r="G70" s="9" t="n"/>
+      <c r="H70" s="9" t="n"/>
+      <c r="I70" s="9" t="n"/>
+      <c r="J70" s="15" t="n"/>
+      <c r="K70" s="3" t="n"/>
+      <c r="L70" s="20" t="n"/>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="15" t="n"/>
+      <c r="B71" s="10" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="15" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="18" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="10" t="n"/>
+      <c r="J71" s="15" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="20" t="n"/>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="15" t="n"/>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="15" t="n"/>
+      <c r="E72" s="9" t="n"/>
+      <c r="F72" s="18" t="n"/>
+      <c r="G72" s="9" t="n"/>
+      <c r="H72" s="9" t="n"/>
+      <c r="I72" s="9" t="n"/>
+      <c r="J72" s="15" t="n"/>
+      <c r="K72" s="3" t="n"/>
+      <c r="L72" s="20" t="n"/>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="15" t="n"/>
+      <c r="B73" s="10" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="15" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="18" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="10" t="n"/>
+      <c r="J73" s="15" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="20" t="n"/>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="15" t="n"/>
+      <c r="B74" s="10" t="n"/>
+      <c r="C74" s="3" t="n"/>
+      <c r="D74" s="15" t="n"/>
+      <c r="E74" s="3" t="n"/>
+      <c r="F74" s="18" t="n"/>
+      <c r="G74" s="3" t="n"/>
+      <c r="H74" s="3" t="n"/>
+      <c r="I74" s="10" t="n"/>
+      <c r="J74" s="15" t="n"/>
+      <c r="K74" s="3" t="n"/>
+      <c r="L74" s="20" t="n"/>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="15" t="n"/>
+      <c r="B75" s="10" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="15" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="18" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="10" t="n"/>
+      <c r="J75" s="15" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="20" t="n"/>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="15" t="n"/>
+      <c r="B76" s="9" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="15" t="n"/>
+      <c r="E76" s="9" t="n"/>
+      <c r="F76" s="18" t="n"/>
+      <c r="G76" s="9" t="n"/>
+      <c r="H76" s="9" t="n"/>
+      <c r="I76" s="9" t="n"/>
+      <c r="J76" s="15" t="n"/>
+      <c r="K76" s="3" t="n"/>
+      <c r="L76" s="20" t="n"/>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="15" t="n"/>
+      <c r="B77" s="10" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="15" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="18" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="10" t="n"/>
+      <c r="J77" s="15" t="n"/>
+      <c r="K77" s="3" t="n"/>
+      <c r="L77" s="20" t="n"/>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="15" t="n"/>
+      <c r="B78" s="9" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="15" t="n"/>
+      <c r="E78" s="9" t="n"/>
+      <c r="F78" s="18" t="n"/>
+      <c r="G78" s="9" t="n"/>
+      <c r="H78" s="9" t="n"/>
+      <c r="I78" s="9" t="n"/>
+      <c r="J78" s="15" t="n"/>
+      <c r="K78" s="3" t="n"/>
+      <c r="L78" s="20" t="n"/>
+    </row>
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="15" t="n"/>
+      <c r="B79" s="10" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="15" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="18" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="10" t="n"/>
+      <c r="J79" s="15" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="20" t="n"/>
+    </row>
+    <row r="80" ht="30" customHeight="1">
+      <c r="A80" s="15" t="n"/>
+      <c r="B80" s="10" t="n"/>
+      <c r="C80" s="3" t="n"/>
+      <c r="D80" s="15" t="n"/>
+      <c r="E80" s="3" t="n"/>
+      <c r="F80" s="18" t="n"/>
+      <c r="G80" s="3" t="n"/>
+      <c r="H80" s="3" t="n"/>
+      <c r="I80" s="10" t="n"/>
+      <c r="J80" s="15" t="n"/>
+      <c r="K80" s="3" t="n"/>
+      <c r="L80" s="20" t="n"/>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="15" t="n"/>
+      <c r="B81" s="10" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="15" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="18" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="10" t="n"/>
+      <c r="J81" s="15" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="20" t="n"/>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="15" t="n"/>
+      <c r="B82" s="10" t="n"/>
+      <c r="C82" s="3" t="n"/>
+      <c r="D82" s="15" t="n"/>
+      <c r="E82" s="3" t="n"/>
+      <c r="F82" s="18" t="n"/>
+      <c r="G82" s="3" t="n"/>
+      <c r="H82" s="3" t="n"/>
+      <c r="I82" s="10" t="n"/>
+      <c r="J82" s="15" t="n"/>
+      <c r="K82" s="3" t="n"/>
+      <c r="L82" s="20" t="n"/>
+    </row>
+    <row r="83" ht="30" customHeight="1">
+      <c r="A83" s="15" t="n"/>
+      <c r="B83" s="10" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="15" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="18" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="10" t="n"/>
+      <c r="J83" s="15" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="20" t="n"/>
+    </row>
+    <row r="84" ht="30" customHeight="1">
+      <c r="A84" s="15" t="n"/>
+      <c r="B84" s="10" t="n"/>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="15" t="n"/>
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="18" t="n"/>
+      <c r="G84" s="3" t="n"/>
+      <c r="H84" s="3" t="n"/>
+      <c r="I84" s="10" t="n"/>
+      <c r="J84" s="15" t="n"/>
+      <c r="K84" s="3" t="n"/>
+      <c r="L84" s="20" t="n"/>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="15" t="n"/>
+      <c r="B85" s="10" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="15" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="18" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="10" t="n"/>
+      <c r="J85" s="15" t="n"/>
+      <c r="K85" s="3" t="n"/>
+      <c r="L85" s="20" t="n"/>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="15" t="n"/>
+      <c r="B86" s="10" t="n"/>
+      <c r="C86" s="3" t="n"/>
+      <c r="D86" s="15" t="n"/>
+      <c r="E86" s="3" t="n"/>
+      <c r="F86" s="18" t="n"/>
+      <c r="G86" s="3" t="n"/>
+      <c r="H86" s="3" t="n"/>
+      <c r="I86" s="10" t="n"/>
+      <c r="J86" s="15" t="n"/>
+      <c r="K86" s="3" t="n"/>
+      <c r="L86" s="20" t="n"/>
+    </row>
+    <row r="87" ht="30" customHeight="1">
+      <c r="A87" s="15" t="n"/>
+      <c r="B87" s="9" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="15" t="n"/>
+      <c r="E87" s="9" t="n"/>
+      <c r="F87" s="18" t="n"/>
+      <c r="G87" s="9" t="n"/>
+      <c r="H87" s="9" t="n"/>
+      <c r="I87" s="9" t="n"/>
+      <c r="J87" s="15" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="20" t="n"/>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="15" t="n"/>
+      <c r="B88" s="10" t="n"/>
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="15" t="n"/>
+      <c r="E88" s="3" t="n"/>
+      <c r="F88" s="18" t="n"/>
+      <c r="G88" s="3" t="n"/>
+      <c r="H88" s="3" t="n"/>
+      <c r="I88" s="10" t="n"/>
+      <c r="J88" s="15" t="n"/>
+      <c r="K88" s="3" t="n"/>
+      <c r="L88" s="20" t="n"/>
+    </row>
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="15" t="n"/>
+      <c r="B89" s="9" t="n"/>
+      <c r="C89" s="4" t="n"/>
+      <c r="D89" s="15" t="n"/>
+      <c r="E89" s="9" t="n"/>
+      <c r="F89" s="18" t="n"/>
+      <c r="G89" s="9" t="n"/>
+      <c r="H89" s="9" t="n"/>
+      <c r="I89" s="9" t="n"/>
+      <c r="J89" s="15" t="n"/>
+      <c r="K89" s="3" t="n"/>
+      <c r="L89" s="20" t="n"/>
+    </row>
+    <row r="90" ht="30" customHeight="1">
+      <c r="A90" s="15" t="n"/>
+      <c r="B90" s="10" t="n"/>
+      <c r="C90" s="3" t="n"/>
+      <c r="D90" s="15" t="n"/>
+      <c r="E90" s="3" t="n"/>
+      <c r="F90" s="18" t="n"/>
+      <c r="G90" s="3" t="n"/>
+      <c r="H90" s="3" t="n"/>
+      <c r="I90" s="10" t="n"/>
+      <c r="J90" s="15" t="n"/>
+      <c r="K90" s="3" t="n"/>
+      <c r="L90" s="20" t="n"/>
+    </row>
+    <row r="91" ht="30" customHeight="1">
+      <c r="A91" s="15" t="n"/>
+      <c r="B91" s="9" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="15" t="n"/>
+      <c r="E91" s="9" t="n"/>
+      <c r="F91" s="18" t="n"/>
+      <c r="G91" s="9" t="n"/>
+      <c r="H91" s="9" t="n"/>
+      <c r="I91" s="9" t="n"/>
+      <c r="J91" s="15" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="20" t="n"/>
+    </row>
+    <row r="92" ht="30" customHeight="1">
+      <c r="A92" s="15" t="n"/>
+      <c r="B92" s="10" t="n"/>
+      <c r="C92" s="3" t="n"/>
+      <c r="D92" s="15" t="n"/>
+      <c r="E92" s="3" t="n"/>
+      <c r="F92" s="18" t="n"/>
+      <c r="G92" s="10" t="n"/>
+      <c r="H92" s="10" t="n"/>
+      <c r="I92" s="10" t="n"/>
+      <c r="J92" s="15" t="n"/>
+      <c r="K92" s="3" t="n"/>
+      <c r="L92" s="20" t="n"/>
+    </row>
+    <row r="93" ht="30" customHeight="1">
+      <c r="A93" s="15" t="n"/>
+      <c r="B93" s="10" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="15" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="18" t="n"/>
+      <c r="G93" s="10" t="n"/>
+      <c r="H93" s="10" t="n"/>
+      <c r="I93" s="10" t="n"/>
+      <c r="J93" s="15" t="n"/>
+      <c r="K93" s="3" t="n"/>
+      <c r="L93" s="20" t="n"/>
+    </row>
+    <row r="94" ht="30" customHeight="1">
+      <c r="A94" s="15" t="n"/>
+      <c r="B94" s="9" t="n"/>
+      <c r="C94" s="4" t="n"/>
+      <c r="D94" s="15" t="n"/>
+      <c r="E94" s="9" t="n"/>
+      <c r="F94" s="18" t="n"/>
+      <c r="G94" s="9" t="n"/>
+      <c r="H94" s="9" t="n"/>
+      <c r="I94" s="9" t="n"/>
+      <c r="J94" s="15" t="n"/>
+      <c r="K94" s="3" t="n"/>
+      <c r="L94" s="20" t="n"/>
+    </row>
+    <row r="95" ht="30" customHeight="1">
+      <c r="A95" s="15" t="n"/>
+      <c r="B95" s="10" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="15" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="18" t="n"/>
+      <c r="G95" s="10" t="n"/>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="10" t="n"/>
+      <c r="J95" s="15" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="20" t="n"/>
+    </row>
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="15" t="n"/>
+      <c r="B96" s="9" t="n"/>
+      <c r="C96" s="4" t="n"/>
+      <c r="D96" s="15" t="n"/>
+      <c r="E96" s="9" t="n"/>
+      <c r="F96" s="18" t="n"/>
+      <c r="G96" s="9" t="n"/>
+      <c r="H96" s="9" t="n"/>
+      <c r="I96" s="9" t="n"/>
+      <c r="J96" s="15" t="n"/>
+      <c r="K96" s="3" t="n"/>
+      <c r="L96" s="20" t="n"/>
+    </row>
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" s="15" t="n"/>
+      <c r="B97" s="10" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="15" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="18" t="n"/>
+      <c r="G97" s="10" t="n"/>
+      <c r="H97" s="10" t="n"/>
+      <c r="I97" s="10" t="n"/>
+      <c r="J97" s="15" t="n"/>
+      <c r="K97" s="3" t="n"/>
+      <c r="L97" s="20" t="n"/>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="15" t="n"/>
+      <c r="B98" s="10" t="n"/>
+      <c r="C98" s="3" t="n"/>
+      <c r="D98" s="15" t="n"/>
+      <c r="E98" s="3" t="n"/>
+      <c r="F98" s="18" t="n"/>
+      <c r="G98" s="10" t="n"/>
+      <c r="H98" s="10" t="n"/>
+      <c r="I98" s="10" t="n"/>
+      <c r="J98" s="15" t="n"/>
+      <c r="K98" s="3" t="n"/>
+      <c r="L98" s="20" t="n"/>
+    </row>
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="15" t="n"/>
+      <c r="B99" s="9" t="n"/>
+      <c r="C99" s="4" t="n"/>
+      <c r="D99" s="15" t="n"/>
+      <c r="E99" s="9" t="n"/>
+      <c r="F99" s="18" t="n"/>
+      <c r="G99" s="9" t="n"/>
+      <c r="H99" s="9" t="n"/>
+      <c r="I99" s="9" t="n"/>
+      <c r="J99" s="15" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="20" t="n"/>
+    </row>
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="15" t="n"/>
+      <c r="B100" s="10" t="n"/>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="15" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="18" t="n"/>
+      <c r="G100" s="10" t="n"/>
+      <c r="H100" s="10" t="n"/>
+      <c r="I100" s="10" t="n"/>
+      <c r="J100" s="15" t="n"/>
+      <c r="K100" s="3" t="n"/>
+      <c r="L100" s="20" t="n"/>
+    </row>
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="15" t="n"/>
+      <c r="B101" s="9" t="n"/>
+      <c r="C101" s="4" t="n"/>
+      <c r="D101" s="15" t="n"/>
+      <c r="E101" s="9" t="n"/>
+      <c r="F101" s="18" t="n"/>
+      <c r="G101" s="9" t="n"/>
+      <c r="H101" s="9" t="n"/>
+      <c r="I101" s="9" t="n"/>
+      <c r="J101" s="15" t="n"/>
+      <c r="K101" s="3" t="n"/>
+      <c r="L101" s="20" t="n"/>
+    </row>
+    <row r="102" ht="30" customHeight="1">
+      <c r="A102" s="15" t="n"/>
+      <c r="B102" s="10" t="n"/>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="15" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="18" t="n"/>
+      <c r="G102" s="10" t="n"/>
+      <c r="H102" s="10" t="n"/>
+      <c r="I102" s="10" t="n"/>
+      <c r="J102" s="15" t="n"/>
+      <c r="K102" s="3" t="n"/>
+      <c r="L102" s="20" t="n"/>
+    </row>
+    <row r="103" ht="30" customHeight="1">
+      <c r="A103" s="15" t="n"/>
+      <c r="B103" s="10" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="15" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="18" t="n"/>
+      <c r="G103" s="10" t="n"/>
+      <c r="H103" s="10" t="n"/>
+      <c r="I103" s="10" t="n"/>
+      <c r="J103" s="15" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="20" t="n"/>
+    </row>
+    <row r="104" ht="30" customHeight="1">
+      <c r="A104" s="15" t="n"/>
+      <c r="B104" s="10" t="n"/>
+      <c r="C104" s="7" t="n"/>
+      <c r="D104" s="15" t="n"/>
+      <c r="E104" s="3" t="n"/>
+      <c r="F104" s="18" t="n"/>
+      <c r="G104" s="10" t="n"/>
+      <c r="H104" s="10" t="n"/>
+      <c r="I104" s="10" t="n"/>
+      <c r="J104" s="15" t="n"/>
+      <c r="K104" s="3" t="n"/>
+      <c r="L104" s="20" t="n"/>
+    </row>
+    <row r="105" ht="30" customHeight="1">
+      <c r="A105" s="15" t="n"/>
+      <c r="B105" s="10" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="15" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="18" t="n"/>
+      <c r="G105" s="10" t="n"/>
+      <c r="H105" s="10" t="n"/>
+      <c r="I105" s="10" t="n"/>
+      <c r="J105" s="15" t="n"/>
+      <c r="K105" s="3" t="n"/>
+      <c r="L105" s="20" t="n"/>
+    </row>
+    <row r="106" ht="30" customHeight="1">
+      <c r="A106" s="15" t="n"/>
+      <c r="B106" s="10" t="n"/>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="15" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="18" t="n"/>
+      <c r="G106" s="10" t="n"/>
+      <c r="H106" s="10" t="n"/>
+      <c r="I106" s="10" t="n"/>
+      <c r="J106" s="15" t="n"/>
+      <c r="K106" s="3" t="n"/>
+      <c r="L106" s="20" t="n"/>
+    </row>
+    <row r="107" ht="30" customHeight="1">
+      <c r="A107" s="15" t="n"/>
+      <c r="B107" s="10" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="15" t="n"/>
+      <c r="E107" s="3" t="n"/>
+      <c r="F107" s="18" t="n"/>
+      <c r="G107" s="10" t="n"/>
+      <c r="H107" s="10" t="n"/>
+      <c r="I107" s="10" t="n"/>
+      <c r="J107" s="15" t="n"/>
+      <c r="K107" s="3" t="n"/>
+      <c r="L107" s="20" t="n"/>
+    </row>
+    <row r="108" ht="30" customHeight="1">
+      <c r="A108" s="15" t="n"/>
+      <c r="B108" s="10" t="n"/>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="15" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="18" t="n"/>
+      <c r="G108" s="10" t="n"/>
+      <c r="H108" s="10" t="n"/>
+      <c r="I108" s="10" t="n"/>
+      <c r="J108" s="15" t="n"/>
+      <c r="K108" s="3" t="n"/>
+      <c r="L108" s="20" t="n"/>
+    </row>
+    <row r="109" ht="30" customHeight="1">
+      <c r="A109" s="15" t="n"/>
+      <c r="B109" s="9" t="n"/>
+      <c r="C109" s="4" t="n"/>
+      <c r="D109" s="15" t="n"/>
+      <c r="E109" s="9" t="n"/>
+      <c r="F109" s="18" t="n"/>
+      <c r="G109" s="9" t="n"/>
+      <c r="H109" s="9" t="n"/>
+      <c r="I109" s="9" t="n"/>
+      <c r="J109" s="15" t="n"/>
+      <c r="K109" s="3" t="n"/>
+      <c r="L109" s="20" t="n"/>
+    </row>
+    <row r="110" ht="30" customHeight="1">
+      <c r="A110" s="15" t="n"/>
+      <c r="B110" s="10" t="n"/>
+      <c r="C110" s="3" t="n"/>
+      <c r="D110" s="15" t="n"/>
+      <c r="E110" s="3" t="n"/>
+      <c r="F110" s="18" t="n"/>
+      <c r="G110" s="10" t="n"/>
+      <c r="H110" s="3" t="n"/>
+      <c r="I110" s="10" t="n"/>
+      <c r="J110" s="15" t="n"/>
+      <c r="K110" s="3" t="n"/>
+      <c r="L110" s="20" t="n"/>
+    </row>
+    <row r="111" ht="30" customHeight="1">
+      <c r="A111" s="15" t="n"/>
+      <c r="B111" s="9" t="n"/>
+      <c r="C111" s="4" t="n"/>
+      <c r="D111" s="15" t="n"/>
+      <c r="E111" s="9" t="n"/>
+      <c r="F111" s="18" t="n"/>
+      <c r="G111" s="9" t="n"/>
+      <c r="H111" s="9" t="n"/>
+      <c r="I111" s="9" t="n"/>
+      <c r="J111" s="15" t="n"/>
+      <c r="K111" s="3" t="n"/>
+      <c r="L111" s="20" t="n"/>
+    </row>
+    <row r="112" ht="30" customHeight="1">
+      <c r="A112" s="15" t="n"/>
+      <c r="B112" s="10" t="n"/>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="15" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="18" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+      <c r="I112" s="10" t="n"/>
+      <c r="J112" s="15" t="n"/>
+      <c r="K112" s="3" t="n"/>
+      <c r="L112" s="20" t="n"/>
+    </row>
+    <row r="113" ht="30" customHeight="1">
+      <c r="A113" s="15" t="n"/>
+      <c r="B113" s="10" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="15" t="n"/>
+      <c r="E113" s="3" t="n"/>
+      <c r="F113" s="18" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+      <c r="I113" s="10" t="n"/>
+      <c r="J113" s="15" t="n"/>
+      <c r="K113" s="3" t="n"/>
+      <c r="L113" s="20" t="n"/>
+    </row>
+    <row r="114" ht="30" customHeight="1">
+      <c r="A114" s="15" t="n"/>
+      <c r="B114" s="9" t="n"/>
+      <c r="C114" s="4" t="n"/>
+      <c r="D114" s="15" t="n"/>
+      <c r="E114" s="9" t="n"/>
+      <c r="F114" s="18" t="n"/>
+      <c r="G114" s="9" t="n"/>
+      <c r="H114" s="9" t="n"/>
+      <c r="I114" s="9" t="n"/>
+      <c r="J114" s="15" t="n"/>
+      <c r="K114" s="3" t="n"/>
+      <c r="L114" s="20" t="n"/>
+    </row>
+    <row r="115" ht="30" customHeight="1">
+      <c r="A115" s="15" t="n"/>
+      <c r="B115" s="10" t="n"/>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="15" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="18" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="10" t="n"/>
+      <c r="J115" s="15" t="n"/>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="20" t="n"/>
+    </row>
+    <row r="116" ht="30" customHeight="1">
+      <c r="A116" s="15" t="n"/>
+      <c r="B116" s="9" t="n"/>
+      <c r="C116" s="4" t="n"/>
+      <c r="D116" s="15" t="n"/>
+      <c r="E116" s="9" t="n"/>
+      <c r="F116" s="18" t="n"/>
+      <c r="G116" s="9" t="n"/>
+      <c r="H116" s="9" t="n"/>
+      <c r="I116" s="9" t="n"/>
+      <c r="J116" s="15" t="n"/>
+      <c r="K116" s="3" t="n"/>
+      <c r="L116" s="20" t="n"/>
+    </row>
+    <row r="117" ht="30" customHeight="1">
+      <c r="A117" s="15" t="n"/>
+      <c r="B117" s="10" t="n"/>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="15" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="18" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+      <c r="I117" s="10" t="n"/>
+      <c r="J117" s="15" t="n"/>
+      <c r="K117" s="3" t="n"/>
+      <c r="L117" s="20" t="n"/>
+    </row>
+    <row r="118" ht="30" customHeight="1">
+      <c r="A118" s="15" t="n"/>
+      <c r="B118" s="10" t="n"/>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="15" t="n"/>
+      <c r="E118" s="3" t="n"/>
+      <c r="F118" s="18" t="n"/>
+      <c r="G118" s="3" t="n"/>
+      <c r="H118" s="3" t="n"/>
+      <c r="I118" s="10" t="n"/>
+      <c r="J118" s="15" t="n"/>
+      <c r="K118" s="3" t="n"/>
+      <c r="L118" s="20" t="n"/>
+    </row>
+    <row r="119" ht="30" customHeight="1">
+      <c r="A119" s="15" t="n"/>
+      <c r="B119" s="10" t="n"/>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="15" t="n"/>
+      <c r="E119" s="3" t="n"/>
+      <c r="F119" s="18" t="n"/>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+      <c r="I119" s="10" t="n"/>
+      <c r="J119" s="15" t="n"/>
+      <c r="K119" s="3" t="n"/>
+      <c r="L119" s="20" t="n"/>
+    </row>
+    <row r="120" ht="30" customHeight="1">
+      <c r="A120" s="15" t="n"/>
+      <c r="B120" s="9" t="n"/>
+      <c r="C120" s="4" t="n"/>
+      <c r="D120" s="15" t="n"/>
+      <c r="E120" s="9" t="n"/>
+      <c r="F120" s="18" t="n"/>
+      <c r="G120" s="9" t="n"/>
+      <c r="H120" s="9" t="n"/>
+      <c r="I120" s="9" t="n"/>
+      <c r="J120" s="15" t="n"/>
+      <c r="K120" s="3" t="n"/>
+      <c r="L120" s="20" t="n"/>
+    </row>
+    <row r="121" ht="30" customHeight="1">
+      <c r="A121" s="15" t="n"/>
+      <c r="B121" s="10" t="n"/>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="15" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="18" t="n"/>
+      <c r="G121" s="10" t="n"/>
+      <c r="H121" s="3" t="n"/>
+      <c r="I121" s="10" t="n"/>
+      <c r="J121" s="15" t="n"/>
+      <c r="K121" s="3" t="n"/>
+      <c r="L121" s="20" t="n"/>
+    </row>
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="15" t="n"/>
+      <c r="B122" s="9" t="n"/>
+      <c r="C122" s="4" t="n"/>
+      <c r="D122" s="15" t="n"/>
+      <c r="E122" s="9" t="n"/>
+      <c r="F122" s="18" t="n"/>
+      <c r="G122" s="9" t="n"/>
+      <c r="H122" s="9" t="n"/>
+      <c r="I122" s="9" t="n"/>
+      <c r="J122" s="15" t="n"/>
+      <c r="K122" s="3" t="n"/>
+      <c r="L122" s="20" t="n"/>
+    </row>
+    <row r="123" ht="30" customHeight="1">
+      <c r="A123" s="15" t="n"/>
+      <c r="B123" s="10" t="n"/>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="15" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="18" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+      <c r="I123" s="10" t="n"/>
+      <c r="J123" s="15" t="n"/>
+      <c r="K123" s="3" t="n"/>
+      <c r="L123" s="20" t="n"/>
+    </row>
+    <row r="124" ht="30" customHeight="1">
+      <c r="A124" s="15" t="n"/>
+      <c r="B124" s="10" t="n"/>
+      <c r="C124" s="3" t="n"/>
+      <c r="D124" s="15" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="18" t="n"/>
+      <c r="G124" s="3" t="n"/>
+      <c r="H124" s="3" t="n"/>
+      <c r="I124" s="10" t="n"/>
+      <c r="J124" s="15" t="n"/>
+      <c r="K124" s="3" t="n"/>
+      <c r="L124" s="20" t="n"/>
+    </row>
+    <row r="125" ht="30" customHeight="1">
+      <c r="A125" s="15" t="n"/>
+      <c r="B125" s="10" t="n"/>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="15" t="n"/>
+      <c r="E125" s="3" t="n"/>
+      <c r="F125" s="18" t="n"/>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+      <c r="I125" s="10" t="n"/>
+      <c r="J125" s="15" t="n"/>
+      <c r="K125" s="3" t="n"/>
+      <c r="L125" s="20" t="n"/>
+    </row>
+    <row r="126" ht="30" customHeight="1">
+      <c r="A126" s="15" t="n"/>
+      <c r="B126" s="9" t="n"/>
+      <c r="C126" s="4" t="n"/>
+      <c r="D126" s="15" t="n"/>
+      <c r="E126" s="9" t="n"/>
+      <c r="F126" s="18" t="n"/>
+      <c r="G126" s="9" t="n"/>
+      <c r="H126" s="9" t="n"/>
+      <c r="I126" s="9" t="n"/>
+      <c r="J126" s="15" t="n"/>
+      <c r="K126" s="3" t="n"/>
+      <c r="L126" s="20" t="n"/>
+    </row>
+    <row r="127" ht="30" customHeight="1">
+      <c r="A127" s="15" t="n"/>
+      <c r="B127" s="10" t="n"/>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="15" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="18" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+      <c r="I127" s="10" t="n"/>
+      <c r="J127" s="15" t="n"/>
+      <c r="K127" s="3" t="n"/>
+      <c r="L127" s="20" t="n"/>
+    </row>
+    <row r="128" ht="30" customHeight="1">
+      <c r="A128" s="15" t="n"/>
+      <c r="B128" s="9" t="n"/>
+      <c r="C128" s="4" t="n"/>
+      <c r="D128" s="15" t="n"/>
+      <c r="E128" s="9" t="n"/>
+      <c r="F128" s="18" t="n"/>
+      <c r="G128" s="9" t="n"/>
+      <c r="H128" s="9" t="n"/>
+      <c r="I128" s="9" t="n"/>
+      <c r="J128" s="15" t="n"/>
+      <c r="K128" s="3" t="n"/>
+      <c r="L128" s="20" t="n"/>
+    </row>
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="15" t="n"/>
+      <c r="B129" s="10" t="n"/>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="15" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="18" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+      <c r="I129" s="10" t="n"/>
+      <c r="J129" s="15" t="n"/>
+      <c r="K129" s="3" t="n"/>
+      <c r="L129" s="20" t="n"/>
+    </row>
+    <row r="130" ht="30" customHeight="1">
+      <c r="A130" s="15" t="n"/>
+      <c r="B130" s="10" t="n"/>
+      <c r="C130" s="3" t="n"/>
+      <c r="D130" s="15" t="n"/>
+      <c r="E130" s="3" t="n"/>
+      <c r="F130" s="18" t="n"/>
+      <c r="G130" s="3" t="n"/>
+      <c r="H130" s="3" t="n"/>
+      <c r="I130" s="10" t="n"/>
+      <c r="J130" s="15" t="n"/>
+      <c r="K130" s="3" t="n"/>
+      <c r="L130" s="20" t="n"/>
+    </row>
+    <row r="131" ht="30" customHeight="1">
+      <c r="A131" s="15" t="n"/>
+      <c r="B131" s="10" t="n"/>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="15" t="n"/>
+      <c r="E131" s="3" t="n"/>
+      <c r="F131" s="18" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+      <c r="I131" s="10" t="n"/>
+      <c r="J131" s="15" t="n"/>
+      <c r="K131" s="3" t="n"/>
+      <c r="L131" s="20" t="n"/>
+    </row>
+    <row r="132" ht="30" customHeight="1">
+      <c r="A132" s="15" t="n"/>
+      <c r="B132" s="10" t="n"/>
+      <c r="C132" s="3" t="n"/>
+      <c r="D132" s="15" t="n"/>
+      <c r="E132" s="3" t="n"/>
+      <c r="F132" s="18" t="n"/>
+      <c r="G132" s="3" t="n"/>
+      <c r="H132" s="3" t="n"/>
+      <c r="I132" s="10" t="n"/>
+      <c r="J132" s="15" t="n"/>
+      <c r="K132" s="3" t="n"/>
+      <c r="L132" s="20" t="n"/>
+    </row>
+    <row r="133" ht="30" customHeight="1">
+      <c r="A133" s="15" t="n"/>
+      <c r="B133" s="10" t="n"/>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="15" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="18" t="n"/>
+      <c r="G133" s="3" t="n"/>
+      <c r="H133" s="3" t="n"/>
+      <c r="I133" s="10" t="n"/>
+      <c r="J133" s="15" t="n"/>
+      <c r="K133" s="3" t="n"/>
+      <c r="L133" s="20" t="n"/>
+    </row>
+    <row r="134" ht="30" customHeight="1">
+      <c r="A134" s="15" t="n"/>
+      <c r="B134" s="9" t="n"/>
+      <c r="C134" s="4" t="n"/>
+      <c r="D134" s="15" t="n"/>
+      <c r="E134" s="9" t="n"/>
+      <c r="F134" s="18" t="n"/>
+      <c r="G134" s="9" t="n"/>
+      <c r="H134" s="9" t="n"/>
+      <c r="I134" s="9" t="n"/>
+      <c r="J134" s="15" t="n"/>
+      <c r="K134" s="3" t="n"/>
+      <c r="L134" s="20" t="n"/>
+    </row>
+    <row r="135" ht="30" customHeight="1">
+      <c r="A135" s="15" t="n"/>
+      <c r="B135" s="10" t="n"/>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="15" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="18" t="n"/>
+      <c r="G135" s="3" t="n"/>
+      <c r="H135" s="3" t="n"/>
+      <c r="I135" s="10" t="n"/>
+      <c r="J135" s="15" t="n"/>
+      <c r="K135" s="3" t="n"/>
+      <c r="L135" s="20" t="n"/>
+    </row>
+    <row r="136" ht="30" customHeight="1">
+      <c r="A136" s="15" t="n"/>
+      <c r="B136" s="10" t="n"/>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="15" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="18" t="n"/>
+      <c r="G136" s="3" t="n"/>
+      <c r="H136" s="3" t="n"/>
+      <c r="I136" s="10" t="n"/>
+      <c r="J136" s="15" t="n"/>
+      <c r="K136" s="3" t="n"/>
+      <c r="L136" s="20" t="n"/>
+    </row>
+    <row r="137" ht="30" customHeight="1">
+      <c r="A137" s="15" t="n"/>
+      <c r="B137" s="10" t="n"/>
+      <c r="C137" s="3" t="n"/>
+      <c r="D137" s="15" t="n"/>
+      <c r="E137" s="3" t="n"/>
+      <c r="F137" s="18" t="n"/>
+      <c r="G137" s="3" t="n"/>
+      <c r="H137" s="3" t="n"/>
+      <c r="I137" s="10" t="n"/>
+      <c r="J137" s="15" t="n"/>
+      <c r="K137" s="3" t="n"/>
+      <c r="L137" s="20" t="n"/>
+    </row>
+    <row r="138" ht="30" customHeight="1">
+      <c r="A138" s="15" t="n"/>
+      <c r="B138" s="10" t="n"/>
+      <c r="C138" s="3" t="n"/>
+      <c r="D138" s="15" t="n"/>
+      <c r="E138" s="3" t="n"/>
+      <c r="F138" s="18" t="n"/>
+      <c r="G138" s="3" t="n"/>
+      <c r="H138" s="3" t="n"/>
+      <c r="I138" s="10" t="n"/>
+      <c r="J138" s="15" t="n"/>
+      <c r="K138" s="3" t="n"/>
+      <c r="L138" s="20" t="n"/>
+    </row>
+    <row r="139" ht="30" customHeight="1">
+      <c r="A139" s="15" t="n"/>
+      <c r="B139" s="9" t="n"/>
+      <c r="C139" s="4" t="n"/>
+      <c r="D139" s="15" t="n"/>
+      <c r="E139" s="9" t="n"/>
+      <c r="F139" s="18" t="n"/>
+      <c r="G139" s="9" t="n"/>
+      <c r="H139" s="9" t="n"/>
+      <c r="I139" s="9" t="n"/>
+      <c r="J139" s="15" t="n"/>
+      <c r="K139" s="3" t="n"/>
+      <c r="L139" s="20" t="n"/>
+    </row>
+    <row r="140" ht="30" customHeight="1">
+      <c r="A140" s="15" t="n"/>
+      <c r="B140" s="10" t="n"/>
+      <c r="C140" s="3" t="n"/>
+      <c r="D140" s="15" t="n"/>
+      <c r="E140" s="3" t="n"/>
+      <c r="F140" s="18" t="n"/>
+      <c r="G140" s="3" t="n"/>
+      <c r="H140" s="3" t="n"/>
+      <c r="I140" s="10" t="n"/>
+      <c r="J140" s="15" t="n"/>
+      <c r="K140" s="3" t="n"/>
+      <c r="L140" s="20" t="n"/>
+    </row>
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="15" t="n"/>
+      <c r="B141" s="9" t="n"/>
+      <c r="C141" s="4" t="n"/>
+      <c r="D141" s="15" t="n"/>
+      <c r="E141" s="9" t="n"/>
+      <c r="F141" s="18" t="n"/>
+      <c r="G141" s="9" t="n"/>
+      <c r="H141" s="9" t="n"/>
+      <c r="I141" s="9" t="n"/>
+      <c r="J141" s="15" t="n"/>
+      <c r="K141" s="3" t="n"/>
+      <c r="L141" s="20" t="n"/>
+    </row>
+    <row r="142" ht="30" customHeight="1">
+      <c r="A142" s="15" t="n"/>
+      <c r="B142" s="10" t="n"/>
+      <c r="C142" s="3" t="n"/>
+      <c r="D142" s="15" t="n"/>
+      <c r="E142" s="3" t="n"/>
+      <c r="F142" s="18" t="n"/>
+      <c r="G142" s="3" t="n"/>
+      <c r="H142" s="3" t="n"/>
+      <c r="I142" s="10" t="n"/>
+      <c r="J142" s="15" t="n"/>
+      <c r="K142" s="3" t="n"/>
+      <c r="L142" s="20" t="n"/>
+    </row>
+    <row r="143" ht="30" customHeight="1">
+      <c r="A143" s="15" t="n"/>
+      <c r="B143" s="10" t="n"/>
+      <c r="C143" s="3" t="n"/>
+      <c r="D143" s="15" t="n"/>
+      <c r="E143" s="3" t="n"/>
+      <c r="F143" s="18" t="n"/>
+      <c r="G143" s="3" t="n"/>
+      <c r="H143" s="3" t="n"/>
+      <c r="I143" s="10" t="n"/>
+      <c r="J143" s="15" t="n"/>
+      <c r="K143" s="3" t="n"/>
+      <c r="L143" s="20" t="n"/>
+    </row>
+    <row r="144" ht="30" customHeight="1">
+      <c r="A144" s="15" t="n"/>
+      <c r="B144" s="9" t="n"/>
+      <c r="C144" s="4" t="n"/>
+      <c r="D144" s="15" t="n"/>
+      <c r="E144" s="9" t="n"/>
+      <c r="F144" s="18" t="n"/>
+      <c r="G144" s="9" t="n"/>
+      <c r="H144" s="9" t="n"/>
+      <c r="I144" s="9" t="n"/>
+      <c r="J144" s="15" t="n"/>
+      <c r="K144" s="3" t="n"/>
+      <c r="L144" s="20" t="n"/>
+    </row>
+    <row r="145" ht="30" customHeight="1">
+      <c r="A145" s="15" t="n"/>
+      <c r="B145" s="10" t="n"/>
+      <c r="C145" s="3" t="n"/>
+      <c r="D145" s="15" t="n"/>
+      <c r="E145" s="3" t="n"/>
+      <c r="F145" s="18" t="n"/>
+      <c r="G145" s="3" t="n"/>
+      <c r="H145" s="3" t="n"/>
+      <c r="I145" s="10" t="n"/>
+      <c r="J145" s="15" t="n"/>
+      <c r="K145" s="3" t="n"/>
+      <c r="L145" s="20" t="n"/>
+    </row>
+    <row r="146" ht="30" customHeight="1">
+      <c r="A146" s="15" t="n"/>
+      <c r="B146" s="10" t="n"/>
+      <c r="C146" s="7" t="n"/>
+      <c r="D146" s="15" t="n"/>
+      <c r="E146" s="3" t="n"/>
+      <c r="F146" s="18" t="n"/>
+      <c r="G146" s="3" t="n"/>
+      <c r="H146" s="3" t="n"/>
+      <c r="I146" s="10" t="n"/>
+      <c r="J146" s="15" t="n"/>
+      <c r="K146" s="3" t="n"/>
+      <c r="L146" s="20" t="n"/>
+    </row>
+    <row r="147" ht="30" customHeight="1">
+      <c r="A147" s="15" t="n"/>
+      <c r="B147" s="10" t="n"/>
+      <c r="C147" s="3" t="n"/>
+      <c r="D147" s="15" t="n"/>
+      <c r="E147" s="3" t="n"/>
+      <c r="F147" s="18" t="n"/>
+      <c r="G147" s="3" t="n"/>
+      <c r="H147" s="3" t="n"/>
+      <c r="I147" s="10" t="n"/>
+      <c r="J147" s="15" t="n"/>
+      <c r="K147" s="3" t="n"/>
+      <c r="L147" s="20" t="n"/>
+    </row>
+    <row r="148" ht="30" customHeight="1">
+      <c r="A148" s="15" t="n"/>
+      <c r="B148" s="10" t="n"/>
+      <c r="C148" s="3" t="n"/>
+      <c r="D148" s="15" t="n"/>
+      <c r="E148" s="3" t="n"/>
+      <c r="F148" s="18" t="n"/>
+      <c r="G148" s="3" t="n"/>
+      <c r="H148" s="3" t="n"/>
+      <c r="I148" s="10" t="n"/>
+      <c r="J148" s="15" t="n"/>
+      <c r="K148" s="3" t="n"/>
+      <c r="L148" s="20" t="n"/>
+    </row>
+    <row r="149" ht="30" customHeight="1">
+      <c r="A149" s="15" t="n"/>
+      <c r="B149" s="10" t="n"/>
+      <c r="C149" s="3" t="n"/>
+      <c r="D149" s="15" t="n"/>
+      <c r="E149" s="3" t="n"/>
+      <c r="F149" s="18" t="n"/>
+      <c r="G149" s="3" t="n"/>
+      <c r="H149" s="3" t="n"/>
+      <c r="I149" s="10" t="n"/>
+      <c r="J149" s="15" t="n"/>
+      <c r="K149" s="3" t="n"/>
+      <c r="L149" s="20" t="n"/>
+    </row>
+    <row r="150" ht="30" customHeight="1">
+      <c r="A150" s="15" t="n"/>
+      <c r="B150" s="9" t="n"/>
+      <c r="C150" s="4" t="n"/>
+      <c r="D150" s="15" t="n"/>
+      <c r="E150" s="9" t="n"/>
+      <c r="F150" s="18" t="n"/>
+      <c r="G150" s="9" t="n"/>
+      <c r="H150" s="9" t="n"/>
+      <c r="I150" s="9" t="n"/>
+      <c r="J150" s="15" t="n"/>
+      <c r="K150" s="3" t="n"/>
+      <c r="L150" s="20" t="n"/>
+    </row>
+    <row r="151" ht="30" customHeight="1">
+      <c r="A151" s="15" t="n"/>
+      <c r="B151" s="10" t="n"/>
+      <c r="C151" s="3" t="n"/>
+      <c r="D151" s="15" t="n"/>
+      <c r="E151" s="3" t="n"/>
+      <c r="F151" s="18" t="n"/>
+      <c r="G151" s="3" t="n"/>
+      <c r="H151" s="3" t="n"/>
+      <c r="I151" s="10" t="n"/>
+      <c r="J151" s="15" t="n"/>
+      <c r="K151" s="3" t="n"/>
+      <c r="L151" s="20" t="n"/>
+    </row>
+    <row r="152" ht="30" customHeight="1">
+      <c r="A152" s="15" t="n"/>
+      <c r="B152" s="9" t="n"/>
+      <c r="C152" s="4" t="n"/>
+      <c r="D152" s="15" t="n"/>
+      <c r="E152" s="9" t="n"/>
+      <c r="F152" s="18" t="n"/>
+      <c r="G152" s="9" t="n"/>
+      <c r="H152" s="9" t="n"/>
+      <c r="I152" s="9" t="n"/>
+      <c r="J152" s="15" t="n"/>
+      <c r="K152" s="3" t="n"/>
+      <c r="L152" s="20" t="n"/>
+    </row>
+    <row r="153" ht="30" customHeight="1">
+      <c r="A153" s="15" t="n"/>
+      <c r="B153" s="10" t="n"/>
+      <c r="C153" s="3" t="n"/>
+      <c r="D153" s="15" t="n"/>
+      <c r="E153" s="3" t="n"/>
+      <c r="F153" s="18" t="n"/>
+      <c r="G153" s="3" t="n"/>
+      <c r="H153" s="3" t="n"/>
+      <c r="I153" s="10" t="n"/>
+      <c r="J153" s="15" t="n"/>
+      <c r="K153" s="3" t="n"/>
+      <c r="L153" s="20" t="n"/>
+    </row>
+    <row r="154" ht="30" customHeight="1">
+      <c r="A154" s="15" t="n"/>
+      <c r="B154" s="9" t="n"/>
+      <c r="C154" s="4" t="n"/>
+      <c r="D154" s="15" t="n"/>
+      <c r="E154" s="9" t="n"/>
+      <c r="F154" s="18" t="n"/>
+      <c r="G154" s="9" t="n"/>
+      <c r="H154" s="9" t="n"/>
+      <c r="I154" s="9" t="n"/>
+      <c r="J154" s="15" t="n"/>
+      <c r="K154" s="3" t="n"/>
+      <c r="L154" s="20" t="n"/>
+    </row>
+    <row r="155" ht="30" customHeight="1">
+      <c r="A155" s="15" t="n"/>
+      <c r="B155" s="10" t="n"/>
+      <c r="C155" s="3" t="n"/>
+      <c r="D155" s="15" t="n"/>
+      <c r="E155" s="3" t="n"/>
+      <c r="F155" s="18" t="n"/>
+      <c r="G155" s="3" t="n"/>
+      <c r="H155" s="3" t="n"/>
+      <c r="I155" s="10" t="n"/>
+      <c r="J155" s="15" t="n"/>
+      <c r="K155" s="3" t="n"/>
+      <c r="L155" s="20" t="n"/>
+    </row>
+    <row r="156" ht="30" customHeight="1">
+      <c r="A156" s="15" t="n"/>
+      <c r="B156" s="10" t="n"/>
+      <c r="C156" s="3" t="n"/>
+      <c r="D156" s="15" t="n"/>
+      <c r="E156" s="3" t="n"/>
+      <c r="F156" s="18" t="n"/>
+      <c r="G156" s="3" t="n"/>
+      <c r="H156" s="3" t="n"/>
+      <c r="I156" s="10" t="n"/>
+      <c r="J156" s="15" t="n"/>
+      <c r="K156" s="3" t="n"/>
+      <c r="L156" s="20" t="n"/>
+    </row>
+    <row r="157" ht="30" customHeight="1">
+      <c r="A157" s="15" t="n"/>
+      <c r="B157" s="10" t="n"/>
+      <c r="C157" s="3" t="n"/>
+      <c r="D157" s="15" t="n"/>
+      <c r="E157" s="3" t="n"/>
+      <c r="F157" s="18" t="n"/>
+      <c r="G157" s="3" t="n"/>
+      <c r="H157" s="3" t="n"/>
+      <c r="I157" s="10" t="n"/>
+      <c r="J157" s="15" t="n"/>
+      <c r="K157" s="3" t="n"/>
+      <c r="L157" s="20" t="n"/>
+    </row>
+    <row r="158" ht="30" customHeight="1">
+      <c r="A158" s="15" t="n"/>
+      <c r="B158" s="10" t="n"/>
+      <c r="C158" s="3" t="n"/>
+      <c r="D158" s="15" t="n"/>
+      <c r="E158" s="3" t="n"/>
+      <c r="F158" s="18" t="n"/>
+      <c r="G158" s="3" t="n"/>
+      <c r="H158" s="3" t="n"/>
+      <c r="I158" s="10" t="n"/>
+      <c r="J158" s="15" t="n"/>
+      <c r="K158" s="3" t="n"/>
+      <c r="L158" s="20" t="n"/>
+    </row>
+    <row r="159" ht="30" customHeight="1">
+      <c r="A159" s="15" t="n"/>
+      <c r="B159" s="10" t="n"/>
+      <c r="C159" s="3" t="n"/>
+      <c r="D159" s="15" t="n"/>
+      <c r="E159" s="3" t="n"/>
+      <c r="F159" s="18" t="n"/>
+      <c r="G159" s="3" t="n"/>
+      <c r="H159" s="3" t="n"/>
+      <c r="I159" s="10" t="n"/>
+      <c r="J159" s="15" t="n"/>
+      <c r="K159" s="3" t="n"/>
+      <c r="L159" s="20" t="n"/>
+    </row>
+    <row r="160" ht="30" customHeight="1">
+      <c r="A160" s="15" t="n"/>
+      <c r="B160" s="9" t="n"/>
+      <c r="C160" s="4" t="n"/>
+      <c r="D160" s="15" t="n"/>
+      <c r="E160" s="9" t="n"/>
+      <c r="F160" s="18" t="n"/>
+      <c r="G160" s="9" t="n"/>
+      <c r="H160" s="9" t="n"/>
+      <c r="I160" s="9" t="n"/>
+      <c r="J160" s="15" t="n"/>
+      <c r="K160" s="3" t="n"/>
+      <c r="L160" s="20" t="n"/>
+    </row>
+    <row r="161" ht="30" customHeight="1">
+      <c r="A161" s="15" t="n"/>
+      <c r="B161" s="10" t="n"/>
+      <c r="C161" s="3" t="n"/>
+      <c r="D161" s="15" t="n"/>
+      <c r="E161" s="3" t="n"/>
+      <c r="F161" s="18" t="n"/>
+      <c r="G161" s="3" t="n"/>
+      <c r="H161" s="3" t="n"/>
+      <c r="I161" s="10" t="n"/>
+      <c r="J161" s="15" t="n"/>
+      <c r="K161" s="3" t="n"/>
+      <c r="L161" s="20" t="n"/>
+    </row>
+    <row r="162" ht="30" customHeight="1">
+      <c r="A162" s="15" t="n"/>
+      <c r="B162" s="10" t="n"/>
+      <c r="C162" s="3" t="n"/>
+      <c r="D162" s="15" t="n"/>
+      <c r="E162" s="3" t="n"/>
+      <c r="F162" s="18" t="n"/>
+      <c r="G162" s="3" t="n"/>
+      <c r="H162" s="3" t="n"/>
+      <c r="I162" s="10" t="n"/>
+      <c r="J162" s="15" t="n"/>
+      <c r="K162" s="3" t="n"/>
+      <c r="L162" s="20" t="n"/>
+    </row>
+    <row r="163" ht="30" customHeight="1">
+      <c r="A163" s="15" t="n"/>
+      <c r="B163" s="9" t="n"/>
+      <c r="C163" s="4" t="n"/>
+      <c r="D163" s="15" t="n"/>
+      <c r="E163" s="9" t="n"/>
+      <c r="F163" s="18" t="n"/>
+      <c r="G163" s="9" t="n"/>
+      <c r="H163" s="9" t="n"/>
+      <c r="I163" s="9" t="n"/>
+      <c r="J163" s="15" t="n"/>
+      <c r="K163" s="3" t="n"/>
+      <c r="L163" s="20" t="n"/>
+    </row>
+    <row r="164" ht="30" customHeight="1">
+      <c r="A164" s="15" t="n"/>
+      <c r="B164" s="10" t="n"/>
+      <c r="C164" s="3" t="n"/>
+      <c r="D164" s="15" t="n"/>
+      <c r="E164" s="3" t="n"/>
+      <c r="F164" s="18" t="n"/>
+      <c r="G164" s="3" t="n"/>
+      <c r="H164" s="3" t="n"/>
+      <c r="I164" s="10" t="n"/>
+      <c r="J164" s="15" t="n"/>
+      <c r="K164" s="3" t="n"/>
+      <c r="L164" s="20" t="n"/>
+    </row>
+    <row r="165" ht="30" customHeight="1">
+      <c r="A165" s="15" t="n"/>
+      <c r="B165" s="10" t="n"/>
+      <c r="C165" s="3" t="n"/>
+      <c r="D165" s="15" t="n"/>
+      <c r="E165" s="3" t="n"/>
+      <c r="F165" s="18" t="n"/>
+      <c r="G165" s="3" t="n"/>
+      <c r="H165" s="3" t="n"/>
+      <c r="I165" s="10" t="n"/>
+      <c r="J165" s="15" t="n"/>
+      <c r="K165" s="3" t="n"/>
+      <c r="L165" s="20" t="n"/>
+    </row>
+    <row r="166" ht="30" customHeight="1">
+      <c r="A166" s="15" t="n"/>
+      <c r="B166" s="10" t="n"/>
+      <c r="C166" s="3" t="n"/>
+      <c r="D166" s="15" t="n"/>
+      <c r="E166" s="3" t="n"/>
+      <c r="F166" s="18" t="n"/>
+      <c r="G166" s="3" t="n"/>
+      <c r="H166" s="3" t="n"/>
+      <c r="I166" s="10" t="n"/>
+      <c r="J166" s="15" t="n"/>
+      <c r="K166" s="3" t="n"/>
+      <c r="L166" s="20" t="n"/>
+    </row>
+    <row r="167" ht="30" customHeight="1">
+      <c r="A167" s="15" t="n"/>
+      <c r="B167" s="9" t="n"/>
+      <c r="C167" s="4" t="n"/>
+      <c r="D167" s="15" t="n"/>
+      <c r="E167" s="9" t="n"/>
+      <c r="F167" s="18" t="n"/>
+      <c r="G167" s="9" t="n"/>
+      <c r="H167" s="9" t="n"/>
+      <c r="I167" s="9" t="n"/>
+      <c r="J167" s="15" t="n"/>
+      <c r="K167" s="3" t="n"/>
+      <c r="L167" s="20" t="n"/>
+    </row>
+    <row r="168" ht="30" customHeight="1">
+      <c r="A168" s="15" t="n"/>
+      <c r="B168" s="10" t="n"/>
+      <c r="C168" s="3" t="n"/>
+      <c r="D168" s="15" t="n"/>
+      <c r="E168" s="3" t="n"/>
+      <c r="F168" s="18" t="n"/>
+      <c r="G168" s="3" t="n"/>
+      <c r="H168" s="3" t="n"/>
+      <c r="I168" s="10" t="n"/>
+      <c r="J168" s="15" t="n"/>
+      <c r="K168" s="3" t="n"/>
+      <c r="L168" s="20" t="n"/>
+    </row>
+    <row r="169" ht="30" customHeight="1">
+      <c r="A169" s="15" t="n"/>
+      <c r="B169" s="9" t="n"/>
+      <c r="C169" s="4" t="n"/>
+      <c r="D169" s="15" t="n"/>
+      <c r="E169" s="9" t="n"/>
+      <c r="F169" s="18" t="n"/>
+      <c r="G169" s="9" t="n"/>
+      <c r="H169" s="9" t="n"/>
+      <c r="I169" s="9" t="n"/>
+      <c r="J169" s="15" t="n"/>
+      <c r="K169" s="3" t="n"/>
+      <c r="L169" s="20" t="n"/>
+    </row>
+    <row r="170" ht="30" customHeight="1">
+      <c r="A170" s="15" t="n"/>
+      <c r="B170" s="10" t="n"/>
+      <c r="C170" s="3" t="n"/>
+      <c r="D170" s="15" t="n"/>
+      <c r="E170" s="3" t="n"/>
+      <c r="F170" s="18" t="n"/>
+      <c r="G170" s="3" t="n"/>
+      <c r="H170" s="3" t="n"/>
+      <c r="I170" s="10" t="n"/>
+      <c r="J170" s="15" t="n"/>
+      <c r="K170" s="3" t="n"/>
+      <c r="L170" s="20" t="n"/>
+    </row>
+    <row r="171" ht="30" customHeight="1">
+      <c r="A171" s="15" t="n"/>
+      <c r="B171" s="9" t="n"/>
+      <c r="C171" s="4" t="n"/>
+      <c r="D171" s="15" t="n"/>
+      <c r="E171" s="9" t="n"/>
+      <c r="F171" s="18" t="n"/>
+      <c r="G171" s="9" t="n"/>
+      <c r="H171" s="9" t="n"/>
+      <c r="I171" s="9" t="n"/>
+      <c r="J171" s="15" t="n"/>
+      <c r="K171" s="3" t="n"/>
+      <c r="L171" s="20" t="n"/>
+    </row>
+    <row r="172" ht="30" customHeight="1">
+      <c r="A172" s="15" t="n"/>
+      <c r="B172" s="10" t="n"/>
+      <c r="C172" s="3" t="n"/>
+      <c r="D172" s="15" t="n"/>
+      <c r="E172" s="3" t="n"/>
+      <c r="F172" s="18" t="n"/>
+      <c r="G172" s="3" t="n"/>
+      <c r="H172" s="3" t="n"/>
+      <c r="I172" s="10" t="n"/>
+      <c r="J172" s="15" t="n"/>
+      <c r="K172" s="3" t="n"/>
+      <c r="L172" s="20" t="n"/>
+    </row>
+    <row r="173" ht="30" customHeight="1">
+      <c r="A173" s="15" t="n"/>
+      <c r="B173" s="10" t="n"/>
+      <c r="C173" s="3" t="n"/>
+      <c r="D173" s="15" t="n"/>
+      <c r="E173" s="3" t="n"/>
+      <c r="F173" s="18" t="n"/>
+      <c r="G173" s="3" t="n"/>
+      <c r="H173" s="3" t="n"/>
+      <c r="I173" s="10" t="n"/>
+      <c r="J173" s="15" t="n"/>
+      <c r="K173" s="3" t="n"/>
+      <c r="L173" s="20" t="n"/>
+    </row>
+    <row r="174" ht="30" customHeight="1">
+      <c r="A174" s="15" t="n"/>
+      <c r="B174" s="10" t="n"/>
+      <c r="C174" s="3" t="n"/>
+      <c r="D174" s="15" t="n"/>
+      <c r="E174" s="3" t="n"/>
+      <c r="F174" s="18" t="n"/>
+      <c r="G174" s="3" t="n"/>
+      <c r="H174" s="3" t="n"/>
+      <c r="I174" s="10" t="n"/>
+      <c r="J174" s="15" t="n"/>
+      <c r="K174" s="3" t="n"/>
+      <c r="L174" s="20" t="n"/>
+    </row>
+    <row r="175" ht="30" customHeight="1">
+      <c r="A175" s="15" t="n"/>
+      <c r="B175" s="9" t="n"/>
+      <c r="C175" s="4" t="n"/>
+      <c r="D175" s="15" t="n"/>
+      <c r="E175" s="9" t="n"/>
+      <c r="F175" s="18" t="n"/>
+      <c r="G175" s="9" t="n"/>
+      <c r="H175" s="9" t="n"/>
+      <c r="I175" s="9" t="n"/>
+      <c r="J175" s="15" t="n"/>
+      <c r="K175" s="3" t="n"/>
+      <c r="L175" s="20" t="n"/>
+    </row>
+    <row r="176" ht="30" customHeight="1">
+      <c r="A176" s="15" t="n"/>
+      <c r="B176" s="10" t="n"/>
+      <c r="C176" s="3" t="n"/>
+      <c r="D176" s="15" t="n"/>
+      <c r="E176" s="3" t="n"/>
+      <c r="F176" s="18" t="n"/>
+      <c r="G176" s="3" t="n"/>
+      <c r="H176" s="3" t="n"/>
+      <c r="I176" s="10" t="n"/>
+      <c r="J176" s="15" t="n"/>
+      <c r="K176" s="3" t="n"/>
+      <c r="L176" s="20" t="n"/>
+    </row>
+    <row r="177" ht="30" customHeight="1">
+      <c r="A177" s="15" t="n"/>
+      <c r="B177" s="10" t="n"/>
+      <c r="C177" s="3" t="n"/>
+      <c r="D177" s="15" t="n"/>
+      <c r="E177" s="3" t="n"/>
+      <c r="F177" s="18" t="n"/>
+      <c r="G177" s="3" t="n"/>
+      <c r="H177" s="3" t="n"/>
+      <c r="I177" s="10" t="n"/>
+      <c r="J177" s="15" t="n"/>
+      <c r="K177" s="3" t="n"/>
+      <c r="L177" s="20" t="n"/>
+    </row>
+    <row r="178" ht="30" customHeight="1">
+      <c r="A178" s="15" t="n"/>
+      <c r="B178" s="10" t="n"/>
+      <c r="C178" s="3" t="n"/>
+      <c r="D178" s="15" t="n"/>
+      <c r="E178" s="3" t="n"/>
+      <c r="F178" s="18" t="n"/>
+      <c r="G178" s="3" t="n"/>
+      <c r="H178" s="3" t="n"/>
+      <c r="I178" s="10" t="n"/>
+      <c r="J178" s="15" t="n"/>
+      <c r="K178" s="3" t="n"/>
+      <c r="L178" s="20" t="n"/>
+    </row>
+    <row r="179" ht="30" customHeight="1">
+      <c r="A179" s="15" t="n"/>
+      <c r="B179" s="10" t="n"/>
+      <c r="C179" s="3" t="n"/>
+      <c r="D179" s="15" t="n"/>
+      <c r="E179" s="3" t="n"/>
+      <c r="F179" s="18" t="n"/>
+      <c r="G179" s="3" t="n"/>
+      <c r="H179" s="3" t="n"/>
+      <c r="I179" s="10" t="n"/>
+      <c r="J179" s="15" t="n"/>
+      <c r="K179" s="3" t="n"/>
+      <c r="L179" s="20" t="n"/>
+    </row>
+    <row r="180" ht="30" customHeight="1">
+      <c r="A180" s="15" t="n"/>
+      <c r="B180" s="9" t="n"/>
+      <c r="C180" s="4" t="n"/>
+      <c r="D180" s="15" t="n"/>
+      <c r="E180" s="9" t="n"/>
+      <c r="F180" s="18" t="n"/>
+      <c r="G180" s="9" t="n"/>
+      <c r="H180" s="9" t="n"/>
+      <c r="I180" s="9" t="n"/>
+      <c r="J180" s="15" t="n"/>
+      <c r="K180" s="3" t="n"/>
+      <c r="L180" s="20" t="n"/>
+    </row>
+    <row r="181" ht="30" customHeight="1">
+      <c r="A181" s="15" t="n"/>
+      <c r="B181" s="10" t="n"/>
+      <c r="C181" s="3" t="n"/>
+      <c r="D181" s="15" t="n"/>
+      <c r="E181" s="3" t="n"/>
+      <c r="F181" s="18" t="n"/>
+      <c r="G181" s="3" t="n"/>
+      <c r="H181" s="3" t="n"/>
+      <c r="I181" s="10" t="n"/>
+      <c r="J181" s="15" t="n"/>
+      <c r="K181" s="3" t="n"/>
+      <c r="L181" s="20" t="n"/>
+    </row>
+    <row r="182" ht="30" customHeight="1">
+      <c r="A182" s="15" t="n"/>
+      <c r="B182" s="9" t="n"/>
+      <c r="C182" s="4" t="n"/>
+      <c r="D182" s="15" t="n"/>
+      <c r="E182" s="9" t="n"/>
+      <c r="F182" s="18" t="n"/>
+      <c r="G182" s="9" t="n"/>
+      <c r="H182" s="9" t="n"/>
+      <c r="I182" s="9" t="n"/>
+      <c r="J182" s="15" t="n"/>
+      <c r="K182" s="3" t="n"/>
+      <c r="L182" s="20" t="n"/>
+    </row>
+    <row r="183" ht="30" customHeight="1">
+      <c r="A183" s="15" t="n"/>
+      <c r="B183" s="10" t="n"/>
+      <c r="C183" s="3" t="n"/>
+      <c r="D183" s="15" t="n"/>
+      <c r="E183" s="3" t="n"/>
+      <c r="F183" s="18" t="n"/>
+      <c r="G183" s="3" t="n"/>
+      <c r="H183" s="3" t="n"/>
+      <c r="I183" s="10" t="n"/>
+      <c r="J183" s="15" t="n"/>
+      <c r="K183" s="3" t="n"/>
+      <c r="L183" s="20" t="n"/>
+    </row>
+    <row r="184" ht="30" customHeight="1">
+      <c r="A184" s="15" t="n"/>
+      <c r="B184" s="10" t="n"/>
+      <c r="C184" s="3" t="n"/>
+      <c r="D184" s="15" t="n"/>
+      <c r="E184" s="3" t="n"/>
+      <c r="F184" s="18" t="n"/>
+      <c r="G184" s="3" t="n"/>
+      <c r="H184" s="3" t="n"/>
+      <c r="I184" s="10" t="n"/>
+      <c r="J184" s="15" t="n"/>
+      <c r="K184" s="3" t="n"/>
+      <c r="L184" s="20" t="n"/>
+    </row>
+    <row r="185" ht="30" customHeight="1">
+      <c r="A185" s="15" t="n"/>
+      <c r="B185" s="9" t="n"/>
+      <c r="C185" s="4" t="n"/>
+      <c r="D185" s="15" t="n"/>
+      <c r="E185" s="9" t="n"/>
+      <c r="F185" s="18" t="n"/>
+      <c r="G185" s="9" t="n"/>
+      <c r="H185" s="9" t="n"/>
+      <c r="I185" s="9" t="n"/>
+      <c r="J185" s="15" t="n"/>
+      <c r="K185" s="3" t="n"/>
+      <c r="L185" s="20" t="n"/>
+    </row>
+    <row r="186" ht="30" customHeight="1">
+      <c r="A186" s="15" t="n"/>
+      <c r="B186" s="10" t="n"/>
+      <c r="C186" s="3" t="n"/>
+      <c r="D186" s="15" t="n"/>
+      <c r="E186" s="3" t="n"/>
+      <c r="F186" s="18" t="n"/>
+      <c r="G186" s="3" t="n"/>
+      <c r="H186" s="3" t="n"/>
+      <c r="I186" s="10" t="n"/>
+      <c r="J186" s="15" t="n"/>
+      <c r="K186" s="3" t="n"/>
+      <c r="L186" s="20" t="n"/>
+    </row>
+    <row r="187" ht="30" customHeight="1">
+      <c r="A187" s="15" t="n"/>
+      <c r="B187" s="9" t="n"/>
+      <c r="C187" s="4" t="n"/>
+      <c r="D187" s="15" t="n"/>
+      <c r="E187" s="9" t="n"/>
+      <c r="F187" s="18" t="n"/>
+      <c r="G187" s="9" t="n"/>
+      <c r="H187" s="9" t="n"/>
+      <c r="I187" s="9" t="n"/>
+      <c r="J187" s="15" t="n"/>
+      <c r="K187" s="3" t="n"/>
+      <c r="L187" s="20" t="n"/>
+    </row>
+    <row r="188" ht="30" customHeight="1">
+      <c r="A188" s="15" t="n"/>
+      <c r="B188" s="10" t="n"/>
+      <c r="C188" s="3" t="n"/>
+      <c r="D188" s="15" t="n"/>
+      <c r="E188" s="3" t="n"/>
+      <c r="F188" s="18" t="n"/>
+      <c r="G188" s="3" t="n"/>
+      <c r="H188" s="3" t="n"/>
+      <c r="I188" s="10" t="n"/>
+      <c r="J188" s="15" t="n"/>
+      <c r="K188" s="3" t="n"/>
+      <c r="L188" s="20" t="n"/>
+    </row>
+    <row r="189" ht="30" customHeight="1">
+      <c r="A189" s="15" t="n"/>
+      <c r="B189" s="10" t="n"/>
+      <c r="C189" s="3" t="n"/>
+      <c r="D189" s="15" t="n"/>
+      <c r="E189" s="3" t="n"/>
+      <c r="F189" s="18" t="n"/>
+      <c r="G189" s="3" t="n"/>
+      <c r="H189" s="3" t="n"/>
+      <c r="I189" s="10" t="n"/>
+      <c r="J189" s="15" t="n"/>
+      <c r="K189" s="3" t="n"/>
+      <c r="L189" s="20" t="n"/>
+    </row>
+    <row r="190" ht="30" customHeight="1">
+      <c r="A190" s="15" t="n"/>
+      <c r="B190" s="9" t="n"/>
+      <c r="C190" s="4" t="n"/>
+      <c r="D190" s="15" t="n"/>
+      <c r="E190" s="9" t="n"/>
+      <c r="F190" s="18" t="n"/>
+      <c r="G190" s="9" t="n"/>
+      <c r="H190" s="9" t="n"/>
+      <c r="I190" s="9" t="n"/>
+      <c r="J190" s="15" t="n"/>
+      <c r="K190" s="3" t="n"/>
+      <c r="L190" s="20" t="n"/>
+    </row>
+    <row r="191" ht="30" customHeight="1">
+      <c r="A191" s="15" t="n"/>
+      <c r="B191" s="10" t="n"/>
+      <c r="C191" s="3" t="n"/>
+      <c r="D191" s="15" t="n"/>
+      <c r="E191" s="3" t="n"/>
+      <c r="F191" s="18" t="n"/>
+      <c r="G191" s="3" t="n"/>
+      <c r="H191" s="3" t="n"/>
+      <c r="I191" s="10" t="n"/>
+      <c r="J191" s="15" t="n"/>
+      <c r="K191" s="3" t="n"/>
+      <c r="L191" s="20" t="n"/>
+    </row>
+    <row r="192" ht="30" customHeight="1">
+      <c r="A192" s="15" t="n"/>
+      <c r="B192" s="10" t="n"/>
+      <c r="C192" s="3" t="n"/>
+      <c r="D192" s="15" t="n"/>
+      <c r="E192" s="3" t="n"/>
+      <c r="F192" s="18" t="n"/>
+      <c r="G192" s="3" t="n"/>
+      <c r="H192" s="3" t="n"/>
+      <c r="I192" s="10" t="n"/>
+      <c r="J192" s="15" t="n"/>
+      <c r="K192" s="3" t="n"/>
+      <c r="L192" s="20" t="n"/>
+    </row>
+    <row r="193" ht="30" customHeight="1">
+      <c r="A193" s="15" t="n"/>
+      <c r="B193" s="10" t="n"/>
+      <c r="C193" s="3" t="n"/>
+      <c r="D193" s="15" t="n"/>
+      <c r="E193" s="3" t="n"/>
+      <c r="F193" s="18" t="n"/>
+      <c r="G193" s="3" t="n"/>
+      <c r="H193" s="3" t="n"/>
+      <c r="I193" s="10" t="n"/>
+      <c r="J193" s="15" t="n"/>
+      <c r="K193" s="3" t="n"/>
+      <c r="L193" s="20" t="n"/>
+    </row>
+    <row r="194" ht="30" customHeight="1">
+      <c r="A194" s="15" t="n"/>
+      <c r="B194" s="10" t="n"/>
+      <c r="C194" s="3" t="n"/>
+      <c r="D194" s="15" t="n"/>
+      <c r="E194" s="3" t="n"/>
+      <c r="F194" s="18" t="n"/>
+      <c r="G194" s="3" t="n"/>
+      <c r="H194" s="3" t="n"/>
+      <c r="I194" s="10" t="n"/>
+      <c r="J194" s="15" t="n"/>
+      <c r="K194" s="3" t="n"/>
+      <c r="L194" s="20" t="n"/>
+    </row>
+    <row r="195" ht="30" customHeight="1">
+      <c r="A195" s="15" t="n"/>
+      <c r="B195" s="10" t="n"/>
+      <c r="C195" s="3" t="n"/>
+      <c r="D195" s="15" t="n"/>
+      <c r="E195" s="3" t="n"/>
+      <c r="F195" s="18" t="n"/>
+      <c r="G195" s="3" t="n"/>
+      <c r="H195" s="3" t="n"/>
+      <c r="I195" s="10" t="n"/>
+      <c r="J195" s="15" t="n"/>
+      <c r="K195" s="3" t="n"/>
+      <c r="L195" s="20" t="n"/>
+    </row>
+    <row r="196" ht="30" customHeight="1">
+      <c r="A196" s="15" t="n"/>
+      <c r="B196" s="9" t="n"/>
+      <c r="C196" s="4" t="n"/>
+      <c r="D196" s="15" t="n"/>
+      <c r="E196" s="9" t="n"/>
+      <c r="F196" s="18" t="n"/>
+      <c r="G196" s="9" t="n"/>
+      <c r="H196" s="9" t="n"/>
+      <c r="I196" s="9" t="n"/>
+      <c r="J196" s="15" t="n"/>
+      <c r="K196" s="3" t="n"/>
+      <c r="L196" s="20" t="n"/>
+    </row>
+    <row r="197" ht="30" customHeight="1">
+      <c r="A197" s="15" t="n"/>
+      <c r="B197" s="10" t="n"/>
+      <c r="C197" s="3" t="n"/>
+      <c r="D197" s="15" t="n"/>
+      <c r="E197" s="3" t="n"/>
+      <c r="F197" s="18" t="n"/>
+      <c r="G197" s="3" t="n"/>
+      <c r="H197" s="3" t="n"/>
+      <c r="I197" s="10" t="n"/>
+      <c r="J197" s="15" t="n"/>
+      <c r="K197" s="3" t="n"/>
+      <c r="L197" s="20" t="n"/>
+    </row>
+    <row r="198" ht="30" customHeight="1">
+      <c r="A198" s="15" t="n"/>
+      <c r="B198" s="9" t="n"/>
+      <c r="C198" s="4" t="n"/>
+      <c r="D198" s="15" t="n"/>
+      <c r="E198" s="9" t="n"/>
+      <c r="F198" s="18" t="n"/>
+      <c r="G198" s="9" t="n"/>
+      <c r="H198" s="9" t="n"/>
+      <c r="I198" s="9" t="n"/>
+      <c r="J198" s="15" t="n"/>
+      <c r="K198" s="3" t="n"/>
+      <c r="L198" s="20" t="n"/>
+    </row>
+    <row r="199" ht="30" customHeight="1">
+      <c r="A199" s="15" t="n"/>
+      <c r="B199" s="10" t="n"/>
+      <c r="C199" s="3" t="n"/>
+      <c r="D199" s="15" t="n"/>
+      <c r="E199" s="3" t="n"/>
+      <c r="F199" s="18" t="n"/>
+      <c r="G199" s="3" t="n"/>
+      <c r="H199" s="3" t="n"/>
+      <c r="I199" s="10" t="n"/>
+      <c r="J199" s="15" t="n"/>
+      <c r="K199" s="3" t="n"/>
+      <c r="L199" s="20" t="n"/>
+    </row>
+    <row r="200" ht="30" customHeight="1">
+      <c r="A200" s="15" t="n"/>
+      <c r="B200" s="9" t="n"/>
+      <c r="C200" s="4" t="n"/>
+      <c r="D200" s="15" t="n"/>
+      <c r="E200" s="9" t="n"/>
+      <c r="F200" s="18" t="n"/>
+      <c r="G200" s="9" t="n"/>
+      <c r="H200" s="9" t="n"/>
+      <c r="I200" s="9" t="n"/>
+      <c r="J200" s="15" t="n"/>
+      <c r="K200" s="3" t="n"/>
+      <c r="L200" s="20" t="n"/>
+    </row>
+    <row r="201" ht="30" customHeight="1">
+      <c r="A201" s="15" t="n"/>
+      <c r="B201" s="10" t="n"/>
+      <c r="C201" s="3" t="n"/>
+      <c r="D201" s="15" t="n"/>
+      <c r="E201" s="3" t="n"/>
+      <c r="F201" s="18" t="n"/>
+      <c r="G201" s="3" t="n"/>
+      <c r="H201" s="3" t="n"/>
+      <c r="I201" s="10" t="n"/>
+      <c r="J201" s="15" t="n"/>
+      <c r="K201" s="3" t="n"/>
+      <c r="L201" s="20" t="n"/>
+    </row>
+    <row r="202" ht="30" customHeight="1">
+      <c r="A202" s="15" t="n"/>
+      <c r="B202" s="10" t="n"/>
+      <c r="C202" s="3" t="n"/>
+      <c r="D202" s="15" t="n"/>
+      <c r="E202" s="3" t="n"/>
+      <c r="F202" s="18" t="n"/>
+      <c r="G202" s="3" t="n"/>
+      <c r="H202" s="3" t="n"/>
+      <c r="I202" s="10" t="n"/>
+      <c r="J202" s="15" t="n"/>
+      <c r="K202" s="3" t="n"/>
+      <c r="L202" s="20" t="n"/>
+    </row>
+    <row r="203" ht="30" customHeight="1">
+      <c r="A203" s="15" t="n"/>
+      <c r="B203" s="10" t="n"/>
+      <c r="C203" s="3" t="n"/>
+      <c r="D203" s="15" t="n"/>
+      <c r="E203" s="3" t="n"/>
+      <c r="F203" s="18" t="n"/>
+      <c r="G203" s="3" t="n"/>
+      <c r="H203" s="3" t="n"/>
+      <c r="I203" s="10" t="n"/>
+      <c r="J203" s="15" t="n"/>
+      <c r="K203" s="3" t="n"/>
+      <c r="L203" s="20" t="n"/>
+    </row>
+    <row r="204" ht="30" customHeight="1">
+      <c r="A204" s="15" t="n"/>
+      <c r="B204" s="9" t="n"/>
+      <c r="C204" s="4" t="n"/>
+      <c r="D204" s="15" t="n"/>
+      <c r="E204" s="9" t="n"/>
+      <c r="F204" s="18" t="n"/>
+      <c r="G204" s="9" t="n"/>
+      <c r="H204" s="9" t="n"/>
+      <c r="I204" s="9" t="n"/>
+      <c r="J204" s="15" t="n"/>
+      <c r="K204" s="3" t="n"/>
+      <c r="L204" s="20" t="n"/>
+    </row>
+    <row r="205" ht="30" customHeight="1">
+      <c r="A205" s="15" t="n"/>
+      <c r="B205" s="10" t="n"/>
+      <c r="C205" s="3" t="n"/>
+      <c r="D205" s="15" t="n"/>
+      <c r="E205" s="3" t="n"/>
+      <c r="F205" s="18" t="n"/>
+      <c r="G205" s="3" t="n"/>
+      <c r="H205" s="3" t="n"/>
+      <c r="I205" s="10" t="n"/>
+      <c r="J205" s="15" t="n"/>
+      <c r="K205" s="3" t="n"/>
+      <c r="L205" s="20" t="n"/>
+    </row>
+    <row r="206" ht="30" customHeight="1">
+      <c r="A206" s="15" t="n"/>
+      <c r="B206" s="10" t="n"/>
+      <c r="C206" s="3" t="n"/>
+      <c r="D206" s="15" t="n"/>
+      <c r="E206" s="3" t="n"/>
+      <c r="F206" s="18" t="n"/>
+      <c r="G206" s="3" t="n"/>
+      <c r="H206" s="3" t="n"/>
+      <c r="I206" s="10" t="n"/>
+      <c r="J206" s="15" t="n"/>
+      <c r="K206" s="3" t="n"/>
+      <c r="L206" s="20" t="n"/>
+    </row>
+    <row r="207" ht="30" customHeight="1">
+      <c r="A207" s="15" t="n"/>
+      <c r="B207" s="9" t="n"/>
+      <c r="C207" s="4" t="n"/>
+      <c r="D207" s="15" t="n"/>
+      <c r="E207" s="9" t="n"/>
+      <c r="F207" s="18" t="n"/>
+      <c r="G207" s="9" t="n"/>
+      <c r="H207" s="9" t="n"/>
+      <c r="I207" s="9" t="n"/>
+      <c r="J207" s="15" t="n"/>
+      <c r="K207" s="3" t="n"/>
+      <c r="L207" s="20" t="n"/>
+    </row>
+    <row r="208" ht="30" customHeight="1">
+      <c r="A208" s="15" t="n"/>
+      <c r="B208" s="10" t="n"/>
+      <c r="C208" s="3" t="n"/>
+      <c r="D208" s="15" t="n"/>
+      <c r="E208" s="3" t="n"/>
+      <c r="F208" s="18" t="n"/>
+      <c r="G208" s="3" t="n"/>
+      <c r="H208" s="3" t="n"/>
+      <c r="I208" s="10" t="n"/>
+      <c r="J208" s="15" t="n"/>
+      <c r="K208" s="3" t="n"/>
+      <c r="L208" s="20" t="n"/>
+    </row>
+    <row r="209" ht="30" customHeight="1">
+      <c r="A209" s="15" t="n"/>
+      <c r="B209" s="10" t="n"/>
+      <c r="C209" s="3" t="n"/>
+      <c r="D209" s="15" t="n"/>
+      <c r="E209" s="3" t="n"/>
+      <c r="F209" s="18" t="n"/>
+      <c r="G209" s="3" t="n"/>
+      <c r="H209" s="3" t="n"/>
+      <c r="I209" s="10" t="n"/>
+      <c r="J209" s="15" t="n"/>
+      <c r="K209" s="3" t="n"/>
+      <c r="L209" s="20" t="n"/>
+    </row>
+    <row r="210" ht="30" customHeight="1">
+      <c r="A210" s="15" t="n"/>
+      <c r="B210" s="9" t="n"/>
+      <c r="C210" s="4" t="n"/>
+      <c r="D210" s="15" t="n"/>
+      <c r="E210" s="9" t="n"/>
+      <c r="F210" s="18" t="n"/>
+      <c r="G210" s="9" t="n"/>
+      <c r="H210" s="9" t="n"/>
+      <c r="I210" s="9" t="n"/>
+      <c r="J210" s="15" t="n"/>
+      <c r="K210" s="3" t="n"/>
+      <c r="L210" s="20" t="n"/>
+    </row>
+    <row r="211" ht="30" customHeight="1">
+      <c r="A211" s="15" t="n"/>
+      <c r="B211" s="10" t="n"/>
+      <c r="C211" s="3" t="n"/>
+      <c r="D211" s="15" t="n"/>
+      <c r="E211" s="3" t="n"/>
+      <c r="F211" s="18" t="n"/>
+      <c r="G211" s="3" t="n"/>
+      <c r="H211" s="3" t="n"/>
+      <c r="I211" s="10" t="n"/>
+      <c r="J211" s="15" t="n"/>
+      <c r="K211" s="3" t="n"/>
+      <c r="L211" s="20" t="n"/>
+    </row>
+    <row r="212" ht="30" customHeight="1">
+      <c r="A212" s="15" t="n"/>
+      <c r="B212" s="9" t="n"/>
+      <c r="C212" s="4" t="n"/>
+      <c r="D212" s="15" t="n"/>
+      <c r="E212" s="9" t="n"/>
+      <c r="F212" s="18" t="n"/>
+      <c r="G212" s="9" t="n"/>
+      <c r="H212" s="9" t="n"/>
+      <c r="I212" s="9" t="n"/>
+      <c r="J212" s="15" t="n"/>
+      <c r="K212" s="3" t="n"/>
+      <c r="L212" s="20" t="n"/>
+    </row>
+    <row r="213" ht="30" customHeight="1">
+      <c r="A213" s="15" t="n"/>
+      <c r="B213" s="10" t="n"/>
+      <c r="C213" s="3" t="n"/>
+      <c r="D213" s="15" t="n"/>
+      <c r="E213" s="3" t="n"/>
+      <c r="F213" s="18" t="n"/>
+      <c r="G213" s="3" t="n"/>
+      <c r="H213" s="3" t="n"/>
+      <c r="I213" s="10" t="n"/>
+      <c r="J213" s="15" t="n"/>
+      <c r="K213" s="3" t="n"/>
+      <c r="L213" s="20" t="n"/>
+    </row>
+    <row r="214" ht="30" customHeight="1">
+      <c r="A214" s="15" t="n"/>
+      <c r="B214" s="9" t="n"/>
+      <c r="C214" s="4" t="n"/>
+      <c r="D214" s="15" t="n"/>
+      <c r="E214" s="9" t="n"/>
+      <c r="F214" s="18" t="n"/>
+      <c r="G214" s="9" t="n"/>
+      <c r="H214" s="9" t="n"/>
+      <c r="I214" s="9" t="n"/>
+      <c r="J214" s="15" t="n"/>
+      <c r="K214" s="3" t="n"/>
+      <c r="L214" s="20" t="n"/>
+    </row>
+    <row r="215" ht="30" customHeight="1">
+      <c r="A215" s="15" t="n"/>
+      <c r="B215" s="10" t="n"/>
+      <c r="C215" s="3" t="n"/>
+      <c r="D215" s="15" t="n"/>
+      <c r="E215" s="3" t="n"/>
+      <c r="F215" s="18" t="n"/>
+      <c r="G215" s="3" t="n"/>
+      <c r="H215" s="3" t="n"/>
+      <c r="I215" s="10" t="n"/>
+      <c r="J215" s="15" t="n"/>
+      <c r="K215" s="3" t="n"/>
+      <c r="L215" s="20" t="n"/>
+    </row>
+    <row r="216" ht="30" customHeight="1">
+      <c r="A216" s="15" t="n"/>
+      <c r="B216" s="9" t="n"/>
+      <c r="C216" s="4" t="n"/>
+      <c r="D216" s="15" t="n"/>
+      <c r="E216" s="9" t="n"/>
+      <c r="F216" s="18" t="n"/>
+      <c r="G216" s="9" t="n"/>
+      <c r="H216" s="9" t="n"/>
+      <c r="I216" s="9" t="n"/>
+      <c r="J216" s="15" t="n"/>
+      <c r="K216" s="3" t="n"/>
+      <c r="L216" s="20" t="n"/>
+    </row>
+    <row r="217" ht="30" customHeight="1">
+      <c r="A217" s="15" t="n"/>
+      <c r="B217" s="10" t="n"/>
+      <c r="C217" s="3" t="n"/>
+      <c r="D217" s="15" t="n"/>
+      <c r="E217" s="3" t="n"/>
+      <c r="F217" s="18" t="n"/>
+      <c r="G217" s="3" t="n"/>
+      <c r="H217" s="3" t="n"/>
+      <c r="I217" s="10" t="n"/>
+      <c r="J217" s="15" t="n"/>
+      <c r="K217" s="3" t="n"/>
+      <c r="L217" s="20" t="n"/>
+    </row>
+    <row r="218" ht="30" customHeight="1">
+      <c r="A218" s="15" t="n"/>
+      <c r="B218" s="10" t="n"/>
+      <c r="C218" s="3" t="n"/>
+      <c r="D218" s="15" t="n"/>
+      <c r="E218" s="3" t="n"/>
+      <c r="F218" s="18" t="n"/>
+      <c r="G218" s="3" t="n"/>
+      <c r="H218" s="3" t="n"/>
+      <c r="I218" s="10" t="n"/>
+      <c r="J218" s="15" t="n"/>
+      <c r="K218" s="3" t="n"/>
+      <c r="L218" s="20" t="n"/>
+    </row>
+    <row r="219" ht="30" customHeight="1">
+      <c r="A219" s="15" t="n"/>
+      <c r="B219" s="9" t="n"/>
+      <c r="C219" s="4" t="n"/>
+      <c r="D219" s="15" t="n"/>
+      <c r="E219" s="9" t="n"/>
+      <c r="F219" s="18" t="n"/>
+      <c r="G219" s="9" t="n"/>
+      <c r="H219" s="9" t="n"/>
+      <c r="I219" s="9" t="n"/>
+      <c r="J219" s="15" t="n"/>
+      <c r="K219" s="3" t="n"/>
+      <c r="L219" s="20" t="n"/>
+    </row>
+    <row r="220" ht="30" customHeight="1">
+      <c r="A220" s="15" t="n"/>
+      <c r="B220" s="10" t="n"/>
+      <c r="C220" s="3" t="n"/>
+      <c r="D220" s="15" t="n"/>
+      <c r="E220" s="3" t="n"/>
+      <c r="F220" s="18" t="n"/>
+      <c r="G220" s="3" t="n"/>
+      <c r="H220" s="3" t="n"/>
+      <c r="I220" s="10" t="n"/>
+      <c r="J220" s="15" t="n"/>
+      <c r="K220" s="3" t="n"/>
+      <c r="L220" s="20" t="n"/>
+    </row>
+    <row r="221" ht="30" customHeight="1">
+      <c r="A221" s="15" t="n"/>
+      <c r="B221" s="10" t="n"/>
+      <c r="C221" s="3" t="n"/>
+      <c r="D221" s="15" t="n"/>
+      <c r="E221" s="3" t="n"/>
+      <c r="F221" s="18" t="n"/>
+      <c r="G221" s="3" t="n"/>
+      <c r="H221" s="3" t="n"/>
+      <c r="I221" s="10" t="n"/>
+      <c r="J221" s="15" t="n"/>
+      <c r="K221" s="3" t="n"/>
+      <c r="L221" s="20" t="n"/>
+    </row>
+    <row r="222" ht="30" customHeight="1">
+      <c r="A222" s="15" t="n"/>
+      <c r="B222" s="10" t="n"/>
+      <c r="C222" s="3" t="n"/>
+      <c r="D222" s="15" t="n"/>
+      <c r="E222" s="3" t="n"/>
+      <c r="F222" s="18" t="n"/>
+      <c r="G222" s="3" t="n"/>
+      <c r="H222" s="3" t="n"/>
+      <c r="I222" s="10" t="n"/>
+      <c r="J222" s="15" t="n"/>
+      <c r="K222" s="3" t="n"/>
+      <c r="L222" s="20" t="n"/>
+    </row>
+    <row r="223" ht="30" customHeight="1">
+      <c r="A223" s="15" t="n"/>
+      <c r="B223" s="9" t="n"/>
+      <c r="C223" s="4" t="n"/>
+      <c r="D223" s="15" t="n"/>
+      <c r="E223" s="9" t="n"/>
+      <c r="F223" s="18" t="n"/>
+      <c r="G223" s="9" t="n"/>
+      <c r="H223" s="9" t="n"/>
+      <c r="I223" s="9" t="n"/>
+      <c r="J223" s="15" t="n"/>
+      <c r="K223" s="3" t="n"/>
+      <c r="L223" s="20" t="n"/>
+    </row>
+    <row r="224" ht="30" customHeight="1">
+      <c r="A224" s="15" t="n"/>
+      <c r="B224" s="10" t="n"/>
+      <c r="C224" s="3" t="n"/>
+      <c r="D224" s="15" t="n"/>
+      <c r="E224" s="3" t="n"/>
+      <c r="F224" s="18" t="n"/>
+      <c r="G224" s="3" t="n"/>
+      <c r="H224" s="3" t="n"/>
+      <c r="I224" s="10" t="n"/>
+      <c r="J224" s="15" t="n"/>
+      <c r="K224" s="3" t="n"/>
+      <c r="L224" s="20" t="n"/>
+    </row>
+    <row r="225" ht="30" customHeight="1">
+      <c r="A225" s="15" t="n"/>
+      <c r="B225" s="10" t="n"/>
+      <c r="C225" s="3" t="n"/>
+      <c r="D225" s="15" t="n"/>
+      <c r="E225" s="3" t="n"/>
+      <c r="F225" s="18" t="n"/>
+      <c r="G225" s="3" t="n"/>
+      <c r="H225" s="3" t="n"/>
+      <c r="I225" s="10" t="n"/>
+      <c r="J225" s="15" t="n"/>
+      <c r="K225" s="3" t="n"/>
+      <c r="L225" s="20" t="n"/>
+    </row>
+    <row r="226" ht="30" customHeight="1">
+      <c r="A226" s="15" t="n"/>
+      <c r="B226" s="9" t="n"/>
+      <c r="C226" s="4" t="n"/>
+      <c r="D226" s="15" t="n"/>
+      <c r="E226" s="9" t="n"/>
+      <c r="F226" s="18" t="n"/>
+      <c r="G226" s="9" t="n"/>
+      <c r="H226" s="9" t="n"/>
+      <c r="I226" s="9" t="n"/>
+      <c r="J226" s="15" t="n"/>
+      <c r="K226" s="3" t="n"/>
+      <c r="L226" s="20" t="n"/>
+    </row>
+    <row r="227" ht="30" customHeight="1">
+      <c r="A227" s="15" t="n"/>
+      <c r="B227" s="10" t="n"/>
+      <c r="C227" s="3" t="n"/>
+      <c r="D227" s="15" t="n"/>
+      <c r="E227" s="3" t="n"/>
+      <c r="F227" s="18" t="n"/>
+      <c r="G227" s="3" t="n"/>
+      <c r="H227" s="3" t="n"/>
+      <c r="I227" s="10" t="n"/>
+      <c r="J227" s="15" t="n"/>
+      <c r="K227" s="3" t="n"/>
+      <c r="L227" s="20" t="n"/>
+    </row>
+    <row r="228" ht="30" customHeight="1">
+      <c r="A228" s="15" t="n"/>
+      <c r="B228" s="10" t="n"/>
+      <c r="C228" s="3" t="n"/>
+      <c r="D228" s="15" t="n"/>
+      <c r="E228" s="3" t="n"/>
+      <c r="F228" s="18" t="n"/>
+      <c r="G228" s="3" t="n"/>
+      <c r="H228" s="3" t="n"/>
+      <c r="I228" s="10" t="n"/>
+      <c r="J228" s="15" t="n"/>
+      <c r="K228" s="3" t="n"/>
+      <c r="L228" s="20" t="n"/>
+    </row>
+    <row r="229" ht="30" customHeight="1">
+      <c r="A229" s="15" t="n"/>
+      <c r="B229" s="9" t="n"/>
+      <c r="C229" s="4" t="n"/>
+      <c r="D229" s="15" t="n"/>
+      <c r="E229" s="9" t="n"/>
+      <c r="F229" s="18" t="n"/>
+      <c r="G229" s="9" t="n"/>
+      <c r="H229" s="9" t="n"/>
+      <c r="I229" s="9" t="n"/>
+      <c r="J229" s="15" t="n"/>
+      <c r="K229" s="3" t="n"/>
+      <c r="L229" s="20" t="n"/>
+    </row>
+    <row r="230" ht="30" customHeight="1">
+      <c r="A230" s="15" t="n"/>
+      <c r="B230" s="10" t="n"/>
+      <c r="C230" s="3" t="n"/>
+      <c r="D230" s="15" t="n"/>
+      <c r="E230" s="3" t="n"/>
+      <c r="F230" s="18" t="n"/>
+      <c r="G230" s="3" t="n"/>
+      <c r="H230" s="3" t="n"/>
+      <c r="I230" s="10" t="n"/>
+      <c r="J230" s="15" t="n"/>
+      <c r="K230" s="3" t="n"/>
+      <c r="L230" s="20" t="n"/>
+    </row>
+    <row r="231" ht="30" customHeight="1">
+      <c r="A231" s="15" t="n"/>
+      <c r="B231" s="9" t="n"/>
+      <c r="C231" s="4" t="n"/>
+      <c r="D231" s="15" t="n"/>
+      <c r="E231" s="9" t="n"/>
+      <c r="F231" s="18" t="n"/>
+      <c r="G231" s="9" t="n"/>
+      <c r="H231" s="9" t="n"/>
+      <c r="I231" s="9" t="n"/>
+      <c r="J231" s="15" t="n"/>
+      <c r="K231" s="3" t="n"/>
+      <c r="L231" s="20" t="n"/>
+    </row>
+    <row r="232" ht="30" customHeight="1">
+      <c r="A232" s="15" t="n"/>
+      <c r="B232" s="10" t="n"/>
+      <c r="C232" s="3" t="n"/>
+      <c r="D232" s="15" t="n"/>
+      <c r="E232" s="3" t="n"/>
+      <c r="F232" s="18" t="n"/>
+      <c r="G232" s="3" t="n"/>
+      <c r="H232" s="3" t="n"/>
+      <c r="I232" s="10" t="n"/>
+      <c r="J232" s="15" t="n"/>
+      <c r="K232" s="3" t="n"/>
+      <c r="L232" s="20" t="n"/>
+    </row>
+    <row r="233" ht="30" customHeight="1">
+      <c r="A233" s="15" t="n"/>
+      <c r="B233" s="10" t="n"/>
+      <c r="C233" s="3" t="n"/>
+      <c r="D233" s="15" t="n"/>
+      <c r="E233" s="3" t="n"/>
+      <c r="F233" s="18" t="n"/>
+      <c r="G233" s="3" t="n"/>
+      <c r="H233" s="3" t="n"/>
+      <c r="I233" s="10" t="n"/>
+      <c r="J233" s="15" t="n"/>
+      <c r="K233" s="3" t="n"/>
+      <c r="L233" s="20" t="n"/>
+    </row>
+    <row r="234" ht="30" customHeight="1">
+      <c r="A234" s="15" t="n"/>
+      <c r="B234" s="10" t="n"/>
+      <c r="C234" s="3" t="n"/>
+      <c r="D234" s="15" t="n"/>
+      <c r="E234" s="3" t="n"/>
+      <c r="F234" s="18" t="n"/>
+      <c r="G234" s="3" t="n"/>
+      <c r="H234" s="3" t="n"/>
+      <c r="I234" s="10" t="n"/>
+      <c r="J234" s="15" t="n"/>
+      <c r="K234" s="3" t="n"/>
+      <c r="L234" s="20" t="n"/>
+    </row>
+    <row r="235" ht="30" customHeight="1">
+      <c r="A235" s="15" t="n"/>
+      <c r="B235" s="9" t="n"/>
+      <c r="C235" s="4" t="n"/>
+      <c r="D235" s="15" t="n"/>
+      <c r="E235" s="9" t="n"/>
+      <c r="F235" s="18" t="n"/>
+      <c r="G235" s="9" t="n"/>
+      <c r="H235" s="9" t="n"/>
+      <c r="I235" s="9" t="n"/>
+      <c r="J235" s="15" t="n"/>
+      <c r="K235" s="3" t="n"/>
+      <c r="L235" s="20" t="n"/>
+    </row>
+    <row r="236" ht="30" customHeight="1">
+      <c r="A236" s="15" t="n"/>
+      <c r="B236" s="10" t="n"/>
+      <c r="C236" s="3" t="n"/>
+      <c r="D236" s="15" t="n"/>
+      <c r="E236" s="3" t="n"/>
+      <c r="F236" s="18" t="n"/>
+      <c r="G236" s="3" t="n"/>
+      <c r="H236" s="3" t="n"/>
+      <c r="I236" s="10" t="n"/>
+      <c r="J236" s="15" t="n"/>
+      <c r="K236" s="3" t="n"/>
+      <c r="L236" s="20" t="n"/>
+    </row>
+    <row r="237" ht="30" customHeight="1">
+      <c r="A237" s="15" t="n"/>
+      <c r="B237" s="9" t="n"/>
+      <c r="C237" s="4" t="n"/>
+      <c r="D237" s="15" t="n"/>
+      <c r="E237" s="9" t="n"/>
+      <c r="F237" s="18" t="n"/>
+      <c r="G237" s="9" t="n"/>
+      <c r="H237" s="9" t="n"/>
+      <c r="I237" s="9" t="n"/>
+      <c r="J237" s="15" t="n"/>
+      <c r="K237" s="3" t="n"/>
+      <c r="L237" s="20" t="n"/>
+    </row>
+    <row r="238" ht="30" customHeight="1">
+      <c r="A238" s="15" t="n"/>
+      <c r="B238" s="10" t="n"/>
+      <c r="C238" s="3" t="n"/>
+      <c r="D238" s="15" t="n"/>
+      <c r="E238" s="3" t="n"/>
+      <c r="F238" s="18" t="n"/>
+      <c r="G238" s="3" t="n"/>
+      <c r="H238" s="3" t="n"/>
+      <c r="I238" s="10" t="n"/>
+      <c r="J238" s="15" t="n"/>
+      <c r="K238" s="3" t="n"/>
+      <c r="L238" s="20" t="n"/>
+    </row>
+    <row r="239" ht="30" customHeight="1">
+      <c r="A239" s="15" t="n"/>
+      <c r="B239" s="9" t="n"/>
+      <c r="C239" s="4" t="n"/>
+      <c r="D239" s="15" t="n"/>
+      <c r="E239" s="9" t="n"/>
+      <c r="F239" s="18" t="n"/>
+      <c r="G239" s="9" t="n"/>
+      <c r="H239" s="9" t="n"/>
+      <c r="I239" s="9" t="n"/>
+      <c r="J239" s="15" t="n"/>
+      <c r="K239" s="3" t="n"/>
+      <c r="L239" s="20" t="n"/>
+    </row>
+    <row r="240" ht="30" customHeight="1">
+      <c r="A240" s="15" t="n"/>
+      <c r="B240" s="10" t="n"/>
+      <c r="C240" s="3" t="n"/>
+      <c r="D240" s="15" t="n"/>
+      <c r="E240" s="3" t="n"/>
+      <c r="F240" s="18" t="n"/>
+      <c r="G240" s="3" t="n"/>
+      <c r="H240" s="3" t="n"/>
+      <c r="I240" s="10" t="n"/>
+      <c r="J240" s="15" t="n"/>
+      <c r="K240" s="3" t="n"/>
+      <c r="L240" s="20" t="n"/>
+    </row>
+    <row r="241" ht="30" customHeight="1">
+      <c r="A241" s="15" t="n"/>
+      <c r="B241" s="10" t="n"/>
+      <c r="C241" s="3" t="n"/>
+      <c r="D241" s="15" t="n"/>
+      <c r="E241" s="3" t="n"/>
+      <c r="F241" s="18" t="n"/>
+      <c r="G241" s="3" t="n"/>
+      <c r="H241" s="3" t="n"/>
+      <c r="I241" s="10" t="n"/>
+      <c r="J241" s="15" t="n"/>
+      <c r="K241" s="3" t="n"/>
+      <c r="L241" s="20" t="n"/>
+    </row>
+    <row r="242" ht="30" customHeight="1">
+      <c r="A242" s="15" t="n"/>
+      <c r="B242" s="9" t="n"/>
+      <c r="C242" s="4" t="n"/>
+      <c r="D242" s="15" t="n"/>
+      <c r="E242" s="9" t="n"/>
+      <c r="F242" s="18" t="n"/>
+      <c r="G242" s="9" t="n"/>
+      <c r="H242" s="9" t="n"/>
+      <c r="I242" s="9" t="n"/>
+      <c r="J242" s="15" t="n"/>
+      <c r="K242" s="3" t="n"/>
+      <c r="L242" s="20" t="n"/>
+    </row>
+    <row r="243" ht="30" customHeight="1">
+      <c r="A243" s="15" t="n"/>
+      <c r="B243" s="10" t="n"/>
+      <c r="C243" s="3" t="n"/>
+      <c r="D243" s="15" t="n"/>
+      <c r="E243" s="8" t="n"/>
+      <c r="F243" s="18" t="n"/>
+      <c r="G243" s="3" t="n"/>
+      <c r="H243" s="3" t="n"/>
+      <c r="I243" s="10" t="n"/>
+      <c r="J243" s="15" t="n"/>
+      <c r="K243" s="3" t="n"/>
+      <c r="L243" s="20" t="n"/>
+    </row>
+    <row r="244" ht="30" customHeight="1">
+      <c r="A244" s="15" t="n"/>
+      <c r="B244" s="9" t="n"/>
+      <c r="C244" s="4" t="n"/>
+      <c r="D244" s="15" t="n"/>
+      <c r="E244" s="9" t="n"/>
+      <c r="F244" s="18" t="n"/>
+      <c r="G244" s="9" t="n"/>
+      <c r="H244" s="9" t="n"/>
+      <c r="I244" s="9" t="n"/>
+      <c r="J244" s="15" t="n"/>
+      <c r="K244" s="3" t="n"/>
+      <c r="L244" s="20" t="n"/>
+    </row>
+    <row r="245" ht="30" customHeight="1">
+      <c r="A245" s="15" t="n"/>
+      <c r="B245" s="10" t="n"/>
+      <c r="C245" s="3" t="n"/>
+      <c r="D245" s="15" t="n"/>
+      <c r="E245" s="3" t="n"/>
+      <c r="F245" s="18" t="n"/>
+      <c r="G245" s="3" t="n"/>
+      <c r="H245" s="3" t="n"/>
+      <c r="I245" s="10" t="n"/>
+      <c r="J245" s="15" t="n"/>
+      <c r="K245" s="3" t="n"/>
+      <c r="L245" s="20" t="n"/>
+    </row>
+    <row r="246" ht="30" customHeight="1">
+      <c r="A246" s="15" t="n"/>
+      <c r="B246" s="10" t="n"/>
+      <c r="C246" s="3" t="n"/>
+      <c r="D246" s="15" t="n"/>
+      <c r="E246" s="3" t="n"/>
+      <c r="F246" s="18" t="n"/>
+      <c r="G246" s="3" t="n"/>
+      <c r="H246" s="3" t="n"/>
+      <c r="I246" s="10" t="n"/>
+      <c r="J246" s="15" t="n"/>
+      <c r="K246" s="3" t="n"/>
+      <c r="L246" s="20" t="n"/>
+    </row>
+    <row r="247" ht="30" customHeight="1">
+      <c r="A247" s="15" t="n"/>
+      <c r="B247" s="9" t="n"/>
+      <c r="C247" s="4" t="n"/>
+      <c r="D247" s="15" t="n"/>
+      <c r="E247" s="9" t="n"/>
+      <c r="F247" s="18" t="n"/>
+      <c r="G247" s="9" t="n"/>
+      <c r="H247" s="9" t="n"/>
+      <c r="I247" s="9" t="n"/>
+      <c r="J247" s="15" t="n"/>
+      <c r="K247" s="3" t="n"/>
+      <c r="L247" s="20" t="n"/>
+    </row>
+    <row r="248" ht="30" customHeight="1">
+      <c r="A248" s="15" t="n"/>
+      <c r="B248" s="10" t="n"/>
+      <c r="C248" s="3" t="n"/>
+      <c r="D248" s="15" t="n"/>
+      <c r="E248" s="3" t="n"/>
+      <c r="F248" s="18" t="n"/>
+      <c r="G248" s="3" t="n"/>
+      <c r="H248" s="3" t="n"/>
+      <c r="I248" s="10" t="n"/>
+      <c r="J248" s="15" t="n"/>
+      <c r="K248" s="3" t="n"/>
+      <c r="L248" s="20" t="n"/>
+    </row>
+    <row r="249" ht="30" customHeight="1">
+      <c r="A249" s="15" t="n"/>
+      <c r="B249" s="9" t="n"/>
+      <c r="C249" s="4" t="n"/>
+      <c r="D249" s="15" t="n"/>
+      <c r="E249" s="9" t="n"/>
+      <c r="F249" s="18" t="n"/>
+      <c r="G249" s="9" t="n"/>
+      <c r="H249" s="9" t="n"/>
+      <c r="I249" s="9" t="n"/>
+      <c r="J249" s="15" t="n"/>
+      <c r="K249" s="3" t="n"/>
+      <c r="L249" s="20" t="n"/>
+    </row>
+    <row r="250" ht="30" customHeight="1">
+      <c r="A250" s="15" t="n"/>
+      <c r="B250" s="10" t="n"/>
+      <c r="C250" s="3" t="n"/>
+      <c r="D250" s="15" t="n"/>
+      <c r="E250" s="3" t="n"/>
+      <c r="F250" s="18" t="n"/>
+      <c r="G250" s="3" t="n"/>
+      <c r="H250" s="3" t="n"/>
+      <c r="I250" s="10" t="n"/>
+      <c r="J250" s="15" t="n"/>
+      <c r="K250" s="3" t="n"/>
+      <c r="L250" s="20" t="n"/>
+    </row>
+    <row r="251" ht="30" customHeight="1">
+      <c r="A251" s="15" t="n"/>
+      <c r="B251" s="10" t="n"/>
+      <c r="C251" s="3" t="n"/>
+      <c r="D251" s="15" t="n"/>
+      <c r="E251" s="3" t="n"/>
+      <c r="F251" s="18" t="n"/>
+      <c r="G251" s="3" t="n"/>
+      <c r="H251" s="3" t="n"/>
+      <c r="I251" s="10" t="n"/>
+      <c r="J251" s="15" t="n"/>
+      <c r="K251" s="3" t="n"/>
+      <c r="L251" s="20" t="n"/>
+    </row>
+    <row r="252" ht="30" customHeight="1">
+      <c r="A252" s="15" t="n"/>
+      <c r="B252" s="9" t="n"/>
+      <c r="C252" s="4" t="n"/>
+      <c r="D252" s="15" t="n"/>
+      <c r="E252" s="9" t="n"/>
+      <c r="F252" s="18" t="n"/>
+      <c r="G252" s="9" t="n"/>
+      <c r="H252" s="9" t="n"/>
+      <c r="I252" s="9" t="n"/>
+      <c r="J252" s="15" t="n"/>
+      <c r="K252" s="3" t="n"/>
+      <c r="L252" s="20" t="n"/>
+    </row>
+    <row r="253" ht="30" customHeight="1">
+      <c r="A253" s="15" t="n"/>
+      <c r="B253" s="10" t="n"/>
+      <c r="C253" s="3" t="n"/>
+      <c r="D253" s="15" t="n"/>
+      <c r="E253" s="3" t="n"/>
+      <c r="F253" s="18" t="n"/>
+      <c r="G253" s="3" t="n"/>
+      <c r="H253" s="3" t="n"/>
+      <c r="I253" s="10" t="n"/>
+      <c r="J253" s="15" t="n"/>
+      <c r="K253" s="3" t="n"/>
+      <c r="L253" s="20" t="n"/>
+    </row>
+    <row r="254" ht="30" customHeight="1">
+      <c r="A254" s="15" t="n"/>
+      <c r="B254" s="10" t="n"/>
+      <c r="C254" s="3" t="n"/>
+      <c r="D254" s="15" t="n"/>
+      <c r="E254" s="3" t="n"/>
+      <c r="F254" s="18" t="n"/>
+      <c r="G254" s="3" t="n"/>
+      <c r="H254" s="3" t="n"/>
+      <c r="I254" s="10" t="n"/>
+      <c r="J254" s="15" t="n"/>
+      <c r="K254" s="3" t="n"/>
+      <c r="L254" s="20" t="n"/>
+    </row>
+    <row r="255" ht="30" customHeight="1">
+      <c r="A255" s="15" t="n"/>
+      <c r="B255" s="10" t="n"/>
+      <c r="C255" s="3" t="n"/>
+      <c r="D255" s="15" t="n"/>
+      <c r="E255" s="3" t="n"/>
+      <c r="F255" s="18" t="n"/>
+      <c r="G255" s="3" t="n"/>
+      <c r="H255" s="3" t="n"/>
+      <c r="I255" s="10" t="n"/>
+      <c r="J255" s="15" t="n"/>
+      <c r="K255" s="3" t="n"/>
+      <c r="L255" s="20" t="n"/>
+    </row>
+    <row r="256" ht="30" customHeight="1">
+      <c r="A256" s="15" t="n"/>
+      <c r="B256" s="10" t="n"/>
+      <c r="C256" s="3" t="n"/>
+      <c r="D256" s="15" t="n"/>
+      <c r="E256" s="3" t="n"/>
+      <c r="F256" s="18" t="n"/>
+      <c r="G256" s="3" t="n"/>
+      <c r="H256" s="3" t="n"/>
+      <c r="I256" s="10" t="n"/>
+      <c r="J256" s="15" t="n"/>
+      <c r="K256" s="3" t="n"/>
+      <c r="L256" s="20" t="n"/>
+    </row>
+    <row r="257" ht="30" customHeight="1">
+      <c r="A257" s="15" t="n"/>
+      <c r="B257" s="9" t="n"/>
+      <c r="C257" s="4" t="n"/>
+      <c r="D257" s="15" t="n"/>
+      <c r="E257" s="9" t="n"/>
+      <c r="F257" s="18" t="n"/>
+      <c r="G257" s="9" t="n"/>
+      <c r="H257" s="9" t="n"/>
+      <c r="I257" s="9" t="n"/>
+      <c r="J257" s="15" t="n"/>
+      <c r="K257" s="3" t="n"/>
+      <c r="L257" s="20" t="n"/>
+    </row>
+    <row r="258" ht="30" customHeight="1">
+      <c r="A258" s="15" t="n"/>
+      <c r="B258" s="10" t="n"/>
+      <c r="C258" s="3" t="n"/>
+      <c r="D258" s="15" t="n"/>
+      <c r="E258" s="3" t="n"/>
+      <c r="F258" s="18" t="n"/>
+      <c r="G258" s="3" t="n"/>
+      <c r="H258" s="3" t="n"/>
+      <c r="I258" s="10" t="n"/>
+      <c r="J258" s="15" t="n"/>
+      <c r="K258" s="3" t="n"/>
+      <c r="L258" s="20" t="n"/>
+    </row>
+    <row r="259" ht="30" customHeight="1">
+      <c r="A259" s="15" t="n"/>
+      <c r="B259" s="9" t="n"/>
+      <c r="C259" s="4" t="n"/>
+      <c r="D259" s="15" t="n"/>
+      <c r="E259" s="9" t="n"/>
+      <c r="F259" s="18" t="n"/>
+      <c r="G259" s="9" t="n"/>
+      <c r="H259" s="9" t="n"/>
+      <c r="I259" s="9" t="n"/>
+      <c r="J259" s="15" t="n"/>
+      <c r="K259" s="3" t="n"/>
+      <c r="L259" s="20" t="n"/>
+    </row>
+    <row r="260" ht="30" customHeight="1">
+      <c r="A260" s="15" t="n"/>
+      <c r="B260" s="10" t="n"/>
+      <c r="C260" s="3" t="n"/>
+      <c r="D260" s="15" t="n"/>
+      <c r="E260" s="3" t="n"/>
+      <c r="F260" s="18" t="n"/>
+      <c r="G260" s="3" t="n"/>
+      <c r="H260" s="3" t="n"/>
+      <c r="I260" s="10" t="n"/>
+      <c r="J260" s="15" t="n"/>
+      <c r="K260" s="3" t="n"/>
+      <c r="L260" s="20" t="n"/>
+    </row>
+    <row r="261" ht="30" customHeight="1">
+      <c r="A261" s="15" t="n"/>
+      <c r="B261" s="10" t="n"/>
+      <c r="C261" s="3" t="n"/>
+      <c r="D261" s="15" t="n"/>
+      <c r="E261" s="3" t="n"/>
+      <c r="F261" s="18" t="n"/>
+      <c r="G261" s="3" t="n"/>
+      <c r="H261" s="3" t="n"/>
+      <c r="I261" s="10" t="n"/>
+      <c r="J261" s="15" t="n"/>
+      <c r="K261" s="3" t="n"/>
+      <c r="L261" s="20" t="n"/>
+    </row>
+    <row r="262" ht="30" customHeight="1">
+      <c r="A262" s="15" t="n"/>
+      <c r="B262" s="10" t="n"/>
+      <c r="C262" s="3" t="n"/>
+      <c r="D262" s="15" t="n"/>
+      <c r="E262" s="3" t="n"/>
+      <c r="F262" s="18" t="n"/>
+      <c r="G262" s="3" t="n"/>
+      <c r="H262" s="3" t="n"/>
+      <c r="I262" s="10" t="n"/>
+      <c r="J262" s="15" t="n"/>
+      <c r="K262" s="3" t="n"/>
+      <c r="L262" s="20" t="n"/>
+    </row>
+    <row r="263" ht="30" customHeight="1">
+      <c r="A263" s="15" t="n"/>
+      <c r="B263" s="9" t="n"/>
+      <c r="C263" s="4" t="n"/>
+      <c r="D263" s="15" t="n"/>
+      <c r="E263" s="9" t="n"/>
+      <c r="F263" s="18" t="n"/>
+      <c r="G263" s="9" t="n"/>
+      <c r="H263" s="9" t="n"/>
+      <c r="I263" s="9" t="n"/>
+      <c r="J263" s="15" t="n"/>
+      <c r="K263" s="3" t="n"/>
+      <c r="L263" s="20" t="n"/>
+    </row>
+    <row r="264" ht="30" customHeight="1">
+      <c r="A264" s="15" t="n"/>
+      <c r="B264" s="10" t="n"/>
+      <c r="C264" s="3" t="n"/>
+      <c r="D264" s="15" t="n"/>
+      <c r="E264" s="3" t="n"/>
+      <c r="F264" s="18" t="n"/>
+      <c r="G264" s="3" t="n"/>
+      <c r="H264" s="3" t="n"/>
+      <c r="I264" s="10" t="n"/>
+      <c r="J264" s="15" t="n"/>
+      <c r="K264" s="3" t="n"/>
+      <c r="L264" s="20" t="n"/>
+    </row>
+    <row r="265" ht="30" customHeight="1">
+      <c r="A265" s="15" t="n"/>
+      <c r="B265" s="10" t="n"/>
+      <c r="C265" s="3" t="n"/>
+      <c r="D265" s="15" t="n"/>
+      <c r="E265" s="3" t="n"/>
+      <c r="F265" s="18" t="n"/>
+      <c r="G265" s="3" t="n"/>
+      <c r="H265" s="3" t="n"/>
+      <c r="I265" s="10" t="n"/>
+      <c r="J265" s="15" t="n"/>
+      <c r="K265" s="3" t="n"/>
+      <c r="L265" s="20" t="n"/>
+    </row>
+    <row r="266" ht="30" customHeight="1">
+      <c r="A266" s="15" t="n"/>
+      <c r="B266" s="9" t="n"/>
+      <c r="C266" s="4" t="n"/>
+      <c r="D266" s="15" t="n"/>
+      <c r="E266" s="9" t="n"/>
+      <c r="F266" s="18" t="n"/>
+      <c r="G266" s="9" t="n"/>
+      <c r="H266" s="9" t="n"/>
+      <c r="I266" s="9" t="n"/>
+      <c r="J266" s="15" t="n"/>
+      <c r="K266" s="3" t="n"/>
+      <c r="L266" s="20" t="n"/>
+    </row>
+    <row r="267" ht="30" customHeight="1">
+      <c r="A267" s="15" t="n"/>
+      <c r="B267" s="10" t="n"/>
+      <c r="C267" s="3" t="n"/>
+      <c r="D267" s="15" t="n"/>
+      <c r="E267" s="3" t="n"/>
+      <c r="F267" s="18" t="n"/>
+      <c r="G267" s="3" t="n"/>
+      <c r="H267" s="3" t="n"/>
+      <c r="I267" s="10" t="n"/>
+      <c r="J267" s="15" t="n"/>
+      <c r="K267" s="3" t="n"/>
+      <c r="L267" s="20" t="n"/>
+    </row>
+    <row r="268" ht="30" customHeight="1">
+      <c r="A268" s="15" t="n"/>
+      <c r="B268" s="10" t="n"/>
+      <c r="C268" s="3" t="n"/>
+      <c r="D268" s="15" t="n"/>
+      <c r="E268" s="3" t="n"/>
+      <c r="F268" s="18" t="n"/>
+      <c r="G268" s="3" t="n"/>
+      <c r="H268" s="3" t="n"/>
+      <c r="I268" s="10" t="n"/>
+      <c r="J268" s="15" t="n"/>
+      <c r="K268" s="3" t="n"/>
+      <c r="L268" s="20" t="n"/>
+    </row>
+    <row r="269" ht="30" customHeight="1">
+      <c r="A269" s="15" t="n"/>
+      <c r="B269" s="9" t="n"/>
+      <c r="C269" s="4" t="n"/>
+      <c r="D269" s="15" t="n"/>
+      <c r="E269" s="9" t="n"/>
+      <c r="F269" s="18" t="n"/>
+      <c r="G269" s="9" t="n"/>
+      <c r="H269" s="9" t="n"/>
+      <c r="I269" s="9" t="n"/>
+      <c r="J269" s="15" t="n"/>
+      <c r="K269" s="3" t="n"/>
+      <c r="L269" s="20" t="n"/>
+    </row>
+    <row r="270" ht="30" customHeight="1">
+      <c r="A270" s="15" t="n"/>
+      <c r="B270" s="10" t="n"/>
+      <c r="C270" s="3" t="n"/>
+      <c r="D270" s="15" t="n"/>
+      <c r="E270" s="3" t="n"/>
+      <c r="F270" s="18" t="n"/>
+      <c r="G270" s="3" t="n"/>
+      <c r="H270" s="3" t="n"/>
+      <c r="I270" s="10" t="n"/>
+      <c r="J270" s="15" t="n"/>
+      <c r="K270" s="3" t="n"/>
+      <c r="L270" s="20" t="n"/>
+    </row>
+    <row r="271" ht="30" customHeight="1">
+      <c r="A271" s="15" t="n"/>
+      <c r="B271" s="10" t="n"/>
+      <c r="C271" s="3" t="n"/>
+      <c r="D271" s="15" t="n"/>
+      <c r="E271" s="3" t="n"/>
+      <c r="F271" s="18" t="n"/>
+      <c r="G271" s="3" t="n"/>
+      <c r="H271" s="3" t="n"/>
+      <c r="I271" s="10" t="n"/>
+      <c r="J271" s="15" t="n"/>
+      <c r="K271" s="3" t="n"/>
+      <c r="L271" s="20" t="n"/>
+    </row>
+    <row r="272" ht="30" customHeight="1">
+      <c r="A272" s="15" t="n"/>
+      <c r="B272" s="9" t="n"/>
+      <c r="C272" s="4" t="n"/>
+      <c r="D272" s="15" t="n"/>
+      <c r="E272" s="9" t="n"/>
+      <c r="F272" s="18" t="n"/>
+      <c r="G272" s="9" t="n"/>
+      <c r="H272" s="9" t="n"/>
+      <c r="I272" s="9" t="n"/>
+      <c r="J272" s="15" t="n"/>
+      <c r="K272" s="3" t="n"/>
+      <c r="L272" s="20" t="n"/>
+    </row>
+    <row r="273" ht="30" customHeight="1">
+      <c r="A273" s="15" t="n"/>
+      <c r="B273" s="10" t="n"/>
+      <c r="C273" s="3" t="n"/>
+      <c r="D273" s="15" t="n"/>
+      <c r="E273" s="3" t="n"/>
+      <c r="F273" s="18" t="n"/>
+      <c r="G273" s="3" t="n"/>
+      <c r="H273" s="3" t="n"/>
+      <c r="I273" s="10" t="n"/>
+      <c r="J273" s="15" t="n"/>
+      <c r="K273" s="3" t="n"/>
+      <c r="L273" s="20" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L273"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="27">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Template</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Project Key</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deliverable Discussion</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Issue Type</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Deliverable Agreement</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Deliverable Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fulfilled</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Reporter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PEP - Customer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PEP - Supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fix Version/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epic Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epic Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Assignee</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Agreement</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.5546875" customWidth="1" min="1" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>c1</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>R4J download fromjira</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>c2</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Sheet</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Instance Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Download Date</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Selected Fields</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Selected Filter</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Selected Jql</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Selected Project</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Selected Tab</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Enabled Settings</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tabelle3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>jira</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>c4</t>
+          <t>https://jira.aixtron.com/jira/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b.tauber@aixtron.com</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.6700315046296297</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>["Key","Project Key","Issue Type","Summary","Description","Fix Version/s","Reporter","PEP - Customer","PEP - Supplier","Epic Name","Epic Link"]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>project="12808"</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>12808</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"SavePasswords":true,"ShowChangesAsComments":true,"ShowIssueKeysAsHyperlink":true}</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upload" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Upload_Template'!$A$1:$L$273</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,11 +33,6 @@
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -137,10 +132,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -149,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -161,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -179,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -188,20 +183,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -600,8 +595,7 @@
   <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -691,7 +685,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Technology Sponsorship  - M4</t>
+          <t>Market expectations - M0</t>
         </is>
       </c>
       <c r="D2" s="15" t="n"/>
@@ -701,13 +695,13 @@
       <c r="H2" s="9" t="n"/>
       <c r="I2" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J2" s="17" t="n"/>
       <c r="K2" s="9" t="inlineStr">
         <is>
-          <t>Technology Sponsorship  - M4</t>
+          <t>Market expectations - M0</t>
         </is>
       </c>
       <c r="L2" s="19" t="n"/>
@@ -721,39 +715,36 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>TM4.021.01 - TM4.021.01</t>
+          <t>TM0.011.01 -  Market expectations defined?</t>
         </is>
       </c>
       <c r="D3" s="15" t="n"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Program Management is accountable for regular update of project justification by answering the RWW questions:
-* REAL? Is there a real need at the market? Is the problem we try to solve or the envisioend benefit real? Are customers are willing to pay for our solution? 
-* WIN? can we deliver the added value we are aiming for with the new technology? is it feasible within the given time? Will customers accept our solution?
-*WORTH IT? Is it worth spending the real costs and the opportunity costs for this Technology?</t>
+          <t>* Describe the unmet or latent need of the market to our product which shall be addressed by the new Technology* Describe the value proposition that should be reached* When is expected to have the new technology available for the market?</t>
         </is>
       </c>
       <c r="F3" s="18" t="n"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Program Mgr</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J3" s="15" t="n"/>
       <c r="K3" s="9" t="n"/>
       <c r="L3" s="19" t="inlineStr">
         <is>
-          <t>Technology Sponsorship  - M4</t>
+          <t>Market expectations - M0</t>
         </is>
       </c>
     </row>
@@ -766,43 +757,25 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Project planning - M4</t>
+          <t>Preliminariy Timeline &amp; Project Set up - M0</t>
         </is>
       </c>
       <c r="D4" s="15" t="n"/>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>* Do we need development partners? 
-If so who? and when to involve (right from the beginning or only for qualification?)</t>
-        </is>
-      </c>
+      <c r="E4" s="9" t="n"/>
       <c r="F4" s="18" t="n"/>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>Product Marketing</t>
-        </is>
-      </c>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="9" t="n"/>
       <c r="I4" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
-        </is>
-      </c>
-      <c r="J4" s="17" t="n"/>
+          <t>PIP Milestone 0</t>
+        </is>
+      </c>
       <c r="K4" s="9" t="inlineStr">
         <is>
-          <t>Project planning - M4</t>
-        </is>
-      </c>
-      <c r="L4" s="19" t="inlineStr">
-        <is>
-          <t>MRS (80%) - M1</t>
-        </is>
-      </c>
+          <t>Preliminariy Timeline &amp; Project Set up - M0</t>
+        </is>
+      </c>
+      <c r="L4" s="19" t="n"/>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="15" t="n"/>
@@ -813,38 +786,36 @@
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>TM4.031.01 - TM4.031.01</t>
+          <t>TM0.012.01 - Preliminary timeline until TM1 (MRS release) and PM defined?</t>
         </is>
       </c>
       <c r="D5" s="15" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>*Alignment PRS with results of the current phase, e.g. test results, FMEA Measures, built issues, etc.
-* Update risk assessment and mitigation based on Jira items
-* Update risk assessment and mitigation of remaining topics based on the dashboard</t>
+          <t>*Plan Resources from technology for the MRS Phase… to start with a Draft of the PRS* name Project Manager and key experts* define Timeline, when MRS is ready* dedicated Budget only if &gt;100'000 EUR are required</t>
         </is>
       </c>
       <c r="F5" s="18" t="n"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Program Mgr</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="I5" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J5" s="15" t="n"/>
       <c r="K5" s="9" t="n"/>
       <c r="L5" s="19" t="inlineStr">
         <is>
-          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
+          <t>Preliminariy Timeline &amp; Project Set up - M0</t>
         </is>
       </c>
     </row>
@@ -852,48 +823,31 @@
       <c r="A6" s="15" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>TM4.031.02 - TM4.031.02</t>
+          <t>Project Motivation Presentation - M0</t>
         </is>
       </c>
       <c r="D6" s="15" t="n"/>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>* lessons Learned session with project team and relevant stakeholders done
-* results documented and communicated</t>
-        </is>
-      </c>
+      <c r="E6" s="9" t="n"/>
       <c r="F6" s="18" t="n"/>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
-          <t>Program Mgr</t>
-        </is>
-      </c>
-      <c r="H6" s="9" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="9" t="n"/>
       <c r="I6" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J6" s="15" t="n"/>
       <c r="K6" s="9" t="inlineStr">
         <is>
-          <t>Project planning M2 - M1</t>
-        </is>
-      </c>
-      <c r="L6" s="19" t="inlineStr">
-        <is>
-          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
-        </is>
-      </c>
+          <t>Project Motivation Presentation - M0</t>
+        </is>
+      </c>
+      <c r="L6" s="19" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="15" t="n"/>
@@ -904,43 +858,36 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>TM4.031.03 - TM4.031.03</t>
+          <t xml:space="preserve">TM0.021.01 - Technology idea, Project objectives and scope and value proposition defined? </t>
         </is>
       </c>
       <c r="D7" s="15" t="n"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>*A Handover list completed 
-* List of open issues assigend to responsible (supplier in the phase of productization)
-* all project closing relevant tasks fulfilled
-* sign-off by  customer</t>
+          <t>* Define highlevel the scope of the technology development  - What is the idea for the technology?  - What is the goal of the Project and what is in and out of scope?  - Which learnings we would like to have achieved?* Formulate your hypothesis why it is a real demand, Why AIXTRON can win and why it should be worth doing it</t>
         </is>
       </c>
       <c r="F7" s="18" t="n"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Program Mgr / PEP PM</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J7" s="15" t="n"/>
-      <c r="K7" s="9" t="inlineStr">
-        <is>
-          <t>Project planning - M2</t>
-        </is>
-      </c>
+      <c r="K7" s="9" t="n"/>
       <c r="L7" s="19" t="inlineStr">
         <is>
-          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M4</t>
+          <t>Project Motivation Presentation - M0</t>
         </is>
       </c>
     </row>
@@ -948,53 +895,41 @@
       <c r="A8" s="15" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PRS - M4</t>
+          <t>TM0.021.02 - Program expectations defined ?</t>
         </is>
       </c>
       <c r="D8" s="15" t="n"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>The technology needs to be handed over properly to a either a PCM or PEP for productization. 
-All items needs to be defined in the TDP Handover List, as
-- links to a technical file describing the developement of the technology and related learnings,
-- all design documents (BOM, drawings)
-- Supporting documents or TAs for assembly and integration
-- Shop floor test instructions
-- Part quality and supplier information
-- SW documentation
-...</t>
+          <t>* Which product shall use the new technology?* Shall the new technology be handed over to and productized in a PEPor PCM Change (PDP-S)?* What is the expected TRL at handover?* What is the expected timeline until handover to the product?</t>
         </is>
       </c>
       <c r="F8" s="18" t="n"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Program Mgr</t>
+          <t>MKT</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J8" s="15" t="n"/>
-      <c r="K8" s="9" t="inlineStr">
-        <is>
-          <t>PRS - M4</t>
-        </is>
-      </c>
+      <c r="K8" s="9" t="n"/>
       <c r="L8" s="19" t="inlineStr">
         <is>
-          <t>Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW) - M3</t>
+          <t>Project Motivation Presentation - M0</t>
         </is>
       </c>
     </row>
@@ -1007,40 +942,28 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>TM4.033.01 - TM4.033.01</t>
+          <t>TM0.021.03 - Project Motivation Presentation /MO released</t>
         </is>
       </c>
       <c r="D9" s="15" t="n"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>*check final qualification status on PRS Level</t>
+          <t>*All above mentioned items to be presented in ONE ppt to Project Steering Committee (PSC) -&gt; MO template* PSC releases all above mentioned items w/ M0, no extra signatures needed</t>
         </is>
       </c>
       <c r="F9" s="18" t="n"/>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
       <c r="I9" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J9" s="15" t="n"/>
-      <c r="K9" s="9" t="inlineStr">
-        <is>
-          <t>PRS - M3</t>
-        </is>
-      </c>
+      <c r="K9" s="9" t="n"/>
       <c r="L9" s="19" t="inlineStr">
         <is>
-          <t>Project planning - M4</t>
+          <t>Project Motivation Presentation - M0</t>
         </is>
       </c>
     </row>
@@ -1048,99 +971,71 @@
       <c r="A10" s="15" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>TM4.033.02 - TM4.033.02</t>
+          <t>Project number - M0</t>
         </is>
       </c>
       <c r="D10" s="15" t="n"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Evaluation of test results and comparison with MRS and PRS 
-*root cause analysis for unsuccessfull  test results
-*create back log list for further improvement 
-*open issues from the back log list must be assigned and solutions developed</t>
-        </is>
-      </c>
+      <c r="E10" s="9" t="n"/>
       <c r="F10" s="18" t="n"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
       <c r="I10" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J10" s="15" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>PA (Project Application) - M2</t>
-        </is>
-      </c>
-      <c r="L10" s="20" t="inlineStr">
-        <is>
-          <t>Project planning - M4</t>
-        </is>
-      </c>
+          <t>Project number - M0</t>
+        </is>
+      </c>
+      <c r="L10" s="20" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="15" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Technology Qualification - M4</t>
+          <t>TM0.101.01 - Project number assigned?</t>
         </is>
       </c>
       <c r="D11" s="15" t="n"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>* Define a relevant test case for technical PRS items in Jira
-* Ensure the required test environment in coordination with the parties
-  concerned, such as the laboratory
-* Ensure an all encompassing test concept for qualification phase
-   to ensure fullfillement of each requirement of the PRS</t>
+          <t>With M0 release the PSP number can be assigned</t>
         </is>
       </c>
       <c r="F11" s="18" t="n"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>CTRL</t>
         </is>
       </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 0</t>
         </is>
       </c>
       <c r="J11" s="15" t="n"/>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>Technology Qualification - M4</t>
-        </is>
-      </c>
+      <c r="K11" s="3" t="n"/>
       <c r="L11" s="20" t="inlineStr">
         <is>
-          <t>Technical &amp; economic viability assessment &amp;
-Project &amp; Risk Mamagement - M3</t>
+          <t>Project number - M0</t>
         </is>
       </c>
     </row>
@@ -1148,50 +1043,31 @@
       <c r="A12" s="15" t="n"/>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>TM4.041.01 - TM4.041.01</t>
+          <t>MRS (80%) - M1</t>
         </is>
       </c>
       <c r="D12" s="15" t="n"/>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>* conduct Review of all qualification results
-* identify gaps to targeted TRL
-* define measures 
-* re-iterate development if needed</t>
-        </is>
-      </c>
+      <c r="E12" s="3" t="n"/>
       <c r="F12" s="18" t="n"/>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
       <c r="I12" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J12" s="15" t="n"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>PRS - M2</t>
-        </is>
-      </c>
-      <c r="L12" s="20" t="inlineStr">
-        <is>
-          <t>Which risks are pending regarding update of assessment and mitigation? (Project and PRS risks) - M4</t>
-        </is>
-      </c>
+          <t>MRS (80%) - M1</t>
+        </is>
+      </c>
+      <c r="L12" s="20" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="15" t="n"/>
@@ -1202,41 +1078,36 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>TM4.041.02 - TM4.041.02</t>
+          <t>TM1.011.01 - Which MRS items are not clear to the project team?</t>
         </is>
       </c>
       <c r="D13" s="15" t="n"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>* tested at customer and feedback received
-e.g. wishes for product improvememt</t>
+          <t xml:space="preserve">* Describe the gap in the market, i.e. the missing functions, not the solution concept.* Review MRS in Jira with the technology team for a common understanding, i.e., clarification of the degrees of freedom of technologies to define the solution* The content is sufficient for the project to start w/ first ideas and planning </t>
         </is>
       </c>
       <c r="F13" s="18" t="n"/>
       <c r="G13" s="9" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="H13" s="9" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Product Marketing</t>
         </is>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J13" s="15" t="n"/>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>Fast learning loops - M3</t>
-        </is>
-      </c>
+      <c r="K13" s="3" t="n"/>
       <c r="L13" s="20" t="inlineStr">
         <is>
-          <t>Which risks are pending regarding update of assessment and mitigation? (Project and PRS risks) - M4</t>
+          <t>MRS (80%) - M1</t>
         </is>
       </c>
     </row>
@@ -1244,46 +1115,41 @@
       <c r="A14" s="15" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+          <t>TM1.011.01 - Are joint development partners foreseen?</t>
         </is>
       </c>
       <c r="D14" s="15" t="n"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>* Make sure that the tests / investigations answering the key questions are  handled with priority
-* each key question shall be answered and well documented in a Technical Investigation Report</t>
+          <t>* Do we need development partners? If so who? and when to involve (right from the beginning or only for qualification?)</t>
         </is>
       </c>
       <c r="F14" s="18" t="n"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Product Marketing</t>
         </is>
       </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J14" s="15" t="n"/>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
-        </is>
-      </c>
+      <c r="K14" s="3" t="n"/>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>Project plan (timeline and budget) updated until TM4? - M3</t>
+          <t>MRS (80%) - M1</t>
         </is>
       </c>
     </row>
@@ -1296,37 +1162,36 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>TM4.042.01 - TM4.042.01</t>
+          <t>TM1.011.02 - MRS-Baseline (80% maturity - 100% Scope) released?</t>
         </is>
       </c>
       <c r="D15" s="15" t="n"/>
       <c r="E15" s="9" t="inlineStr">
         <is>
-          <t>* Final design reported created/updated (shows final design)
-* released</t>
+          <t xml:space="preserve">* All MRS items are listed and "accepted" in Jira* 80% maturity accepted (at 100% Scope)* Release by sign-off of Jira-exported document by CEO, VP Marketing, VP Technology, VP Engineering, Program Manager, Produkt Manager </t>
         </is>
       </c>
       <c r="F15" s="18" t="n"/>
       <c r="G15" s="9" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="H15" s="9" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Product Marketing</t>
         </is>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J15" s="15" t="n"/>
       <c r="K15" s="3" t="n"/>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>Lessons learned done and communicated? - M4</t>
+          <t>MRS (80%) - M1</t>
         </is>
       </c>
     </row>
@@ -1334,47 +1199,31 @@
       <c r="A16" s="15" t="n"/>
       <c r="B16" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>TM4.042.02 - TM4.042.02</t>
+          <t>Project planning M2 - M1</t>
         </is>
       </c>
       <c r="D16" s="15" t="n"/>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>* update of Technical Development File report by qualification results and latest learnings (shows design incl. all relevant learnings - to preserve the knowledge)</t>
-        </is>
-      </c>
+      <c r="E16" s="3" t="n"/>
       <c r="F16" s="18" t="n"/>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
       <c r="I16" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J16" s="15" t="n"/>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>Technology Development - M3</t>
-        </is>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>Lessons learned done and communicated? - M4</t>
-        </is>
-      </c>
+          <t>Project planning M2 - M1</t>
+        </is>
+      </c>
+      <c r="L16" s="20" t="n"/>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="15" t="n"/>
@@ -1385,37 +1234,36 @@
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>TM4.042.03 - TM4.042.03</t>
+          <t>TM1.031.01 - Project plan until TM2 created?</t>
         </is>
       </c>
       <c r="D17" s="15" t="n"/>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>* review items of handover list individually with receiwing project/customer
-* list is complete</t>
+          <t>*Define the needed workpackages to TM2 (according checklist) and estimate the efforts * resources and staffing* timeline* estimation if budget of 100k€ is sufficent until TM2   -&gt; if not PA is required.</t>
         </is>
       </c>
       <c r="F17" s="18" t="n"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Product Marketing</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J17" s="15" t="n"/>
       <c r="K17" s="3" t="n"/>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>Lessons learned done and communicated? - M4</t>
+          <t>Project planning M2 - M1</t>
         </is>
       </c>
     </row>
@@ -1428,44 +1276,26 @@
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
-          <t>Software for qualification - M4</t>
+          <t>PA (Project Application) - M1</t>
         </is>
       </c>
       <c r="D18" s="15" t="n"/>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>* Check if the Concept fulfills all PRS requirements
-* Document results and degree of fullfillment
--&gt; as input for Concept Review Meeting</t>
-        </is>
-      </c>
+      <c r="E18" s="11" t="n"/>
       <c r="F18" s="18" t="n"/>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
       <c r="I18" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J18" s="15" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>Software for qualification - M4</t>
-        </is>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>Which risks are pending regarding assessment and mitigation? (Project and PRS risks) - M3</t>
-        </is>
-      </c>
+          <t>PA (Project Application) - M1</t>
+        </is>
+      </c>
+      <c r="L18" s="20" t="n"/>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="15" t="n"/>
@@ -1476,42 +1306,36 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>TM4.044.01 - TM4.044.01</t>
+          <t>TM1.032.01 - Does the Phase from TM0  to TM2 require a budget &gt;100k€?  If so, has a PA until TM2 been signed yet?</t>
         </is>
       </c>
       <c r="D19" s="15" t="n"/>
       <c r="E19" s="9" t="inlineStr">
         <is>
-          <t>*Update check of software releases available for productization</t>
+          <t xml:space="preserve">*If initiatives directly related to the initialized project,  such as LLI orders or early tests investigating general feasibility exceed the budget of 100k€ from TM0 to TM2   a preliminary project application is required. </t>
         </is>
       </c>
       <c r="F19" s="18" t="n"/>
       <c r="G19" s="9" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Controlling</t>
         </is>
       </c>
       <c r="H19" s="9" t="inlineStr">
         <is>
-          <t>Software 
-Development</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 1</t>
         </is>
       </c>
       <c r="J19" s="15" t="n"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Technology Development
-(Problem-Analysis, first ideas and solution space) - M2</t>
-        </is>
-      </c>
+      <c r="K19" s="3" t="n"/>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>Which stakeholders have not yet released the handover list? - M4</t>
+          <t>PA (Project Application) - M1</t>
         </is>
       </c>
     </row>
@@ -1524,42 +1348,26 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>IP Update - M4</t>
+          <t>MRS (100%) - M2</t>
         </is>
       </c>
       <c r="D20" s="15" t="n"/>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>Document the key learnings in a comprehensive Technical Investigation Report</t>
-        </is>
-      </c>
+      <c r="E20" s="3" t="n"/>
       <c r="F20" s="18" t="n"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
       <c r="I20" s="9" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J20" s="15" t="n"/>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>IP Update - M4</t>
-        </is>
-      </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>Which risks are pending regarding assessment and mitigation? (Project and PRS risks) - M3</t>
-        </is>
-      </c>
+          <t>MRS (100%) - M2</t>
+        </is>
+      </c>
+      <c r="L20" s="20" t="n"/>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="15" t="n"/>
@@ -1570,40 +1378,36 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>TM4.051.01 - TM4.051.01</t>
+          <t>TM2.011.04 - MRS-Baseline (100% Maturity) released?</t>
         </is>
       </c>
       <c r="D21" s="15" t="n"/>
       <c r="E21" s="9" t="inlineStr">
         <is>
-          <t>* Make sure that LoD is up to date</t>
+          <t>* MRS finalized by Marketing  - All MRS items are listed and "accepted" in Jira  - 100% maturity accepted (at 100% Scope)</t>
         </is>
       </c>
       <c r="F21" s="18" t="n"/>
       <c r="G21" s="9" t="inlineStr">
         <is>
-          <t>Intellectual Property</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="H21" s="9" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Product Management</t>
         </is>
       </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J21" s="15" t="n"/>
-      <c r="K21" s="9" t="inlineStr">
-        <is>
-          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
-        </is>
-      </c>
+      <c r="K21" s="9" t="n"/>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>PRS - M4</t>
+          <t>MRS (100%) - M2</t>
         </is>
       </c>
     </row>
@@ -1611,89 +1415,71 @@
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>TM4.051.02 - TM4.051.02</t>
+          <t>Technology Sponsorship  - M2</t>
         </is>
       </c>
       <c r="D22" s="15" t="n"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>* Make sure that FTO for the whole technology exists</t>
-        </is>
-      </c>
+      <c r="E22" s="3" t="n"/>
       <c r="F22" s="18" t="n"/>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>Intellectual Property</t>
-        </is>
-      </c>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
       <c r="I22" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J22" s="15" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="19" t="inlineStr">
-        <is>
-          <t>PRS - M4</t>
-        </is>
-      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M2</t>
+        </is>
+      </c>
+      <c r="L22" s="19" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="15" t="n"/>
       <c r="B23" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>FMEA &amp; Quality plan - M4</t>
+          <t>TM2.021.01 - Did Project team agree on objectives and scope (incl. Definition of target TRL)?</t>
         </is>
       </c>
       <c r="D23" s="15" t="n"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>* Check if the design fulfills all PRS requirements
-* Document results and degree of fullfillment
--&gt; as input for Design Review Meeting</t>
+          <t>Agreement between Program Manager &amp; Project Manager (as representive of team) on objectives and scope. Program Mgr needs to make sure that TDP fits under program umbrella.</t>
         </is>
       </c>
       <c r="F23" s="18" t="n"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>Project Mgmt</t>
+          <t>Product Mkt</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Program Mgr</t>
         </is>
       </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J23" s="15" t="n"/>
-      <c r="K23" s="9" t="inlineStr">
-        <is>
-          <t>FMEA &amp; Quality plan - M4</t>
-        </is>
-      </c>
+      <c r="K23" s="9" t="n"/>
       <c r="L23" s="19" t="inlineStr">
         <is>
-          <t>Which information are missing to give a commitment to deliver the new technology with TRL5 on time? - M3</t>
+          <t>Technology Sponsorship  - M2</t>
         </is>
       </c>
     </row>
@@ -1706,38 +1492,36 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>TM4.061.01 - TM4.061.01</t>
+          <t>TM2.021.02 - Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW)</t>
         </is>
       </c>
       <c r="D24" s="15" t="n"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>*Update Design FMEA
-*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)
-*Create a mitigation pactions which needs to be considered in further developemnt /productization</t>
+          <t>Program Management is accountable for regular update of project justification by answering the RWW questions:* REAL? Is there a real need at the market? Is the problem we try to solve or the envisioend benefit real? Are customers are willing to pay for our solution? * WIN? can we deliver the added value we are aiming for with the new technology? is it feasible within the given time? Will customers accept our solution?*WORTH IT? Is it worth spending the real costs and the opportunity costs for this Technology?</t>
         </is>
       </c>
       <c r="F24" s="18" t="n"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
           <t>Project Mgmt</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J24" s="15" t="n"/>
       <c r="K24" s="9" t="n"/>
       <c r="L24" s="19" t="inlineStr">
         <is>
-          <t>Which PRS elements have not been qualified? - M4</t>
+          <t>Technology Sponsorship  - M2</t>
         </is>
       </c>
     </row>
@@ -1745,48 +1529,31 @@
       <c r="A25" s="15" t="n"/>
       <c r="B25" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>TM4.061.02 - TM4.061.02</t>
+          <t>Project planning - M2</t>
         </is>
       </c>
       <c r="D25" s="15" t="n"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>*verification of the FSR from technology and quality together
-*decision for release or release with condition or rejection</t>
-        </is>
-      </c>
+      <c r="E25" s="3" t="n"/>
       <c r="F25" s="18" t="n"/>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
       <c r="I25" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J25" s="15" t="n"/>
       <c r="K25" s="9" t="inlineStr">
         <is>
-          <t>IP Overview - M2</t>
-        </is>
-      </c>
-      <c r="L25" s="19" t="inlineStr">
-        <is>
-          <t>Which PRS elements have not been qualified? - M4</t>
-        </is>
-      </c>
+          <t>Project planning - M2</t>
+        </is>
+      </c>
+      <c r="L25" s="19" t="n"/>
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="15" t="n"/>
@@ -1797,43 +1564,38 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>TM4.061.03 - TM4.061.03</t>
+          <t>TM2.031.01 - Project plan for complete project defined?
+  (incl. starting &amp; end point, project strategy (e.g. # iterations)</t>
         </is>
       </c>
       <c r="D26" s="15" t="n"/>
       <c r="E26" s="9" t="inlineStr">
         <is>
-          <t>Updates of
-* potential analysis  
-* measures defined, incl. status to ISO 9001
-to be followed up in productization</t>
+          <t>* Project strategy defined  - assumption of needed iterations of development cycles  - internal development and/ or collaboration w/ externals  - handover to productization   - starting point and end point  - TRL at project end (TRL5-&gt; PEP &amp; TRL&gt;=6 -&gt; PCM)* Project plan set up based on   - work packages and efforts aligned w/ line managers   - resources and staffing  - summarized in a Work Breakdown Structure (WBS)* Budget for resources, external services, material and other costs* scheduling of Milestone Reviews incl. Previews 4 weeks ahead</t>
         </is>
       </c>
       <c r="F26" s="18" t="n"/>
       <c r="G26" s="9" t="inlineStr">
         <is>
+          <t>Program Management
+(Technology Sponsor)</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
           <t>Project Mgmt</t>
         </is>
       </c>
-      <c r="H26" s="9" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
       <c r="I26" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J26" s="15" t="n"/>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t>Software for development - M3</t>
-        </is>
-      </c>
+      <c r="K26" s="3" t="n"/>
       <c r="L26" s="20" t="inlineStr">
         <is>
-          <t>Which PRS elements have not been qualified? - M4</t>
+          <t>Project planning - M2</t>
         </is>
       </c>
     </row>
@@ -1841,39 +1603,42 @@
       <c r="A27" s="15" t="n"/>
       <c r="B27" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+          <t>TM2.031.02 - Which risks have not been listed and assessed yet? 
+(project risks and PRS risk assessment)</t>
         </is>
       </c>
       <c r="D27" s="15" t="n"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>* Check software releases available for the project
-* Define SW features and release version (What&amp;When?)
-* If new software is needed for the project, update aligned timeline with the SW Project Management including releases for backlog topics</t>
+          <t>* Conduct risk assessment and mitigation based on Jira items* conduct risk assessment and mitigation of remaining topics based on the dashboard</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgmt</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
       <c r="I27" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J27" s="15" t="n"/>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
-        </is>
-      </c>
+      <c r="K27" s="3" t="n"/>
       <c r="L27" s="20" t="inlineStr">
         <is>
-          <t>Which items of the handshake to PEP / PCM are not yet defined in the handover list? - M3</t>
+          <t>Project planning - M2</t>
         </is>
       </c>
     </row>
@@ -1881,93 +1646,71 @@
       <c r="A28" s="15" t="n"/>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>TM4.071.01 - TM4.071.01</t>
+          <t>PA (Project Application) - M2</t>
         </is>
       </c>
       <c r="D28" s="15" t="n"/>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>* Long Lead items for Productization identified
-* All documents are prepared for order
-* or in follow up project</t>
-        </is>
-      </c>
+      <c r="E28" s="3" t="n"/>
       <c r="F28" s="18" t="n"/>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>Purchasing</t>
-        </is>
-      </c>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
       <c r="I28" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J28" s="15" t="n"/>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>IP Update - M3</t>
-        </is>
-      </c>
-      <c r="L28" s="20" t="inlineStr">
-        <is>
-          <t>Which test cases have not been passed yet? - M4</t>
-        </is>
-      </c>
+          <t>PA (Project Application) - M2</t>
+        </is>
+      </c>
+      <c r="L28" s="20" t="n"/>
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Project Controlling - M4</t>
+          <t>TM2.032.01 - Project Application released?</t>
         </is>
       </c>
       <c r="D29" s="15" t="n"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>All technical differences compared to the state fo the art (own technology as well as foreign technology) has been identified and listed</t>
+          <t xml:space="preserve">Fill in the PA Template completely as per PA-instructions </t>
         </is>
       </c>
       <c r="F29" s="18" t="n"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>Intellectual Property</t>
+          <t>Controlling</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Project Mgmt</t>
         </is>
       </c>
       <c r="I29" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J29" s="15" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t>Project Controlling - M4</t>
-        </is>
-      </c>
+      <c r="K29" s="3" t="n"/>
       <c r="L29" s="20" t="inlineStr">
         <is>
-          <t>PRS - M3</t>
+          <t>PA (Project Application) - M2</t>
         </is>
       </c>
     </row>
@@ -1975,88 +1718,69 @@
       <c r="A30" s="15" t="n"/>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>TM4.101.01 - TM4.101.01</t>
+          <t>PRS - M2</t>
         </is>
       </c>
       <c r="D30" s="15" t="n"/>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>* validation of spent project costs</t>
-        </is>
-      </c>
+      <c r="E30" s="9" t="n"/>
       <c r="F30" s="18" t="n"/>
-      <c r="G30" s="9" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H30" s="9" t="inlineStr">
-        <is>
-          <t>Controlling</t>
-        </is>
-      </c>
+      <c r="G30" s="9" t="n"/>
+      <c r="H30" s="9" t="n"/>
       <c r="I30" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 4</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J30" s="15" t="n"/>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>Supply Chain &amp; Procurement for Development - M2</t>
-        </is>
-      </c>
-      <c r="L30" s="20" t="inlineStr">
-        <is>
-          <t>Technology Qualification - M4</t>
-        </is>
-      </c>
+          <t>PRS - M2</t>
+        </is>
+      </c>
+      <c r="L30" s="20" t="n"/>
     </row>
     <row r="31" ht="30" customHeight="1">
       <c r="A31" s="15" t="n"/>
       <c r="B31" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>FMEA &amp; Qualityplan - M3</t>
+          <t>TM2.033.01 - Which parts of the MRS are not covered 
+by the PRS?</t>
         </is>
       </c>
       <c r="D31" s="15" t="n"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Long Lead Item (LLI) list w/ suppliers created</t>
+          <t>*Translate all Marketing Requirements into Product Requirements *Using coverage level in JIRA*List requirments not covered in PRS*non-covered requirements to be presented in MRM (Milestone Release Meeting)</t>
         </is>
       </c>
       <c r="F31" s="18" t="n"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
+          <t>Product Mkt</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
           <t>Project Mgmt</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>Purchasing</t>
-        </is>
-      </c>
       <c r="I31" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J31" s="15" t="n"/>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>FMEA &amp; Qualityplan - M3</t>
-        </is>
-      </c>
+      <c r="K31" s="3" t="n"/>
       <c r="L31" s="20" t="inlineStr">
         <is>
           <t>PRS - M2</t>
@@ -2072,40 +1796,36 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>TM3.061.01 - TM3.061.01</t>
+          <t xml:space="preserve">TM2.033.02 - Which stakeholders have not yet defined their requirements? </t>
         </is>
       </c>
       <c r="D32" s="15" t="n"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>* Conduct Concept FMEA for the Technology
-( for TRL4 only high level is needed)
-* Define mitigation measures
-* implementation of critical measues 
-* Create a timeline and mitigation plan for those that are not yet implemented</t>
+          <t>* Identify and define stakeholders (= not part of the project team)  -&gt; Marketing, Quality, Service, Purchasing* Request stakeholders to provide their relevant requirements and their experience/lessons learned * Project Team to provide leassons learned* Workshop with the aim to jointly prioritize provided lessons learned and requirements from the different stakeholders## if no Systems Engineer or Technologists from TechInnovation</t>
         </is>
       </c>
       <c r="F32" s="18" t="n"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Systems Engineering </t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
           <t>Project Mgmt</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
       <c r="I32" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J32" s="15" t="n"/>
       <c r="K32" s="3" t="n"/>
       <c r="L32" s="20" t="inlineStr">
         <is>
-          <t>Which PRS items are not yet updated? - M3</t>
+          <t>PRS - M2</t>
         </is>
       </c>
     </row>
@@ -2118,39 +1838,36 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>TM3.061.02 - TM3.061.02</t>
+          <t>TM2.033.03 - PRS Baseline Released?</t>
         </is>
       </c>
       <c r="D33" s="15" t="n"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>*Update Design FMEA
-*Implement Design FMEA
-*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)
-*Create a timeline and mitigation plan for those that are not yet implemented</t>
+          <t>* All PRS requirements are entered in Jira * Review by Project team; if ok, Project manager or Systems engineer set requirement to "accepted"* All requirements must have status accepted (= requirement description done - not more) in Jira from all Stakeholders (TBD) -&gt; defines baseline* Required signatures: TDP project team, Project Manager, Program Manager, Product Mgr, Mgr Technology Innovation*Signature to be performed directly in Jira using baselines</t>
         </is>
       </c>
       <c r="F33" s="18" t="n"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
           <t>Project Mgmt</t>
         </is>
       </c>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
       <c r="I33" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J33" s="15" t="n"/>
       <c r="K33" s="3" t="n"/>
       <c r="L33" s="20" t="inlineStr">
         <is>
-          <t>Which PRS items are not yet updated? - M3</t>
+          <t>PRS - M2</t>
         </is>
       </c>
     </row>
@@ -2158,46 +1875,31 @@
       <c r="A34" s="15" t="n"/>
       <c r="B34" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>TM3.061.03 - TM3.061.03</t>
+          <t>Proof of Concept Testing - M2</t>
         </is>
       </c>
       <c r="D34" s="15" t="n"/>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>* Define / update a list of critical components
-* 100% verification of dimensions for all critical components 
-* funtional tests done for functional units
-* If Final design loop: FSR required</t>
-        </is>
-      </c>
+      <c r="E34" s="3" t="n"/>
       <c r="F34" s="18" t="n"/>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
+      <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
       <c r="I34" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J34" s="15" t="n"/>
-      <c r="K34" s="3" t="n"/>
-      <c r="L34" s="20" t="inlineStr">
-        <is>
-          <t>Which PRS items are not yet updated? - M3</t>
-        </is>
-      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>Proof of Concept Testing - M2</t>
+        </is>
+      </c>
+      <c r="L34" s="20" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="15" t="n"/>
@@ -2208,14 +1910,13 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>TM3.061.04 - TM3.061.04</t>
+          <t xml:space="preserve">TM2.041.01 - Which key questions (e.g. on feasibility/cost/strategic) are crucial for the project (so called red flags) and have not yet been answered? </t>
         </is>
       </c>
       <c r="D35" s="15" t="n"/>
       <c r="E35" s="9" t="inlineStr">
         <is>
-          <t>* potential analysis completed 
-* measures defined, incl. status to ISO 9001</t>
+          <t>* Indentify the real important questions on technical and economical feasibility which are a thread to the whole project needs to be answered as soon as possible* Proof-of-Concept testing  - if beneficial, fast PoC tests can be initiated already in TM2 phase.  - These tests can provide crucial input for project planning</t>
         </is>
       </c>
       <c r="F35" s="18" t="n"/>
@@ -2226,19 +1927,19 @@
       </c>
       <c r="H35" s="9" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="I35" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J35" s="15" t="n"/>
       <c r="K35" s="3" t="n"/>
       <c r="L35" s="20" t="inlineStr">
         <is>
-          <t>Which PRS items are not yet updated? - M3</t>
+          <t>Proof of Concept Testing - M2</t>
         </is>
       </c>
     </row>
@@ -2246,74 +1947,75 @@
       <c r="A36" s="15" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+          <t xml:space="preserve">TM2.041.02 - For which key questions are no preliminary red flag test defined? </t>
         </is>
       </c>
       <c r="D36" s="15" t="n"/>
-      <c r="E36" s="3" t="n"/>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>* Plan simple but convincing feasibility tests to mitigate the red flags* Start testing immediately</t>
+        </is>
+      </c>
       <c r="F36" s="18" t="n"/>
-      <c r="G36" s="3" t="n"/>
-      <c r="H36" s="3" t="n"/>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="I36" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J36" s="15" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
-        </is>
-      </c>
-      <c r="L36" s="20" t="n"/>
+      <c r="K36" s="3" t="n"/>
+      <c r="L36" s="20" t="inlineStr">
+        <is>
+          <t>Proof of Concept Testing - M2</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="15" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>TM3.071.01 - TM3.071.01</t>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
         </is>
       </c>
       <c r="D37" s="15" t="n"/>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>* List of suppliers defined
-* Aligned w/ purchasing</t>
-        </is>
-      </c>
+      <c r="E37" s="3" t="n"/>
       <c r="F37" s="18" t="n"/>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>Purchasing</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
       <c r="I37" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J37" s="15" t="n"/>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="20" t="inlineStr">
-        <is>
-          <t>Which PRS items are not yet linked to a test case? - M3</t>
-        </is>
-      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
+        </is>
+      </c>
+      <c r="L37" s="20" t="n"/>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="15" t="n"/>
@@ -2324,13 +2026,13 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>TM3.071.02 - TM3.071.02</t>
+          <t>TM2.042.01 - Which parts of the problem has not been analyzed and formulated in a problem statement yet?</t>
         </is>
       </c>
       <c r="D38" s="15" t="n"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>* all parts needed for testing of the current development loop are available</t>
+          <t>* systematic analysis of the problem/ of the technical system  - what is the real problem?  - What is the root cause?   - Which parameters can be used to improve the technology?  - what are the boundary conditions?* clear problem statement</t>
         </is>
       </c>
       <c r="F38" s="18" t="n"/>
@@ -2341,19 +2043,20 @@
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>Purchasing</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="I38" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J38" s="15" t="n"/>
       <c r="K38" s="3" t="n"/>
       <c r="L38" s="20" t="inlineStr">
         <is>
-          <t>Which PRS items are not yet linked to a test case? - M3</t>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
         </is>
       </c>
     </row>
@@ -2366,14 +2069,13 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>TM3.071.03 - TM3.071.03</t>
+          <t xml:space="preserve">TM2.042.02 - Has first ideas been gathered? </t>
         </is>
       </c>
       <c r="D39" s="15" t="n"/>
       <c r="E39" s="9" t="inlineStr">
         <is>
-          <t>* Review current concept w/  Purchasing 
-* Purchasing to provide their relevant requirements</t>
+          <t>* State of the art analysis -&gt;Before developing something new the state of the art has to be understood* Brainstorming of first ideas / collecting ideas from former projects   -&gt; Be careful: This does not replace a systematic concept development</t>
         </is>
       </c>
       <c r="F39" s="18" t="n"/>
@@ -2384,19 +2086,20 @@
       </c>
       <c r="H39" s="9" t="inlineStr">
         <is>
-          <t>Purchasing</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="I39" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J39" s="15" t="n"/>
       <c r="K39" s="3" t="n"/>
       <c r="L39" s="20" t="inlineStr">
         <is>
-          <t>Which PRS items are not yet linked to a test case? - M3</t>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
         </is>
       </c>
     </row>
@@ -2404,1225 +2107,3104 @@
       <c r="A40" s="15" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Operations - M3</t>
+          <t xml:space="preserve">TM2.042.03 - For which technologies could a solution path not yet be defined? </t>
         </is>
       </c>
       <c r="D40" s="15" t="n"/>
-      <c r="E40" s="3" t="n"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>* TRL and feasibility assessment of first ideas* Pre-selection of most promising ideas * sketch technical solution path for Technology development -&gt; serves as basis for planning</t>
+        </is>
+      </c>
       <c r="F40" s="18" t="n"/>
-      <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="I40" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J40" s="15" t="n"/>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>Operations - M3</t>
-        </is>
-      </c>
-      <c r="L40" s="20" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technology Development
+(Problem-Analysis, first ideas and solution space) - M2</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="15" t="n"/>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>TM3.081.01 - TM3.081.01</t>
+          <t>Effects on Software - M2</t>
         </is>
       </c>
       <c r="D41" s="15" t="n"/>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>* Review current concept w/  Operations 
-* Operations to provide their relevant requirements</t>
-        </is>
-      </c>
+      <c r="E41" s="9" t="n"/>
       <c r="F41" s="18" t="n"/>
-      <c r="G41" s="9" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H41" s="9" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
+      <c r="G41" s="9" t="n"/>
+      <c r="H41" s="9" t="n"/>
       <c r="I41" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J41" s="15" t="n"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="20" t="inlineStr">
-        <is>
-          <t>Which test cases have not been passed yet? - M3</t>
-        </is>
-      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>Effects on Software - M2</t>
+        </is>
+      </c>
+      <c r="L41" s="20" t="n"/>
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="15" t="n"/>
       <c r="B42" s="10" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Deliverable</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Service - M3</t>
+          <t>TM2.044.01 - For which key functions and key components has the 
+influence on software not been checked?</t>
         </is>
       </c>
       <c r="D42" s="15" t="n"/>
-      <c r="E42" s="3" t="n"/>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>* Check if the drafted solution path requires software development or adaptions* incorporate into planning accordingly</t>
+        </is>
+      </c>
       <c r="F42" s="18" t="n"/>
-      <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="n"/>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Software 
+Development</t>
+        </is>
+      </c>
       <c r="I42" s="10" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J42" s="15" t="n"/>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>Service - M3</t>
-        </is>
-      </c>
-      <c r="L42" s="20" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="20" t="inlineStr">
+        <is>
+          <t>Effects on Software - M2</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="15" t="n"/>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>Deliverable</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>TM3.091.01 - TM3.091.01</t>
+          <t>IP Overview - M2</t>
         </is>
       </c>
       <c r="D43" s="15" t="n"/>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>* Review current concept w/  Service 
-* Service to provide their relevant requirements</t>
-        </is>
-      </c>
+      <c r="E43" s="9" t="n"/>
       <c r="F43" s="18" t="n"/>
-      <c r="G43" s="9" t="inlineStr">
-        <is>
-          <t>Project Mgmt</t>
-        </is>
-      </c>
-      <c r="H43" s="9" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
+      <c r="G43" s="9" t="n"/>
+      <c r="H43" s="9" t="n"/>
       <c r="I43" s="13" t="inlineStr">
         <is>
-          <t>PIP Milestone 3</t>
+          <t>PIP Milestone 2</t>
         </is>
       </c>
       <c r="J43" s="15" t="n"/>
-      <c r="K43" s="3" t="n"/>
-      <c r="L43" s="20" t="inlineStr">
-        <is>
-          <t>Fast learning loops - M3</t>
-        </is>
-      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>IP Overview - M2</t>
+        </is>
+      </c>
+      <c r="L43" s="20" t="n"/>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="10" t="n"/>
-      <c r="C44" s="3" t="n"/>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM2.051.01 - IP Overview created (State of the Art)?
+</t>
+        </is>
+      </c>
       <c r="D44" s="15" t="n"/>
-      <c r="E44" s="3" t="n"/>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>* IP landscape research based on idea portfolio*  overview created about relevant IP in this field</t>
+        </is>
+      </c>
       <c r="F44" s="18" t="n"/>
-      <c r="G44" s="3" t="n"/>
-      <c r="H44" s="3" t="n"/>
-      <c r="I44" s="10" t="n"/>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="I44" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J44" s="15" t="n"/>
       <c r="K44" s="3" t="n"/>
-      <c r="L44" s="20" t="n"/>
+      <c r="L44" s="20" t="inlineStr">
+        <is>
+          <t>IP Overview - M2</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="15" t="n"/>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="4" t="n"/>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM2.051.02 - FTO for initial ideas / solution space?
+</t>
+        </is>
+      </c>
       <c r="D45" s="15" t="n"/>
-      <c r="E45" s="9" t="n"/>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>* IP reviewed by Project team  - which ideas can be used?  - which patents are blocking?* FTO for solution space. If not new ideas has to be developed.</t>
+        </is>
+      </c>
       <c r="F45" s="18" t="n"/>
-      <c r="G45" s="9" t="n"/>
-      <c r="H45" s="9" t="n"/>
-      <c r="I45" s="13" t="n"/>
+      <c r="G45" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="I45" s="13" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J45" s="15" t="n"/>
       <c r="K45" s="3" t="n"/>
-      <c r="L45" s="20" t="n"/>
+      <c r="L45" s="20" t="inlineStr">
+        <is>
+          <t>IP Overview - M2</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="15" t="n"/>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="3" t="n"/>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M2</t>
+        </is>
+      </c>
       <c r="D46" s="15" t="n"/>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="18" t="n"/>
       <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
-      <c r="I46" s="10" t="n"/>
+      <c r="I46" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J46" s="15" t="n"/>
-      <c r="K46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M2</t>
+        </is>
+      </c>
       <c r="L46" s="20" t="n"/>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="15" t="n"/>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="4" t="n"/>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM2.061.01 - if target TRL &gt;=5 LLI Supplier qualification: potential analysis completed and (if required) measures defined? </t>
+        </is>
+      </c>
       <c r="D47" s="15" t="n"/>
-      <c r="E47" s="9" t="n"/>
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>If the targeted TRL of the new Technology is &gt;=5 (at the next iteration loop) it is necessary to do verify, if the selected supplier can deliver the expected quality. This is covered by the potential analysis</t>
+        </is>
+      </c>
       <c r="F47" s="18" t="n"/>
-      <c r="G47" s="9" t="n"/>
-      <c r="H47" s="9" t="n"/>
-      <c r="I47" s="9" t="n"/>
+      <c r="G47" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I47" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J47" s="15" t="n"/>
       <c r="K47" s="3" t="n"/>
-      <c r="L47" s="20" t="n"/>
+      <c r="L47" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M2</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="15" t="n"/>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Development - M2</t>
+        </is>
+      </c>
       <c r="D48" s="15" t="n"/>
       <c r="E48" s="3" t="n"/>
       <c r="F48" s="18" t="n"/>
       <c r="G48" s="3" t="n"/>
       <c r="H48" s="3" t="n"/>
-      <c r="I48" s="10" t="n"/>
+      <c r="I48" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J48" s="15" t="n"/>
-      <c r="K48" s="3" t="n"/>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Development - M2</t>
+        </is>
+      </c>
       <c r="L48" s="20" t="n"/>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="15" t="n"/>
-      <c r="B49" s="10" t="n"/>
-      <c r="C49" s="3" t="n"/>
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>TM2.071.01 - Which components or materials with long lead times need an early order?</t>
+        </is>
+      </c>
       <c r="D49" s="15" t="n"/>
-      <c r="E49" s="3" t="n"/>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Long Lead Item (LLI) list w/ suppliers created</t>
+        </is>
+      </c>
       <c r="F49" s="18" t="n"/>
-      <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
-      <c r="I49" s="10" t="n"/>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I49" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 2</t>
+        </is>
+      </c>
       <c r="J49" s="15" t="n"/>
       <c r="K49" s="3" t="n"/>
-      <c r="L49" s="20" t="n"/>
+      <c r="L49" s="20" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Development - M2</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="15" t="n"/>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="4" t="n"/>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Technology Sponsership  - M3</t>
+        </is>
+      </c>
       <c r="D50" s="15" t="n"/>
       <c r="E50" s="9" t="n"/>
       <c r="F50" s="18" t="n"/>
       <c r="G50" s="9" t="n"/>
       <c r="H50" s="9" t="n"/>
-      <c r="I50" s="9" t="n"/>
+      <c r="I50" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J50" s="15" t="n"/>
-      <c r="K50" s="3" t="n"/>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>Technology Sponsership  - M3</t>
+        </is>
+      </c>
       <c r="L50" s="20" t="n"/>
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="A51" s="15" t="n"/>
-      <c r="B51" s="10" t="n"/>
-      <c r="C51" s="3" t="n"/>
+      <c r="B51" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>TM3.021.01 - Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW)</t>
+        </is>
+      </c>
       <c r="D51" s="15" t="n"/>
-      <c r="E51" s="3" t="n"/>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Program Management is accountable for regular update of project justification by answering the RWW questions:* REAL? Is there a real need at the market? Is the problem we try to solve or the envisioend benefit real? Are customers are willing to pay for our solution? * WIN? can we deliver the added value we are aiming for with the new technology? is it feasible within the given time? Will customers accept our solution?*WORTH IT? Is it worth spending the real costs and the opportunity costs for this Technology?</t>
+        </is>
+      </c>
       <c r="F51" s="18" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="10" t="n"/>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I51" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J51" s="15" t="n"/>
       <c r="K51" s="3" t="n"/>
-      <c r="L51" s="20" t="n"/>
+      <c r="L51" s="20" t="inlineStr">
+        <is>
+          <t>Technology Sponsership  - M3</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" s="15" t="n"/>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="4" t="n"/>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
       <c r="D52" s="15" t="n"/>
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="18" t="n"/>
       <c r="G52" s="9" t="n"/>
       <c r="H52" s="9" t="n"/>
-      <c r="I52" s="9" t="n"/>
+      <c r="I52" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J52" s="15" t="n"/>
-      <c r="K52" s="3" t="n"/>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
       <c r="L52" s="20" t="n"/>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="15" t="n"/>
-      <c r="B53" s="10" t="n"/>
-      <c r="C53" s="3" t="n"/>
+      <c r="B53" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>TM3.031.01 - Project plan (timeline and budget) updated until TM4?</t>
+        </is>
+      </c>
       <c r="D53" s="15" t="n"/>
-      <c r="E53" s="3" t="n"/>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* Monthly update of project plan expected   - scope &amp; early testing   - number of development loops   - timeline   - resources   - budget   - test cases and need test rigs   - required  lab time &amp; resources* Project manager updates the timeline based on updated the timelines of work packages (should be done within the team)* Including Software Release plan due to project timeline * Communicate the effects of changes in the project plan from the current phase to everyone affected by the  impact * Milestone Preview (4-6 Weeks prior to Review) </t>
+        </is>
+      </c>
       <c r="F53" s="18" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="10" t="n"/>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I53" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J53" s="15" t="n"/>
       <c r="K53" s="3" t="n"/>
-      <c r="L53" s="20" t="n"/>
+      <c r="L53" s="20" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="15" t="n"/>
-      <c r="B54" s="10" t="n"/>
-      <c r="C54" s="3" t="n"/>
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>TM3.031.02 - Which risks are pending regarding assessment and mitigation? (Project and PRS risks)</t>
+        </is>
+      </c>
       <c r="D54" s="15" t="n"/>
-      <c r="E54" s="3" t="n"/>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>*Alignment PRS with results of the current phase, e.g. test results,  FMEA Measures, built issues, etc.* Update risk assessment and mitigation based on Jira items* Update risk assessment and mitigation of remaining topics based on the dashboard</t>
+        </is>
+      </c>
       <c r="F54" s="18" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
-      <c r="I54" s="10" t="n"/>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I54" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J54" s="15" t="n"/>
       <c r="K54" s="3" t="n"/>
-      <c r="L54" s="20" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="A55" s="15" t="n"/>
-      <c r="B55" s="10" t="n"/>
-      <c r="C55" s="3" t="n"/>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>TM3.031.03 - Which information are missing to give a commitment to deliver the new technology with TRL5 on time?</t>
+        </is>
+      </c>
       <c r="D55" s="15" t="n"/>
-      <c r="E55" s="3" t="n"/>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assess how much confidence we gained to achieve TRL5 on time.Which investigatios or test results are missing to give a commitment? Which uncertainties remain?Clearly show, which results gives conficence to deliver on time. </t>
+        </is>
+      </c>
       <c r="F55" s="18" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
-      <c r="I55" s="10" t="n"/>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I55" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J55" s="15" t="n"/>
       <c r="K55" s="3" t="n"/>
-      <c r="L55" s="20" t="n"/>
+      <c r="L55" s="20" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="15" t="n"/>
-      <c r="B56" s="10" t="n"/>
-      <c r="C56" s="3" t="n"/>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>TM3.031.04 - Which items of the handshake to PEP / PCM are not yet defined in the handover list?</t>
+        </is>
+      </c>
       <c r="D56" s="15" t="n"/>
-      <c r="E56" s="3" t="n"/>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>The technology needs to be handed over properly to a either a PCM or PEP for productization. All items needs to be defined in the TDP Handover List, as- links to a technical file describing the developement of the technology and related learnings,- all design documents (BOM, drawings)- Supporting documents or TAs for assembly and integration- Shop floor test instructions- Part quality and supplier information- SW documentation...</t>
+        </is>
+      </c>
       <c r="F56" s="18" t="n"/>
-      <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="n"/>
-      <c r="I56" s="10" t="n"/>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I56" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J56" s="15" t="n"/>
       <c r="K56" s="3" t="n"/>
-      <c r="L56" s="20" t="n"/>
+      <c r="L56" s="20" t="inlineStr">
+        <is>
+          <t>Technical &amp; economic viability assessment &amp;
+Project &amp; Risk Mamagement - M3</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" s="15" t="n"/>
-      <c r="B57" s="10" t="n"/>
-      <c r="C57" s="3" t="n"/>
+      <c r="B57" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
       <c r="D57" s="15" t="n"/>
       <c r="E57" s="3" t="n"/>
       <c r="F57" s="18" t="n"/>
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
-      <c r="I57" s="10" t="n"/>
+      <c r="I57" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J57" s="15" t="n"/>
-      <c r="K57" s="3" t="n"/>
+      <c r="K57" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
       <c r="L57" s="20" t="n"/>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" s="15" t="n"/>
-      <c r="B58" s="10" t="n"/>
-      <c r="C58" s="3" t="n"/>
+      <c r="B58" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>TM3.033.01 - Which PRS items are not yet updated?</t>
+        </is>
+      </c>
       <c r="D58" s="15" t="n"/>
-      <c r="E58" s="6" t="n"/>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>* It is likely that learnings during technology development lead to changes or refinement of requirements in PRS. Hence, with each development loop the requirements should be reviewed and updated if required</t>
+        </is>
+      </c>
       <c r="F58" s="18" t="n"/>
-      <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
-      <c r="I58" s="10" t="n"/>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I58" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J58" s="15" t="n"/>
       <c r="K58" s="3" t="n"/>
-      <c r="L58" s="20" t="n"/>
+      <c r="L58" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="15" t="n"/>
-      <c r="B59" s="10" t="n"/>
-      <c r="C59" s="3" t="n"/>
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>TM3.033.02 - Which PRS items are not yet linked to a test case?</t>
+        </is>
+      </c>
       <c r="D59" s="15" t="n"/>
-      <c r="E59" s="3" t="n"/>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>* Define a relevant test case for technical PRS items in Jira* Ensure the required test environment in coordination with the parties  concerned, such as the laboratory* Ensure an all encompassing test concept for qualification phase   to ensure fullfillement of each requirement of the PRS</t>
+        </is>
+      </c>
       <c r="F59" s="18" t="n"/>
-      <c r="G59" s="3" t="n"/>
-      <c r="H59" s="3" t="n"/>
-      <c r="I59" s="10" t="n"/>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I59" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J59" s="15" t="n"/>
       <c r="K59" s="3" t="n"/>
-      <c r="L59" s="20" t="n"/>
+      <c r="L59" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="15" t="n"/>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="4" t="n"/>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>TM3.033.03 - Which test cases have not been passed yet?</t>
+        </is>
+      </c>
       <c r="D60" s="15" t="n"/>
-      <c r="E60" s="9" t="n"/>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>Evaluation of test results and comparison with MRS and PRS *root cause analysis for unsuccessfull  test results*create back log list for further improvement *open issues from the back log list must be assigned and solutions developed</t>
+        </is>
+      </c>
       <c r="F60" s="18" t="n"/>
-      <c r="G60" s="9" t="n"/>
-      <c r="H60" s="9" t="n"/>
-      <c r="I60" s="9" t="n"/>
+      <c r="G60" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I60" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J60" s="15" t="n"/>
       <c r="K60" s="3" t="n"/>
-      <c r="L60" s="20" t="n"/>
+      <c r="L60" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M3</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" s="15" t="n"/>
-      <c r="B61" s="10" t="n"/>
-      <c r="C61" s="3" t="n"/>
+      <c r="B61" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
       <c r="D61" s="15" t="n"/>
       <c r="E61" s="3" t="n"/>
       <c r="F61" s="18" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
-      <c r="I61" s="10" t="n"/>
+      <c r="I61" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J61" s="15" t="n"/>
-      <c r="K61" s="3" t="n"/>
+      <c r="K61" s="3" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
       <c r="L61" s="20" t="n"/>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="15" t="n"/>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="4" t="n"/>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>TM3.041.01 - Which (key) functions / hypotheses are not proven yet by the learning loops?</t>
+        </is>
+      </c>
       <c r="D62" s="15" t="n"/>
-      <c r="E62" s="9" t="n"/>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>* Make sure that the tests / investigations answering the key questions are  handled with priority* each key question shall be answered and well documented in a Technical Investigation Report</t>
+        </is>
+      </c>
       <c r="F62" s="18" t="n"/>
-      <c r="G62" s="9" t="n"/>
-      <c r="H62" s="9" t="n"/>
-      <c r="I62" s="9" t="n"/>
+      <c r="G62" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I62" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J62" s="15" t="n"/>
       <c r="K62" s="3" t="n"/>
-      <c r="L62" s="20" t="n"/>
+      <c r="L62" s="20" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" s="15" t="n"/>
-      <c r="B63" s="10" t="n"/>
-      <c r="C63" s="3" t="n"/>
+      <c r="B63" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>TM3.041.02 - Which red flag test are not passed?</t>
+        </is>
+      </c>
       <c r="D63" s="15" t="n"/>
-      <c r="E63" s="3" t="n"/>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>* Analyse why tests have not been passed* Derive learning* Review and update risk analysis accordingly</t>
+        </is>
+      </c>
       <c r="F63" s="18" t="n"/>
-      <c r="G63" s="3" t="n"/>
-      <c r="H63" s="3" t="n"/>
-      <c r="I63" s="10" t="n"/>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I63" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J63" s="15" t="n"/>
       <c r="K63" s="3" t="n"/>
-      <c r="L63" s="20" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Fast learning loops - M3</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="A64" s="15" t="n"/>
-      <c r="B64" s="10" t="n"/>
-      <c r="C64" s="3" t="n"/>
+      <c r="B64" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
       <c r="D64" s="15" t="n"/>
       <c r="E64" s="3" t="n"/>
       <c r="F64" s="18" t="n"/>
       <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="n"/>
-      <c r="I64" s="10" t="n"/>
+      <c r="I64" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J64" s="15" t="n"/>
-      <c r="K64" s="3" t="n"/>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
       <c r="L64" s="20" t="n"/>
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" s="15" t="n"/>
-      <c r="B65" s="10" t="n"/>
-      <c r="C65" s="3" t="n"/>
+      <c r="B65" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>TM3.042.01 - Which individual concepts for the required functions are not yet finalized and aligned with each other and the overall concept?</t>
+        </is>
+      </c>
       <c r="D65" s="15" t="n"/>
-      <c r="E65" s="3" t="n"/>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>* Create a Functional model for the new Technology or provide Functional Analysis for the given problem* Develop various solution alternatives for the individual functions -&gt; Morphological Box* Combine individual solutions into a few meaningful overall concepts * Assessment of concepts based on defined criteria and selection of most promising* Work out the concept as far as needed to answer PRS coverage, considering  -  key requirements and solved key questions  -  expected process performance,  -  integration into target system and interfaces,  -  Manufacturability,  - assembly and test   - software  - Serviceability</t>
+        </is>
+      </c>
       <c r="F65" s="18" t="n"/>
-      <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="n"/>
-      <c r="I65" s="10" t="n"/>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I65" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J65" s="15" t="n"/>
       <c r="K65" s="3" t="n"/>
-      <c r="L65" s="20" t="n"/>
+      <c r="L65" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" s="15" t="n"/>
-      <c r="B66" s="9" t="n"/>
-      <c r="C66" s="4" t="n"/>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>TM3.042.02 - Which PRS items are not fullfilled by the concept?</t>
+        </is>
+      </c>
       <c r="D66" s="15" t="n"/>
-      <c r="E66" s="9" t="n"/>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>* Check if the Concept fulfills all PRS requirements* Document results and degree of fullfillment-&gt; as input for Concept Review Meeting</t>
+        </is>
+      </c>
       <c r="F66" s="18" t="n"/>
-      <c r="G66" s="9" t="n"/>
-      <c r="H66" s="9" t="n"/>
-      <c r="I66" s="9" t="n"/>
+      <c r="G66" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I66" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J66" s="15" t="n"/>
       <c r="K66" s="3" t="n"/>
-      <c r="L66" s="20" t="n"/>
+      <c r="L66" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="A67" s="15" t="n"/>
-      <c r="B67" s="10" t="n"/>
-      <c r="C67" s="3" t="n"/>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>TM3.042.03 - Which concept review actions are still open?</t>
+        </is>
+      </c>
       <c r="D67" s="15" t="n"/>
-      <c r="E67" s="11" t="n"/>
+      <c r="E67" s="11" t="inlineStr">
+        <is>
+          <t>* Conduct Concept Review Workshop with experts and relevant stakeholders* Review the complete concept on component level   - Concept alternatives checked  - Feasibility of key functions checked  - Preliminary Supplier shortlist developed  - Make or buy decided* Concept Risk Review-Event conducted* Concept by Program&amp; Product Marketing approved* Planning &amp; Risk Mitigation Event conducted* Define open actions</t>
+        </is>
+      </c>
       <c r="F67" s="18" t="n"/>
-      <c r="G67" s="3" t="n"/>
-      <c r="H67" s="3" t="n"/>
-      <c r="I67" s="10" t="n"/>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I67" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J67" s="15" t="n"/>
       <c r="K67" s="3" t="n"/>
-      <c r="L67" s="20" t="n"/>
+      <c r="L67" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="15" t="n"/>
-      <c r="B68" s="9" t="n"/>
-      <c r="C68" s="4" t="n"/>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>TM3.042.04 - Which Technological Learnings are not documented in a technical investigation report?</t>
+        </is>
+      </c>
       <c r="D68" s="15" t="n"/>
-      <c r="E68" s="9" t="n"/>
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>Document the key learnings in a comprehensive Technical Investigation Report</t>
+        </is>
+      </c>
       <c r="F68" s="18" t="n"/>
-      <c r="G68" s="9" t="n"/>
-      <c r="H68" s="9" t="n"/>
-      <c r="I68" s="9" t="n"/>
+      <c r="G68" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H68" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I68" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J68" s="15" t="n"/>
       <c r="K68" s="3" t="n"/>
-      <c r="L68" s="20" t="n"/>
+      <c r="L68" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - M3</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="15" t="n"/>
-      <c r="B69" s="10" t="n"/>
-      <c r="C69" s="3" t="n"/>
+      <c r="B69" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
       <c r="D69" s="15" t="n"/>
       <c r="E69" s="3" t="n"/>
       <c r="F69" s="18" t="n"/>
       <c r="G69" s="3" t="n"/>
       <c r="H69" s="3" t="n"/>
-      <c r="I69" s="10" t="n"/>
+      <c r="I69" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J69" s="15" t="n"/>
-      <c r="K69" s="3" t="n"/>
+      <c r="K69" s="3" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
       <c r="L69" s="20" t="n"/>
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="A70" s="15" t="n"/>
-      <c r="B70" s="9" t="n"/>
-      <c r="C70" s="4" t="n"/>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>TM3.043.01 - Which individual designs according to Engineering BoM are not yet finalized? (if TRL &gt;= 5)</t>
+        </is>
+      </c>
       <c r="D70" s="15" t="n"/>
-      <c r="E70" s="9" t="n"/>
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>Design for the whole technology is done, including* all CAD models* calculations and simulation reports* interfaces defiend and checked* Changes in basic documents updated and released: Gas-mixing-circuit, cooling circuit, vacuum circuit, floor plan, E-Plan, Network System List (NSL)* Supplier feedback on parts design collected, assessed and implemented * BoM cost estimation for design</t>
+        </is>
+      </c>
       <c r="F70" s="18" t="n"/>
-      <c r="G70" s="9" t="n"/>
-      <c r="H70" s="9" t="n"/>
-      <c r="I70" s="9" t="n"/>
+      <c r="G70" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H70" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I70" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J70" s="15" t="n"/>
       <c r="K70" s="3" t="n"/>
-      <c r="L70" s="20" t="n"/>
+      <c r="L70" s="20" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="15" t="n"/>
-      <c r="B71" s="10" t="n"/>
-      <c r="C71" s="3" t="n"/>
+      <c r="B71" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>TM3.043.02 - Which PRS items are not fullfilled by the designed Technology?</t>
+        </is>
+      </c>
       <c r="D71" s="15" t="n"/>
-      <c r="E71" s="3" t="n"/>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>* Check if the design fulfills all PRS requirements* Document results and degree of fullfillment-&gt; as input for Design Review Meeting</t>
+        </is>
+      </c>
       <c r="F71" s="18" t="n"/>
-      <c r="G71" s="3" t="n"/>
-      <c r="H71" s="3" t="n"/>
-      <c r="I71" s="10" t="n"/>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I71" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J71" s="15" t="n"/>
       <c r="K71" s="3" t="n"/>
-      <c r="L71" s="20" t="n"/>
+      <c r="L71" s="20" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="30" customHeight="1">
       <c r="A72" s="15" t="n"/>
-      <c r="B72" s="9" t="n"/>
-      <c r="C72" s="4" t="n"/>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>TM3.043.03 - Which critical design review actions are still open?</t>
+        </is>
+      </c>
       <c r="D72" s="15" t="n"/>
-      <c r="E72" s="9" t="n"/>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>* Conduct Design Review Workshop with experts and relevant stakeholders* Review the complete design on component level   - Feasibility of key functions checked  - Supplier shortlist developed* Design FMEA input considered* Define open actions</t>
+        </is>
+      </c>
       <c r="F72" s="18" t="n"/>
-      <c r="G72" s="9" t="n"/>
-      <c r="H72" s="9" t="n"/>
-      <c r="I72" s="9" t="n"/>
+      <c r="G72" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H72" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I72" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J72" s="15" t="n"/>
       <c r="K72" s="3" t="n"/>
-      <c r="L72" s="20" t="n"/>
+      <c r="L72" s="20" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" s="15" t="n"/>
-      <c r="B73" s="10" t="n"/>
-      <c r="C73" s="3" t="n"/>
+      <c r="B73" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>TM3.043.04 - Which departments have not yet released the design?</t>
+        </is>
+      </c>
       <c r="D73" s="15" t="n"/>
-      <c r="E73" s="3" t="n"/>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>*All critical actions form design review are done* Minor actions are planned in further developement* Design released by whole TDP team and Program Mgr, Sen Mgr TechDev</t>
+        </is>
+      </c>
       <c r="F73" s="18" t="n"/>
-      <c r="G73" s="3" t="n"/>
-      <c r="H73" s="3" t="n"/>
-      <c r="I73" s="10" t="n"/>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>Program Mgmt</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I73" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J73" s="15" t="n"/>
       <c r="K73" s="3" t="n"/>
-      <c r="L73" s="20" t="n"/>
+      <c r="L73" s="20" t="inlineStr">
+        <is>
+          <t>Design review &amp; release (if target TRL &gt;=5) - M3</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" s="15" t="n"/>
-      <c r="B74" s="10" t="n"/>
-      <c r="C74" s="3" t="n"/>
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Software for development - M3</t>
+        </is>
+      </c>
       <c r="D74" s="15" t="n"/>
       <c r="E74" s="3" t="n"/>
       <c r="F74" s="18" t="n"/>
       <c r="G74" s="3" t="n"/>
       <c r="H74" s="3" t="n"/>
-      <c r="I74" s="10" t="n"/>
+      <c r="I74" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J74" s="15" t="n"/>
-      <c r="K74" s="3" t="n"/>
+      <c r="K74" s="3" t="inlineStr">
+        <is>
+          <t>Software for development - M3</t>
+        </is>
+      </c>
       <c r="L74" s="20" t="n"/>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" s="15" t="n"/>
-      <c r="B75" s="10" t="n"/>
-      <c r="C75" s="3" t="n"/>
+      <c r="B75" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>TM3.044.01 - Which software packages for development and testing are not available?</t>
+        </is>
+      </c>
       <c r="D75" s="15" t="n"/>
-      <c r="E75" s="3" t="n"/>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>* Check software releases available for the project* Define SW features and release version (What&amp;When?)* If new software is needed for the project, update aligned timeline with the SW Project Management including releases for backlog topics</t>
+        </is>
+      </c>
       <c r="F75" s="18" t="n"/>
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
-      <c r="I75" s="10" t="n"/>
+      <c r="I75" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J75" s="15" t="n"/>
       <c r="K75" s="3" t="n"/>
-      <c r="L75" s="20" t="n"/>
+      <c r="L75" s="20" t="inlineStr">
+        <is>
+          <t>Software for development - M3</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="15" t="n"/>
-      <c r="B76" s="9" t="n"/>
-      <c r="C76" s="4" t="n"/>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>IP Update - M3</t>
+        </is>
+      </c>
       <c r="D76" s="15" t="n"/>
       <c r="E76" s="9" t="n"/>
       <c r="F76" s="18" t="n"/>
       <c r="G76" s="9" t="n"/>
       <c r="H76" s="9" t="n"/>
-      <c r="I76" s="9" t="n"/>
+      <c r="I76" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J76" s="15" t="n"/>
-      <c r="K76" s="3" t="n"/>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M3</t>
+        </is>
+      </c>
       <c r="L76" s="20" t="n"/>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="15" t="n"/>
-      <c r="B77" s="10" t="n"/>
-      <c r="C77" s="3" t="n"/>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>TM3.051.01 - LoD (List of Differences?) completed?</t>
+        </is>
+      </c>
       <c r="D77" s="15" t="n"/>
-      <c r="E77" s="3" t="n"/>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>All technical differences compared to the state fo the art (own technology as well as foreign technology) has been identified and listed</t>
+        </is>
+      </c>
       <c r="F77" s="18" t="n"/>
-      <c r="G77" s="3" t="n"/>
-      <c r="H77" s="3" t="n"/>
-      <c r="I77" s="10" t="n"/>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I77" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J77" s="15" t="n"/>
       <c r="K77" s="3" t="n"/>
-      <c r="L77" s="20" t="n"/>
+      <c r="L77" s="20" t="inlineStr">
+        <is>
+          <t>IP Update - M3</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" s="15" t="n"/>
-      <c r="B78" s="9" t="n"/>
-      <c r="C78" s="4" t="n"/>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM3.051.02 - FTO for all identified solutions ?
+</t>
+        </is>
+      </c>
       <c r="D78" s="15" t="n"/>
-      <c r="E78" s="9" t="n"/>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>- LoD (List of Differences?) defined?- IP Targets defined?- Can we achieve IP protection?- Do all identified solutions have Freedom to operate?</t>
+        </is>
+      </c>
       <c r="F78" s="18" t="n"/>
-      <c r="G78" s="9" t="n"/>
-      <c r="H78" s="9" t="n"/>
-      <c r="I78" s="9" t="n"/>
+      <c r="G78" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H78" s="9" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="I78" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J78" s="15" t="n"/>
       <c r="K78" s="3" t="n"/>
-      <c r="L78" s="20" t="n"/>
+      <c r="L78" s="20" t="inlineStr">
+        <is>
+          <t>IP Update - M3</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" s="15" t="n"/>
-      <c r="B79" s="10" t="n"/>
-      <c r="C79" s="3" t="n"/>
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
       <c r="D79" s="15" t="n"/>
       <c r="E79" s="3" t="n"/>
       <c r="F79" s="18" t="n"/>
       <c r="G79" s="3" t="n"/>
       <c r="H79" s="3" t="n"/>
-      <c r="I79" s="10" t="n"/>
+      <c r="I79" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J79" s="15" t="n"/>
-      <c r="K79" s="3" t="n"/>
+      <c r="K79" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
       <c r="L79" s="20" t="n"/>
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" s="15" t="n"/>
-      <c r="B80" s="10" t="n"/>
-      <c r="C80" s="3" t="n"/>
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.01 - Concept FMEA conducted and measures implemented?
+(TRL4: only high level)</t>
+        </is>
+      </c>
       <c r="D80" s="15" t="n"/>
-      <c r="E80" s="3" t="n"/>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>* Conduct Concept FMEA for the Technology( for TRL4 only high level is needed)* Define mitigation measures* implementation of critical measues * Create a timeline and mitigation plan for those that are not yet implemented</t>
+        </is>
+      </c>
       <c r="F80" s="18" t="n"/>
-      <c r="G80" s="3" t="n"/>
-      <c r="H80" s="3" t="n"/>
-      <c r="I80" s="10" t="n"/>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I80" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J80" s="15" t="n"/>
       <c r="K80" s="3" t="n"/>
-      <c r="L80" s="20" t="n"/>
+      <c r="L80" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" s="15" t="n"/>
-      <c r="B81" s="10" t="n"/>
-      <c r="C81" s="3" t="n"/>
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.02 - If TRL&gt;=5: 
+Which design elements are not considered in the D-FMEA and which D-FMEA measures are not implemented?</t>
+        </is>
+      </c>
       <c r="D81" s="15" t="n"/>
-      <c r="E81" s="3" t="n"/>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>*Update Design FMEA*Implement Design FMEA*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)*Create a timeline and mitigation plan for those that are not yet implemented</t>
+        </is>
+      </c>
       <c r="F81" s="18" t="n"/>
-      <c r="G81" s="3" t="n"/>
-      <c r="H81" s="3" t="n"/>
-      <c r="I81" s="10" t="n"/>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I81" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J81" s="15" t="n"/>
       <c r="K81" s="3" t="n"/>
-      <c r="L81" s="20" t="n"/>
+      <c r="L81" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" s="15" t="n"/>
-      <c r="B82" s="10" t="n"/>
-      <c r="C82" s="3" t="n"/>
+      <c r="B82" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.03 - Which crititical parts do not have a 100% verification of dimensions  + functional test (pre-sample)?
+If Final design loop: FSR required.</t>
+        </is>
+      </c>
       <c r="D82" s="15" t="n"/>
-      <c r="E82" s="3" t="n"/>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>* Define / update a list of critical components* 100% verification of dimensions for all critical components * funtional tests done for functional units* If Final design loop: FSR required</t>
+        </is>
+      </c>
       <c r="F82" s="18" t="n"/>
-      <c r="G82" s="3" t="n"/>
-      <c r="H82" s="3" t="n"/>
-      <c r="I82" s="10" t="n"/>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I82" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J82" s="15" t="n"/>
       <c r="K82" s="3" t="n"/>
-      <c r="L82" s="20" t="n"/>
+      <c r="L82" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="15" t="n"/>
-      <c r="B83" s="10" t="n"/>
-      <c r="C83" s="3" t="n"/>
+      <c r="B83" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>TM3.061.04 - If TRL&gt;=5:  
+Which suppliers have not been qualified yet?
+Which of them do not have the potential to be qualified?</t>
+        </is>
+      </c>
       <c r="D83" s="15" t="n"/>
-      <c r="E83" s="3" t="n"/>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>* potential analysis completed * measures defined, incl. status to ISO 9001</t>
+        </is>
+      </c>
       <c r="F83" s="18" t="n"/>
-      <c r="G83" s="3" t="n"/>
-      <c r="H83" s="3" t="n"/>
-      <c r="I83" s="10" t="n"/>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I83" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J83" s="15" t="n"/>
       <c r="K83" s="3" t="n"/>
-      <c r="L83" s="20" t="n"/>
+      <c r="L83" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Qualityplan - M3</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="A84" s="15" t="n"/>
-      <c r="B84" s="10" t="n"/>
-      <c r="C84" s="3" t="n"/>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
       <c r="D84" s="15" t="n"/>
       <c r="E84" s="3" t="n"/>
       <c r="F84" s="18" t="n"/>
       <c r="G84" s="3" t="n"/>
       <c r="H84" s="3" t="n"/>
-      <c r="I84" s="10" t="n"/>
+      <c r="I84" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J84" s="15" t="n"/>
-      <c r="K84" s="3" t="n"/>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
       <c r="L84" s="20" t="n"/>
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" s="15" t="n"/>
-      <c r="B85" s="10" t="n"/>
-      <c r="C85" s="3" t="n"/>
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>TM3.071.01 - Supplier selection aligned with Purchasing?</t>
+        </is>
+      </c>
       <c r="D85" s="15" t="n"/>
-      <c r="E85" s="3" t="n"/>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>* List of suppliers defined* Aligned w/ purchasing</t>
+        </is>
+      </c>
       <c r="F85" s="18" t="n"/>
-      <c r="G85" s="3" t="n"/>
-      <c r="H85" s="3" t="n"/>
-      <c r="I85" s="10" t="n"/>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I85" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J85" s="15" t="n"/>
       <c r="K85" s="3" t="n"/>
-      <c r="L85" s="20" t="n"/>
+      <c r="L85" s="20" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" s="15" t="n"/>
-      <c r="B86" s="10" t="n"/>
-      <c r="C86" s="3" t="n"/>
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>TM3.071.02 - Prototype procurement completed (per Loop)?</t>
+        </is>
+      </c>
       <c r="D86" s="15" t="n"/>
-      <c r="E86" s="3" t="n"/>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>* all parts needed for testing of the current development loop are available</t>
+        </is>
+      </c>
       <c r="F86" s="18" t="n"/>
-      <c r="G86" s="3" t="n"/>
-      <c r="H86" s="3" t="n"/>
-      <c r="I86" s="10" t="n"/>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I86" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J86" s="15" t="n"/>
       <c r="K86" s="3" t="n"/>
-      <c r="L86" s="20" t="n"/>
+      <c r="L86" s="20" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" s="15" t="n"/>
-      <c r="B87" s="9" t="n"/>
-      <c r="C87" s="4" t="n"/>
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>TM3.071.03 - Which stakeholder requirements from Purchasing are not defined yet? (with TRL5)</t>
+        </is>
+      </c>
       <c r="D87" s="15" t="n"/>
-      <c r="E87" s="9" t="n"/>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Purchasing * Purchasing to provide their relevant requirements</t>
+        </is>
+      </c>
       <c r="F87" s="18" t="n"/>
-      <c r="G87" s="9" t="n"/>
-      <c r="H87" s="9" t="n"/>
-      <c r="I87" s="9" t="n"/>
+      <c r="G87" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H87" s="9" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I87" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J87" s="15" t="n"/>
       <c r="K87" s="3" t="n"/>
-      <c r="L87" s="20" t="n"/>
+      <c r="L87" s="20" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Qualification - M3</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="15" t="n"/>
-      <c r="B88" s="10" t="n"/>
-      <c r="C88" s="3" t="n"/>
+      <c r="B88" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Operations - M3</t>
+        </is>
+      </c>
       <c r="D88" s="15" t="n"/>
       <c r="E88" s="3" t="n"/>
       <c r="F88" s="18" t="n"/>
       <c r="G88" s="3" t="n"/>
       <c r="H88" s="3" t="n"/>
-      <c r="I88" s="10" t="n"/>
+      <c r="I88" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J88" s="15" t="n"/>
-      <c r="K88" s="3" t="n"/>
+      <c r="K88" s="3" t="inlineStr">
+        <is>
+          <t>Operations - M3</t>
+        </is>
+      </c>
       <c r="L88" s="20" t="n"/>
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="A89" s="15" t="n"/>
-      <c r="B89" s="9" t="n"/>
-      <c r="C89" s="4" t="n"/>
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>TM3.081.01 - Which stakeholder requirements from Operations are not defined yet? (with TRL5)</t>
+        </is>
+      </c>
       <c r="D89" s="15" t="n"/>
-      <c r="E89" s="9" t="n"/>
+      <c r="E89" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Operations * Operations to provide their relevant requirements</t>
+        </is>
+      </c>
       <c r="F89" s="18" t="n"/>
-      <c r="G89" s="9" t="n"/>
-      <c r="H89" s="9" t="n"/>
-      <c r="I89" s="9" t="n"/>
+      <c r="G89" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H89" s="9" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="I89" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J89" s="15" t="n"/>
       <c r="K89" s="3" t="n"/>
-      <c r="L89" s="20" t="n"/>
+      <c r="L89" s="20" t="inlineStr">
+        <is>
+          <t>Operations - M3</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="30" customHeight="1">
       <c r="A90" s="15" t="n"/>
-      <c r="B90" s="10" t="n"/>
-      <c r="C90" s="3" t="n"/>
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Service - M3</t>
+        </is>
+      </c>
       <c r="D90" s="15" t="n"/>
       <c r="E90" s="3" t="n"/>
       <c r="F90" s="18" t="n"/>
       <c r="G90" s="3" t="n"/>
       <c r="H90" s="3" t="n"/>
-      <c r="I90" s="10" t="n"/>
+      <c r="I90" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J90" s="15" t="n"/>
-      <c r="K90" s="3" t="n"/>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>Service - M3</t>
+        </is>
+      </c>
       <c r="L90" s="20" t="n"/>
     </row>
     <row r="91" ht="30" customHeight="1">
       <c r="A91" s="15" t="n"/>
-      <c r="B91" s="9" t="n"/>
-      <c r="C91" s="4" t="n"/>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>TM3.091.01 - Which stakeholder requirements from Service are not defined yet? (with TRL5)</t>
+        </is>
+      </c>
       <c r="D91" s="15" t="n"/>
-      <c r="E91" s="9" t="n"/>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>* Review current concept w/  Service * Service to provide their relevant requirements</t>
+        </is>
+      </c>
       <c r="F91" s="18" t="n"/>
-      <c r="G91" s="9" t="n"/>
-      <c r="H91" s="9" t="n"/>
-      <c r="I91" s="9" t="n"/>
+      <c r="G91" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H91" s="9" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="I91" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 3</t>
+        </is>
+      </c>
       <c r="J91" s="15" t="n"/>
       <c r="K91" s="3" t="n"/>
-      <c r="L91" s="20" t="n"/>
+      <c r="L91" s="20" t="inlineStr">
+        <is>
+          <t>Service - M3</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="15" t="n"/>
-      <c r="B92" s="10" t="n"/>
-      <c r="C92" s="3" t="n"/>
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
       <c r="D92" s="15" t="n"/>
       <c r="E92" s="3" t="n"/>
       <c r="F92" s="18" t="n"/>
       <c r="G92" s="10" t="n"/>
       <c r="H92" s="10" t="n"/>
-      <c r="I92" s="10" t="n"/>
+      <c r="I92" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J92" s="15" t="n"/>
-      <c r="K92" s="3" t="n"/>
+      <c r="K92" s="3" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
       <c r="L92" s="20" t="n"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="15" t="n"/>
-      <c r="B93" s="10" t="n"/>
-      <c r="C93" s="3" t="n"/>
+      <c r="B93" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>TM4.021.01 - Does the technical &amp; economic viability assessment justify continuation of the existing plan or does it need to be adapted or changed? (RWW)</t>
+        </is>
+      </c>
       <c r="D93" s="15" t="n"/>
-      <c r="E93" s="3" t="n"/>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Program Management is accountable for regular update of project justification by answering the RWW questions:* REAL? Is there a real need at the market? Is the problem we try to solve or the envisioend benefit real? Are customers are willing to pay for our solution? * WIN? can we deliver the added value we are aiming for with the new technology? is it feasible within the given time? Will customers accept our solution?*WORTH IT? Is it worth spending the real costs and the opportunity costs for this Technology?</t>
+        </is>
+      </c>
       <c r="F93" s="18" t="n"/>
-      <c r="G93" s="10" t="n"/>
-      <c r="H93" s="10" t="n"/>
-      <c r="I93" s="10" t="n"/>
+      <c r="G93" s="10" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H93" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I93" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J93" s="15" t="n"/>
       <c r="K93" s="3" t="n"/>
-      <c r="L93" s="20" t="n"/>
+      <c r="L93" s="20" t="inlineStr">
+        <is>
+          <t>Technology Sponsorship  - M4</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="15" t="n"/>
-      <c r="B94" s="9" t="n"/>
-      <c r="C94" s="4" t="n"/>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
       <c r="D94" s="15" t="n"/>
       <c r="E94" s="9" t="n"/>
       <c r="F94" s="18" t="n"/>
       <c r="G94" s="9" t="n"/>
       <c r="H94" s="9" t="n"/>
-      <c r="I94" s="9" t="n"/>
+      <c r="I94" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J94" s="15" t="n"/>
-      <c r="K94" s="3" t="n"/>
+      <c r="K94" s="3" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
       <c r="L94" s="20" t="n"/>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="15" t="n"/>
-      <c r="B95" s="10" t="n"/>
-      <c r="C95" s="3" t="n"/>
+      <c r="B95" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>TM4.031.01 - Which risks are pending regarding update of assessment and mitigation? (Project and PRS risks)</t>
+        </is>
+      </c>
       <c r="D95" s="15" t="n"/>
-      <c r="E95" s="3" t="n"/>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>*Alignment PRS with results of the current phase, e.g. test results, FMEA Measures, built issues, etc.* Update risk assessment and mitigation based on Jira items* Update risk assessment and mitigation of remaining topics based on the dashboard</t>
+        </is>
+      </c>
       <c r="F95" s="18" t="n"/>
-      <c r="G95" s="10" t="n"/>
-      <c r="H95" s="3" t="n"/>
-      <c r="I95" s="10" t="n"/>
+      <c r="G95" s="10" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I95" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J95" s="15" t="n"/>
       <c r="K95" s="3" t="n"/>
-      <c r="L95" s="20" t="n"/>
+      <c r="L95" s="20" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="15" t="n"/>
-      <c r="B96" s="9" t="n"/>
-      <c r="C96" s="4" t="n"/>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>TM4.031.02 - Lessons learned done and communicated?</t>
+        </is>
+      </c>
       <c r="D96" s="15" t="n"/>
-      <c r="E96" s="9" t="n"/>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>* lessons Learned session with project team and relevant stakeholders done* results documented and communicated</t>
+        </is>
+      </c>
       <c r="F96" s="18" t="n"/>
-      <c r="G96" s="9" t="n"/>
-      <c r="H96" s="9" t="n"/>
-      <c r="I96" s="9" t="n"/>
+      <c r="G96" s="9" t="inlineStr">
+        <is>
+          <t>Program Mgr</t>
+        </is>
+      </c>
+      <c r="H96" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I96" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J96" s="15" t="n"/>
       <c r="K96" s="3" t="n"/>
-      <c r="L96" s="20" t="n"/>
+      <c r="L96" s="20" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="30" customHeight="1">
       <c r="A97" s="15" t="n"/>
-      <c r="B97" s="10" t="n"/>
-      <c r="C97" s="3" t="n"/>
+      <c r="B97" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>TM4.031.03 - Which stakeholders have not yet released the handover list?</t>
+        </is>
+      </c>
       <c r="D97" s="15" t="n"/>
-      <c r="E97" s="3" t="n"/>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>*A Handover list completed * List of open issues assigend to responsible (supplier in the phase of productization)* all project closing relevant tasks fulfilled* sign-off by  customer</t>
+        </is>
+      </c>
       <c r="F97" s="18" t="n"/>
-      <c r="G97" s="10" t="n"/>
-      <c r="H97" s="10" t="n"/>
-      <c r="I97" s="10" t="n"/>
+      <c r="G97" s="10" t="inlineStr">
+        <is>
+          <t>Program Mgr / PEP PM</t>
+        </is>
+      </c>
+      <c r="H97" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="I97" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J97" s="15" t="n"/>
       <c r="K97" s="3" t="n"/>
-      <c r="L97" s="20" t="n"/>
+      <c r="L97" s="20" t="inlineStr">
+        <is>
+          <t>Project planning - M4</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="15" t="n"/>
-      <c r="B98" s="10" t="n"/>
-      <c r="C98" s="3" t="n"/>
+      <c r="B98" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
       <c r="D98" s="15" t="n"/>
       <c r="E98" s="3" t="n"/>
       <c r="F98" s="18" t="n"/>
       <c r="G98" s="10" t="n"/>
       <c r="H98" s="10" t="n"/>
-      <c r="I98" s="10" t="n"/>
+      <c r="I98" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J98" s="15" t="n"/>
-      <c r="K98" s="3" t="n"/>
+      <c r="K98" s="3" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
       <c r="L98" s="20" t="n"/>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="15" t="n"/>
-      <c r="B99" s="9" t="n"/>
-      <c r="C99" s="4" t="n"/>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>TM4.033.01 - Which PRS elements have not been qualified?</t>
+        </is>
+      </c>
       <c r="D99" s="15" t="n"/>
-      <c r="E99" s="9" t="n"/>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>*check final qualification status on PRS Level</t>
+        </is>
+      </c>
       <c r="F99" s="18" t="n"/>
-      <c r="G99" s="9" t="n"/>
-      <c r="H99" s="9" t="n"/>
-      <c r="I99" s="9" t="n"/>
+      <c r="G99" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H99" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I99" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J99" s="15" t="n"/>
       <c r="K99" s="3" t="n"/>
-      <c r="L99" s="20" t="n"/>
+      <c r="L99" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="30" customHeight="1">
       <c r="A100" s="15" t="n"/>
-      <c r="B100" s="10" t="n"/>
-      <c r="C100" s="3" t="n"/>
+      <c r="B100" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>TM4.033.02 - Which test cases have not been passed yet?</t>
+        </is>
+      </c>
       <c r="D100" s="15" t="n"/>
-      <c r="E100" s="3" t="n"/>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Evaluation of test results and comparison with MRS and PRS *root cause analysis for unsuccessfull  test results*create back log list for further improvement *open issues from the back log list must be assigned and solutions developed</t>
+        </is>
+      </c>
       <c r="F100" s="18" t="n"/>
-      <c r="G100" s="10" t="n"/>
-      <c r="H100" s="10" t="n"/>
-      <c r="I100" s="10" t="n"/>
+      <c r="G100" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H100" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I100" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J100" s="15" t="n"/>
       <c r="K100" s="3" t="n"/>
-      <c r="L100" s="20" t="n"/>
+      <c r="L100" s="20" t="inlineStr">
+        <is>
+          <t>PRS - M4</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="30" customHeight="1">
       <c r="A101" s="15" t="n"/>
-      <c r="B101" s="9" t="n"/>
-      <c r="C101" s="4" t="n"/>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
       <c r="D101" s="15" t="n"/>
       <c r="E101" s="9" t="n"/>
       <c r="F101" s="18" t="n"/>
       <c r="G101" s="9" t="n"/>
       <c r="H101" s="9" t="n"/>
-      <c r="I101" s="9" t="n"/>
+      <c r="I101" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J101" s="15" t="n"/>
-      <c r="K101" s="3" t="n"/>
+      <c r="K101" s="3" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
       <c r="L101" s="20" t="n"/>
     </row>
     <row r="102" ht="30" customHeight="1">
       <c r="A102" s="15" t="n"/>
-      <c r="B102" s="10" t="n"/>
-      <c r="C102" s="3" t="n"/>
+      <c r="B102" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>TM4.041.01 - Final Technology Qualification review performed and TRL target achieved?</t>
+        </is>
+      </c>
       <c r="D102" s="15" t="n"/>
-      <c r="E102" s="3" t="n"/>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>* conduct Review of all qualification results* identify gaps to targeted TRL* define measures * re-iterate development if needed</t>
+        </is>
+      </c>
       <c r="F102" s="18" t="n"/>
-      <c r="G102" s="10" t="n"/>
-      <c r="H102" s="10" t="n"/>
-      <c r="I102" s="10" t="n"/>
+      <c r="G102" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H102" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I102" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J102" s="15" t="n"/>
       <c r="K102" s="3" t="n"/>
-      <c r="L102" s="20" t="n"/>
+      <c r="L102" s="20" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="30" customHeight="1">
       <c r="A103" s="15" t="n"/>
-      <c r="B103" s="10" t="n"/>
-      <c r="C103" s="3" t="n"/>
+      <c r="B103" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM4.041.02 - If target TRL7: customer feedback received </t>
+        </is>
+      </c>
       <c r="D103" s="15" t="n"/>
-      <c r="E103" s="3" t="n"/>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>* tested at customer and feedback receivede.g. wishes for product improvememt</t>
+        </is>
+      </c>
       <c r="F103" s="18" t="n"/>
-      <c r="G103" s="10" t="n"/>
-      <c r="H103" s="10" t="n"/>
-      <c r="I103" s="10" t="n"/>
+      <c r="G103" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H103" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I103" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J103" s="15" t="n"/>
       <c r="K103" s="3" t="n"/>
-      <c r="L103" s="20" t="n"/>
+      <c r="L103" s="20" t="inlineStr">
+        <is>
+          <t>Technology Qualification - M4</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="A104" s="15" t="n"/>
-      <c r="B104" s="10" t="n"/>
-      <c r="C104" s="7" t="n"/>
+      <c r="B104" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C104" s="7" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
       <c r="D104" s="15" t="n"/>
       <c r="E104" s="3" t="n"/>
       <c r="F104" s="18" t="n"/>
       <c r="G104" s="10" t="n"/>
       <c r="H104" s="10" t="n"/>
-      <c r="I104" s="10" t="n"/>
+      <c r="I104" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J104" s="15" t="n"/>
-      <c r="K104" s="3" t="n"/>
+      <c r="K104" s="3" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
       <c r="L104" s="20" t="n"/>
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="15" t="n"/>
-      <c r="B105" s="10" t="n"/>
-      <c r="C105" s="3" t="n"/>
+      <c r="B105" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>TM4.042.01 - Final design report released?</t>
+        </is>
+      </c>
       <c r="D105" s="15" t="n"/>
-      <c r="E105" s="3" t="n"/>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>* Final design reported created/updated (shows final design)* released</t>
+        </is>
+      </c>
       <c r="F105" s="18" t="n"/>
-      <c r="G105" s="10" t="n"/>
-      <c r="H105" s="10" t="n"/>
-      <c r="I105" s="10" t="n"/>
+      <c r="G105" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H105" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I105" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J105" s="15" t="n"/>
       <c r="K105" s="3" t="n"/>
-      <c r="L105" s="20" t="n"/>
+      <c r="L105" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="15" t="n"/>
-      <c r="B106" s="10" t="n"/>
-      <c r="C106" s="3" t="n"/>
+      <c r="B106" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>TM4.042.02 - Which technological learnings are not documented in the Technology Development File?</t>
+        </is>
+      </c>
       <c r="D106" s="15" t="n"/>
-      <c r="E106" s="3" t="n"/>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>* update of Technical Development File report by qualification results and latest learnings (shows design incl. all relevant learnings - to preserve the knowledge)</t>
+        </is>
+      </c>
       <c r="F106" s="18" t="n"/>
-      <c r="G106" s="10" t="n"/>
-      <c r="H106" s="10" t="n"/>
-      <c r="I106" s="10" t="n"/>
+      <c r="G106" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H106" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I106" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J106" s="15" t="n"/>
       <c r="K106" s="3" t="n"/>
-      <c r="L106" s="20" t="n"/>
+      <c r="L106" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="30" customHeight="1">
       <c r="A107" s="15" t="n"/>
-      <c r="B107" s="10" t="n"/>
-      <c r="C107" s="3" t="n"/>
+      <c r="B107" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>TM4.042.03 - Which parts of the documents according handover list are still missing? (e.g. BoM, models, drawings, Work instructions)</t>
+        </is>
+      </c>
       <c r="D107" s="15" t="n"/>
-      <c r="E107" s="3" t="n"/>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>* review items of handover list individually with receiwing project/customer* list is complete</t>
+        </is>
+      </c>
       <c r="F107" s="18" t="n"/>
-      <c r="G107" s="10" t="n"/>
-      <c r="H107" s="10" t="n"/>
-      <c r="I107" s="10" t="n"/>
+      <c r="G107" s="10" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H107" s="10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I107" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J107" s="15" t="n"/>
       <c r="K107" s="3" t="n"/>
-      <c r="L107" s="20" t="n"/>
+      <c r="L107" s="20" t="inlineStr">
+        <is>
+          <t>Technology Development - achieving TRL5/6 and documentation - M4</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="A108" s="15" t="n"/>
-      <c r="B108" s="10" t="n"/>
-      <c r="C108" s="3" t="n"/>
+      <c r="B108" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Software for qualification - M4</t>
+        </is>
+      </c>
       <c r="D108" s="15" t="n"/>
       <c r="E108" s="3" t="n"/>
       <c r="F108" s="18" t="n"/>
       <c r="G108" s="10" t="n"/>
       <c r="H108" s="10" t="n"/>
-      <c r="I108" s="10" t="n"/>
+      <c r="I108" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J108" s="15" t="n"/>
-      <c r="K108" s="3" t="n"/>
+      <c r="K108" s="3" t="inlineStr">
+        <is>
+          <t>Software for qualification - M4</t>
+        </is>
+      </c>
       <c r="L108" s="20" t="n"/>
     </row>
     <row r="109" ht="30" customHeight="1">
       <c r="A109" s="15" t="n"/>
-      <c r="B109" s="9" t="n"/>
-      <c r="C109" s="4" t="n"/>
+      <c r="B109" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>TM4.044.01 - Which software packages for qualification or productization are not available?</t>
+        </is>
+      </c>
       <c r="D109" s="15" t="n"/>
-      <c r="E109" s="9" t="n"/>
+      <c r="E109" s="9" t="inlineStr">
+        <is>
+          <t>*Update check of software releases available for productization</t>
+        </is>
+      </c>
       <c r="F109" s="18" t="n"/>
-      <c r="G109" s="9" t="n"/>
-      <c r="H109" s="9" t="n"/>
-      <c r="I109" s="9" t="n"/>
+      <c r="G109" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H109" s="9" t="inlineStr">
+        <is>
+          <t>Software 
+Development</t>
+        </is>
+      </c>
+      <c r="I109" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J109" s="15" t="n"/>
       <c r="K109" s="3" t="n"/>
-      <c r="L109" s="20" t="n"/>
+      <c r="L109" s="20" t="inlineStr">
+        <is>
+          <t>Software for qualification - M4</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="30" customHeight="1">
       <c r="A110" s="15" t="n"/>
-      <c r="B110" s="10" t="n"/>
-      <c r="C110" s="3" t="n"/>
+      <c r="B110" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
       <c r="D110" s="15" t="n"/>
       <c r="E110" s="3" t="n"/>
       <c r="F110" s="18" t="n"/>
       <c r="G110" s="10" t="n"/>
       <c r="H110" s="3" t="n"/>
-      <c r="I110" s="10" t="n"/>
+      <c r="I110" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J110" s="15" t="n"/>
-      <c r="K110" s="3" t="n"/>
+      <c r="K110" s="3" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
       <c r="L110" s="20" t="n"/>
     </row>
     <row r="111" ht="30" customHeight="1">
       <c r="A111" s="15" t="n"/>
-      <c r="B111" s="9" t="n"/>
-      <c r="C111" s="4" t="n"/>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>TM4.051.01 - LoD reviewed and updated?</t>
+        </is>
+      </c>
       <c r="D111" s="15" t="n"/>
-      <c r="E111" s="9" t="n"/>
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>* Make sure that LoD is up to date</t>
+        </is>
+      </c>
       <c r="F111" s="18" t="n"/>
-      <c r="G111" s="9" t="n"/>
-      <c r="H111" s="9" t="n"/>
-      <c r="I111" s="9" t="n"/>
+      <c r="G111" s="9" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="H111" s="9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="I111" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J111" s="15" t="n"/>
       <c r="K111" s="3" t="n"/>
-      <c r="L111" s="20" t="n"/>
+      <c r="L111" s="20" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="30" customHeight="1">
       <c r="A112" s="15" t="n"/>
-      <c r="B112" s="10" t="n"/>
-      <c r="C112" s="3" t="n"/>
+      <c r="B112" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>TM4.051.02 - FTO reviewed and updated?</t>
+        </is>
+      </c>
       <c r="D112" s="15" t="n"/>
-      <c r="E112" s="3" t="n"/>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>* Make sure that FTO for the whole technology exists</t>
+        </is>
+      </c>
       <c r="F112" s="18" t="n"/>
-      <c r="G112" s="3" t="n"/>
-      <c r="H112" s="3" t="n"/>
-      <c r="I112" s="10" t="n"/>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>Intellectual Property</t>
+        </is>
+      </c>
+      <c r="I112" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J112" s="15" t="n"/>
       <c r="K112" s="3" t="n"/>
-      <c r="L112" s="20" t="n"/>
+      <c r="L112" s="20" t="inlineStr">
+        <is>
+          <t>IP Update - M4</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="A113" s="15" t="n"/>
-      <c r="B113" s="10" t="n"/>
-      <c r="C113" s="3" t="n"/>
+      <c r="B113" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
       <c r="D113" s="15" t="n"/>
       <c r="E113" s="3" t="n"/>
       <c r="F113" s="18" t="n"/>
       <c r="G113" s="3" t="n"/>
       <c r="H113" s="3" t="n"/>
-      <c r="I113" s="10" t="n"/>
+      <c r="I113" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J113" s="15" t="n"/>
-      <c r="K113" s="3" t="n"/>
+      <c r="K113" s="3" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
       <c r="L113" s="20" t="n"/>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="15" t="n"/>
-      <c r="B114" s="9" t="n"/>
-      <c r="C114" s="4" t="n"/>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>TM4.061.01 - D-FMEA finalized and actions executed?</t>
+        </is>
+      </c>
       <c r="D114" s="15" t="n"/>
-      <c r="E114" s="9" t="n"/>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>*Update Design FMEA*Check all Design-FMEA, i.e., on part level, measures for their status (Desing FMEA on part level)*Create a mitigation pactions which needs to be considered in further developemnt /productization</t>
+        </is>
+      </c>
       <c r="F114" s="18" t="n"/>
-      <c r="G114" s="9" t="n"/>
-      <c r="H114" s="9" t="n"/>
-      <c r="I114" s="9" t="n"/>
+      <c r="G114" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H114" s="9" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I114" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J114" s="15" t="n"/>
       <c r="K114" s="3" t="n"/>
-      <c r="L114" s="20" t="n"/>
+      <c r="L114" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
     </row>
     <row r="115" ht="30" customHeight="1">
       <c r="A115" s="15" t="n"/>
-      <c r="B115" s="10" t="n"/>
-      <c r="C115" s="3" t="n"/>
+      <c r="B115" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>TM4.061.02 - Which First Sample Reports (FSR) are not released?</t>
+        </is>
+      </c>
       <c r="D115" s="15" t="n"/>
-      <c r="E115" s="3" t="n"/>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>*verification of the FSR from technology and quality together*decision for release or release with condition or rejection</t>
+        </is>
+      </c>
       <c r="F115" s="18" t="n"/>
-      <c r="G115" s="3" t="n"/>
-      <c r="H115" s="3" t="n"/>
-      <c r="I115" s="10" t="n"/>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H115" s="3" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I115" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J115" s="15" t="n"/>
       <c r="K115" s="3" t="n"/>
-      <c r="L115" s="20" t="n"/>
+      <c r="L115" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="30" customHeight="1">
       <c r="A116" s="15" t="n"/>
-      <c r="B116" s="9" t="n"/>
-      <c r="C116" s="4" t="n"/>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM4.061.03 - If TRL&gt;=5:  
+Which suppliers have not been qualified yet?
+</t>
+        </is>
+      </c>
       <c r="D116" s="15" t="n"/>
-      <c r="E116" s="9" t="n"/>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>Updates of* potential analysis  * measures defined, incl. status to ISO 9001to be followed up in productization</t>
+        </is>
+      </c>
       <c r="F116" s="18" t="n"/>
-      <c r="G116" s="9" t="n"/>
-      <c r="H116" s="9" t="n"/>
-      <c r="I116" s="9" t="n"/>
+      <c r="G116" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H116" s="9" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="I116" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J116" s="15" t="n"/>
       <c r="K116" s="3" t="n"/>
-      <c r="L116" s="20" t="n"/>
+      <c r="L116" s="20" t="inlineStr">
+        <is>
+          <t>FMEA &amp; Quality plan - M4</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="15" t="n"/>
-      <c r="B117" s="10" t="n"/>
-      <c r="C117" s="3" t="n"/>
+      <c r="B117" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+        </is>
+      </c>
       <c r="D117" s="15" t="n"/>
       <c r="E117" s="3" t="n"/>
       <c r="F117" s="18" t="n"/>
       <c r="G117" s="3" t="n"/>
       <c r="H117" s="3" t="n"/>
-      <c r="I117" s="10" t="n"/>
+      <c r="I117" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J117" s="15" t="n"/>
-      <c r="K117" s="3" t="n"/>
+      <c r="K117" s="3" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+        </is>
+      </c>
       <c r="L117" s="20" t="n"/>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="15" t="n"/>
-      <c r="B118" s="10" t="n"/>
-      <c r="C118" s="3" t="n"/>
+      <c r="B118" s="10" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>TM4.071.01 - Procurement prepared for Productization</t>
+        </is>
+      </c>
       <c r="D118" s="15" t="n"/>
-      <c r="E118" s="3" t="n"/>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>* Long Lead items for Productization identified* All documents are prepared for order* or in follow up project</t>
+        </is>
+      </c>
       <c r="F118" s="18" t="n"/>
-      <c r="G118" s="3" t="n"/>
-      <c r="H118" s="3" t="n"/>
-      <c r="I118" s="10" t="n"/>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>Purchasing</t>
+        </is>
+      </c>
+      <c r="I118" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J118" s="15" t="n"/>
       <c r="K118" s="3" t="n"/>
-      <c r="L118" s="20" t="n"/>
+      <c r="L118" s="20" t="inlineStr">
+        <is>
+          <t>Supply Chain &amp; Procurement for Productization prepared - M4</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="30" customHeight="1">
       <c r="A119" s="15" t="n"/>
-      <c r="B119" s="10" t="n"/>
-      <c r="C119" s="3" t="n"/>
+      <c r="B119" s="10" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Project Controlling - M4</t>
+        </is>
+      </c>
       <c r="D119" s="15" t="n"/>
       <c r="E119" s="3" t="n"/>
       <c r="F119" s="18" t="n"/>
       <c r="G119" s="3" t="n"/>
       <c r="H119" s="3" t="n"/>
-      <c r="I119" s="10" t="n"/>
+      <c r="I119" s="10" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J119" s="15" t="n"/>
-      <c r="K119" s="3" t="n"/>
+      <c r="K119" s="3" t="inlineStr">
+        <is>
+          <t>Project Controlling - M4</t>
+        </is>
+      </c>
       <c r="L119" s="20" t="n"/>
     </row>
     <row r="120" ht="30" customHeight="1">
       <c r="A120" s="15" t="n"/>
-      <c r="B120" s="9" t="n"/>
-      <c r="C120" s="4" t="n"/>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>Deliverable</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TM4.101.01 - Project Costs validation done?
+</t>
+        </is>
+      </c>
       <c r="D120" s="15" t="n"/>
-      <c r="E120" s="9" t="n"/>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>* validation of spent project costs</t>
+        </is>
+      </c>
       <c r="F120" s="18" t="n"/>
-      <c r="G120" s="9" t="n"/>
-      <c r="H120" s="9" t="n"/>
-      <c r="I120" s="9" t="n"/>
+      <c r="G120" s="9" t="inlineStr">
+        <is>
+          <t>Project Mgmt</t>
+        </is>
+      </c>
+      <c r="H120" s="9" t="inlineStr">
+        <is>
+          <t>Controlling</t>
+        </is>
+      </c>
+      <c r="I120" s="9" t="inlineStr">
+        <is>
+          <t>PIP Milestone 4</t>
+        </is>
+      </c>
       <c r="J120" s="15" t="n"/>
       <c r="K120" s="3" t="n"/>
-      <c r="L120" s="20" t="n"/>
+      <c r="L120" s="20" t="inlineStr">
+        <is>
+          <t>Project Controlling - M4</t>
+        </is>
+      </c>
     </row>
     <row r="121" ht="30" customHeight="1">
       <c r="A121" s="15" t="n"/>
